--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Desktop/Uni/6. sem/Bachelorprojekt/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DECAF2-D6CE-8747-AA05-7BEA44BA2BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045284CB-167B-034F-9BED-62CF2FDAF687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="11380" windowHeight="17500" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,8 +253,216 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mathias Kold</author>
+  </authors>
+  <commentList>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{B93A3A41-CEF0-9A4D-A9F3-A1045F7E7448}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathias Kold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ændrer periode fra 31 juli til 31 maj, så denne er for 10 måneder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{6F8FB3FC-BB52-0C44-9AB2-E989EB4D1F65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathias Kold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ændrede periode til 31 juli</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A203" authorId="0" shapeId="0" xr:uid="{B59F4079-E990-824E-8A54-0689989BEE46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathias Kold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ændrer periode fra juni til juli, så 13 måneder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A213" authorId="0" shapeId="0" xr:uid="{1A53B07F-C098-1B4C-8962-6724699BBC12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathias Kold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>burnley ændrede i deres regnskabsperiode, så dette år var for 13 måneder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A227" authorId="0" shapeId="0" xr:uid="{64BBE347-E8EE-554D-986D-20566FA13BDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathias Kold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ændrede periode tilbage til 30 juni</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A257" authorId="0" shapeId="0" xr:uid="{B913E968-8A99-C342-8F42-B6EBB8AE06D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mathias Kold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ændrer tilbage til juni, så kun 11 måneder her</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="81">
   <si>
     <t>season</t>
   </si>
@@ -385,12 +593,6 @@
     <t>ganges på transfers</t>
   </si>
   <si>
-    <t>10/11</t>
-  </si>
-  <si>
-    <t>11/12</t>
-  </si>
-  <si>
     <t>Bolton</t>
   </si>
   <si>
@@ -412,13 +614,7 @@
     <t>QPR</t>
   </si>
   <si>
-    <t>12/13</t>
-  </si>
-  <si>
     <t>Reading</t>
-  </si>
-  <si>
-    <t>13/14</t>
   </si>
   <si>
     <t>Hull</t>
@@ -427,25 +623,13 @@
     <t>Cardiff</t>
   </si>
   <si>
-    <t>14/15</t>
-  </si>
-  <si>
-    <t>15/16</t>
-  </si>
-  <si>
     <t>Watford</t>
   </si>
   <si>
     <t>Bournemouth</t>
   </si>
   <si>
-    <t>16/17</t>
-  </si>
-  <si>
     <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>17/18</t>
   </si>
   <si>
     <t>Brighton</t>
@@ -454,28 +638,10 @@
     <t>Huddersfield</t>
   </si>
   <si>
-    <t>18/19</t>
-  </si>
-  <si>
-    <t>19/20</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>20/21</t>
-  </si>
-  <si>
     <t>Leeds</t>
   </si>
   <si>
-    <t>21/22</t>
-  </si>
-  <si>
     <t>Brentford</t>
-  </si>
-  <si>
-    <t>22/23</t>
   </si>
   <si>
     <t>Nottingham</t>
@@ -483,12 +649,69 @@
   <si>
     <t>Sheffield United</t>
   </si>
+  <si>
+    <t>Milwall</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Sheffield Wed</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>MK Dons</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,6 +731,12 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -641,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -652,13 +881,241 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -903,19 +1360,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}" name="Tabel2" displayName="Tabel2" ref="A1:G261" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}" name="Tabel2" displayName="Tabel2" ref="A1:G261" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:G261" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G261">
     <sortCondition ref="B1:B261"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BA6784EC-DD25-45B9-9B3B-087EAE44FAB3}" name="season" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{264AB119-A18E-4879-9AF8-42B86718EDE8}" name="club" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A151D9FE-0DE1-4234-9A37-7A3DB95D3259}" name="revenue" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BA6784EC-DD25-45B9-9B3B-087EAE44FAB3}" name="season" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{264AB119-A18E-4879-9AF8-42B86718EDE8}" name="club" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A151D9FE-0DE1-4234-9A37-7A3DB95D3259}" name="revenue" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:G313" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G313">
+    <sortCondition ref="B1:B313"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E399353A-1CC7-2745-8D5D-8DCEC38A4026}" name="season" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E8422483-0E20-7548-B9A5-25103A8914E9}" name="club" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{532D6E3A-48EC-E549-847E-FF66BC1FD208}" name="revenue" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="transfers (ind-ud)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -1248,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D4C51-CDC5-8D4D-A9A9-ABBAE8089D2A}">
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D255" sqref="D255"/>
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5">
         <v>61453</v>
@@ -1865,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5">
         <v>57558</v>
@@ -1889,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5">
         <v>54180</v>
@@ -1913,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5">
         <v>51670</v>
@@ -1936,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5">
         <v>60724</v>
@@ -1959,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5">
         <v>58450</v>
@@ -1982,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" s="5">
         <v>87875</v>
@@ -2005,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5">
         <v>136456</v>
@@ -2028,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="5">
         <v>134861</v>
@@ -2051,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5">
         <v>131134</v>
@@ -2074,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C35" s="5">
         <v>95380</v>
@@ -2097,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C36" s="5">
         <v>140983</v>
@@ -2120,7 +2596,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C37" s="5">
         <v>140913</v>
@@ -2143,7 +2619,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5">
         <v>166508</v>
@@ -2166,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C39" s="5">
         <v>139155</v>
@@ -2189,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5">
         <v>143132</v>
@@ -2212,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5">
         <v>123291</v>
@@ -2235,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5">
         <v>139731</v>
@@ -2258,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5">
         <v>167429</v>
@@ -2281,7 +2757,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C44" s="5">
         <v>203574</v>
@@ -2472,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="5">
         <v>79938</v>
@@ -2495,7 +2971,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C53" s="5">
         <v>122574</v>
@@ -3517,7 +3993,7 @@
         <v>17</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C97" s="5">
         <v>125236</v>
@@ -3540,7 +4016,7 @@
         <v>18</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C98" s="5">
         <v>119321</v>
@@ -3563,7 +4039,7 @@
         <v>13</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C99" s="5">
         <v>84482</v>
@@ -3586,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C100" s="5">
         <v>84090</v>
@@ -3609,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C101" s="5">
         <v>116927</v>
@@ -3632,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C102" s="5">
         <v>171028</v>
@@ -3656,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C103" s="5">
         <v>189207</v>
@@ -3680,7 +4156,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C104" s="5">
         <v>189684</v>
@@ -4843,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C153" s="5">
         <v>121392</v>
@@ -5155,7 +5631,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C166" s="5">
         <v>74608</v>
@@ -5179,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C167" s="5">
         <v>74733</v>
@@ -5203,7 +5679,7 @@
         <v>13</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C168" s="5">
         <v>94345</v>
@@ -5227,7 +5703,7 @@
         <v>15</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C169" s="5">
         <v>97816</v>
@@ -5251,7 +5727,7 @@
         <v>19</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C170" s="5">
         <v>119352</v>
@@ -5275,7 +5751,7 @@
         <v>21</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C171" s="5">
         <v>133869</v>
@@ -5299,7 +5775,7 @@
         <v>22</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C172" s="5">
         <v>154758</v>
@@ -5323,7 +5799,7 @@
         <v>10</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C173" s="5">
         <v>73796</v>
@@ -5347,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C174" s="5">
         <v>105032</v>
@@ -5371,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C175" s="5">
         <v>112072</v>
@@ -5395,7 +5871,7 @@
         <v>12</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C176" s="5">
         <v>59266</v>
@@ -5419,7 +5895,7 @@
         <v>19</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C177" s="5">
         <v>143137</v>
@@ -5443,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C178" s="5">
         <v>115221</v>
@@ -6553,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C225" s="5">
         <v>94449</v>
@@ -6577,7 +7053,7 @@
         <v>16</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C226" s="5">
         <v>123907</v>
@@ -6601,7 +7077,7 @@
         <v>17</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C227" s="5">
         <v>128885</v>
@@ -6625,7 +7101,7 @@
         <v>18</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C228" s="5">
         <v>147661</v>
@@ -6649,7 +7125,7 @@
         <v>19</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C229" s="5">
         <v>119985</v>
@@ -6673,7 +7149,7 @@
         <v>21</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C230" s="5">
         <v>128094</v>
@@ -7180,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C252" s="5">
         <v>50507</v>
@@ -7204,7 +7680,7 @@
         <v>10</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C253" s="5">
         <v>52597</v>
@@ -7228,7 +7704,7 @@
         <v>12</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C254" s="5">
         <v>56413</v>
@@ -7418,227 +7894,5548 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F1D7-E339-A544-9A1C-306EF1AAE73C}">
-  <dimension ref="B3:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F1D7-E339-A544-9A1C-306EF1AAE73C}">
+  <dimension ref="A1:N313"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>73827</v>
+      </c>
+      <c r="D2" s="5">
+        <v>53490</v>
+      </c>
+      <c r="E2" s="5">
+        <v>62</v>
+      </c>
+      <c r="F2" s="5">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>68600</v>
+      </c>
+      <c r="D3" s="5">
+        <v>65122</v>
+      </c>
+      <c r="E3" s="5">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>54258</v>
+      </c>
+      <c r="D4" s="5">
+        <v>85229</v>
+      </c>
+      <c r="E4" s="5">
+        <v>76</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>0.83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5">
+        <v>11029</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7502</v>
+      </c>
+      <c r="E5" s="5">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8645</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6231</v>
+      </c>
+      <c r="E6" s="5">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9126</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6909</v>
+      </c>
+      <c r="E7" s="5">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9371</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7773</v>
+      </c>
+      <c r="E8" s="5">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12501</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7853</v>
+      </c>
+      <c r="E9" s="5">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13978</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9651</v>
+      </c>
+      <c r="E10" s="5">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14219</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9922</v>
+      </c>
+      <c r="E11" s="5">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12476</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12785</v>
+      </c>
+      <c r="E12" s="5">
+        <v>78</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="11">
+        <v>14966</v>
+      </c>
+      <c r="D13" s="11">
+        <v>11584</v>
+      </c>
+      <c r="E13" s="11">
+        <v>30</v>
+      </c>
+      <c r="F13" s="11">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5">
+        <v>39086</v>
+      </c>
+      <c r="D14" s="5">
+        <v>22204</v>
+      </c>
+      <c r="E14" s="5">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5">
+        <v>24198</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20470</v>
+      </c>
+      <c r="E15" s="5">
+        <v>61</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20086</v>
+      </c>
+      <c r="D16" s="5">
+        <v>18030</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5">
+        <v>21049</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12791</v>
+      </c>
+      <c r="E17" s="5">
+        <v>63</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5">
+        <v>14708</v>
+      </c>
+      <c r="D18" s="5">
+        <v>13799</v>
+      </c>
+      <c r="E18" s="5">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5">
+        <v>17250</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20074</v>
+      </c>
+      <c r="E19" s="5">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5">
+        <v>18778</v>
+      </c>
+      <c r="D20" s="5">
+        <v>34221</v>
+      </c>
+      <c r="E20" s="5">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5">
+        <v>19</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5">
+        <v>23007</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28445</v>
+      </c>
+      <c r="E21" s="5">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5">
+        <v>22524</v>
+      </c>
+      <c r="D22" s="5">
+        <v>29152</v>
+      </c>
+      <c r="E22" s="5">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5">
+        <v>13112</v>
+      </c>
+      <c r="D23" s="5">
+        <v>26600</v>
+      </c>
+      <c r="E23" s="5">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11">
+        <v>17550</v>
+      </c>
+      <c r="D24" s="11">
+        <v>27609</v>
+      </c>
+      <c r="E24" s="11">
+        <v>47</v>
+      </c>
+      <c r="F24" s="11">
+        <v>20</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="11">
+        <v>18986</v>
+      </c>
+      <c r="D25" s="11">
+        <v>24639</v>
+      </c>
+      <c r="E25" s="11">
+        <v>53</v>
+      </c>
+      <c r="F25" s="11">
+        <v>17</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5">
+        <v>26862</v>
+      </c>
+      <c r="D26" s="5">
+        <v>31903</v>
+      </c>
+      <c r="E26" s="5">
+        <v>58</v>
+      </c>
+      <c r="F26" s="5">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30379</v>
+      </c>
+      <c r="D27" s="5">
+        <v>29911</v>
+      </c>
+      <c r="E27" s="5">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5">
+        <v>22392</v>
+      </c>
+      <c r="D28" s="5">
+        <v>26439</v>
+      </c>
+      <c r="E28" s="5">
+        <v>67</v>
+      </c>
+      <c r="F28" s="5">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5">
+        <v>22015</v>
+      </c>
+      <c r="D29" s="5">
+        <v>22300</v>
+      </c>
+      <c r="E29" s="5">
+        <v>55</v>
+      </c>
+      <c r="F29" s="5">
+        <v>15</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5">
+        <v>14897</v>
+      </c>
+      <c r="D30" s="5">
+        <v>19364</v>
+      </c>
+      <c r="E30" s="5">
+        <v>51</v>
+      </c>
+      <c r="F30" s="5">
+        <v>22</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5">
+        <v>16674</v>
+      </c>
+      <c r="D31" s="5">
+        <v>19632</v>
+      </c>
+      <c r="E31" s="5">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5">
+        <v>15</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5">
+        <v>13522</v>
+      </c>
+      <c r="D32" s="5">
+        <v>22368</v>
+      </c>
+      <c r="E32" s="5">
+        <v>63</v>
+      </c>
+      <c r="F32" s="5">
+        <v>11</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5">
+        <v>14488</v>
+      </c>
+      <c r="D33" s="5">
+        <v>22401</v>
+      </c>
+      <c r="E33" s="5">
+        <v>57</v>
+      </c>
+      <c r="F33" s="5">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11">
+        <v>16650</v>
+      </c>
+      <c r="D34" s="11">
+        <v>21368</v>
+      </c>
+      <c r="E34" s="11">
+        <v>69</v>
+      </c>
+      <c r="F34" s="11">
+        <v>8</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="11">
+        <v>20987</v>
+      </c>
+      <c r="D35" s="11">
+        <v>22499</v>
+      </c>
+      <c r="E35" s="11">
+        <v>69</v>
+      </c>
+      <c r="F35" s="11">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="5">
+        <v>28780</v>
+      </c>
+      <c r="D36" s="5">
+        <v>11121</v>
+      </c>
+      <c r="E36" s="5">
+        <v>75</v>
+      </c>
+      <c r="F36" s="5">
+        <v>5</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5">
+        <v>22008</v>
+      </c>
+      <c r="D37" s="5">
+        <v>10465</v>
+      </c>
+      <c r="E37" s="5">
+        <v>59</v>
+      </c>
+      <c r="F37" s="5">
+        <v>15</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="5">
+        <v>18205</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7906</v>
+      </c>
+      <c r="E38" s="5">
+        <v>46</v>
+      </c>
+      <c r="F38" s="5">
+        <v>20</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="5">
+        <v>17988</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7265</v>
+      </c>
+      <c r="E39" s="5">
+        <v>26</v>
+      </c>
+      <c r="F39" s="5">
+        <v>24</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="11">
+        <v>15290</v>
+      </c>
+      <c r="D40" s="11">
+        <v>10336</v>
+      </c>
+      <c r="E40" s="11">
+        <v>60</v>
+      </c>
+      <c r="F40" s="11">
+        <v>16</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="11">
+        <v>17261</v>
+      </c>
+      <c r="D41" s="11">
+        <v>12215</v>
+      </c>
+      <c r="E41" s="11">
+        <v>44</v>
+      </c>
+      <c r="F41" s="11">
+        <v>23</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C42" s="5">
+        <v>28538</v>
+      </c>
+      <c r="D42" s="5">
+        <v>32717</v>
+      </c>
+      <c r="E42" s="5">
+        <v>68</v>
+      </c>
+      <c r="F42" s="5">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="5">
+        <v>30638</v>
+      </c>
+      <c r="D43" s="5">
+        <v>26231</v>
+      </c>
+      <c r="E43" s="5">
+        <v>59</v>
+      </c>
+      <c r="F43" s="5">
+        <v>14</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>30604</v>
+      </c>
+      <c r="D44" s="5">
+        <v>25551</v>
+      </c>
+      <c r="E44" s="5">
+        <v>51</v>
+      </c>
+      <c r="F44" s="5">
+        <v>18</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5">
+        <v>30767</v>
+      </c>
+      <c r="D45" s="5">
+        <v>18367</v>
+      </c>
+      <c r="E45" s="5">
+        <v>30</v>
+      </c>
+      <c r="F45" s="5">
+        <v>24</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
+        <v>43</v>
+      </c>
+      <c r="F46" s="5">
+        <v>21</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
+        <v>32</v>
+      </c>
+      <c r="F47" s="5">
+        <v>23</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
+        <v>66</v>
+      </c>
+      <c r="F48" s="5">
+        <v>10</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
+        <v>90</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <v>77</v>
+      </c>
+      <c r="F50" s="5">
+        <v>6</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11">
+        <v>88</v>
+      </c>
+      <c r="F51" s="11">
+        <v>2</v>
+      </c>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5">
+        <v>78</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5</v>
+      </c>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5">
+        <v>65</v>
+      </c>
+      <c r="F53" s="5">
+        <v>9</v>
+      </c>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5">
+        <v>64</v>
+      </c>
+      <c r="F54" s="5">
+        <v>10</v>
+      </c>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
+        <v>69</v>
+      </c>
+      <c r="F55" s="5">
+        <v>9</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <v>64</v>
+      </c>
+      <c r="F56" s="5">
+        <v>11</v>
+      </c>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5">
+        <v>81</v>
+      </c>
+      <c r="F57" s="5">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
+        <v>87</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5">
+        <v>66</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10</v>
+      </c>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5">
+        <v>75</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5">
+        <v>72</v>
+      </c>
+      <c r="F61" s="5">
+        <v>6</v>
+      </c>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5">
+        <v>47</v>
+      </c>
+      <c r="F62" s="5">
+        <v>20</v>
+      </c>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5">
+        <v>89</v>
+      </c>
+      <c r="F63" s="5">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5">
+        <v>93</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2</v>
+      </c>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
+        <v>60</v>
+      </c>
+      <c r="F65" s="5">
+        <v>15</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5">
+        <v>49</v>
+      </c>
+      <c r="F66" s="5">
+        <v>20</v>
+      </c>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5">
+        <v>41</v>
+      </c>
+      <c r="F67" s="5">
+        <v>24</v>
+      </c>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5">
+        <v>52</v>
+      </c>
+      <c r="F68" s="5">
+        <v>18</v>
+      </c>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5">
+        <v>54</v>
+      </c>
+      <c r="F69" s="5">
+        <v>17</v>
+      </c>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5">
+        <v>67</v>
+      </c>
+      <c r="F70" s="5">
+        <v>11</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5">
+        <v>70</v>
+      </c>
+      <c r="F71" s="5">
+        <v>8</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5">
+        <v>63</v>
+      </c>
+      <c r="F72" s="5">
+        <v>12</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5">
+        <v>51</v>
+      </c>
+      <c r="F73" s="5">
+        <v>19</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
+        <v>55</v>
+      </c>
+      <c r="F74" s="11">
+        <v>17</v>
+      </c>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11">
+        <v>59</v>
+      </c>
+      <c r="F75" s="11">
+        <v>14</v>
+      </c>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5">
+        <v>68</v>
+      </c>
+      <c r="F76" s="5">
+        <v>8</v>
+      </c>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5">
+        <v>62</v>
+      </c>
+      <c r="F77" s="5">
+        <v>13</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5">
+        <v>61</v>
+      </c>
+      <c r="F78" s="5">
+        <v>11</v>
+      </c>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5">
+        <v>93</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2</v>
+      </c>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5">
+        <v>93</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1</v>
+      </c>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11">
+        <v>101</v>
+      </c>
+      <c r="F81" s="11">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5">
+        <v>52</v>
+      </c>
+      <c r="F82" s="5">
+        <v>20</v>
+      </c>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5">
+        <v>41</v>
+      </c>
+      <c r="F83" s="5">
+        <v>23</v>
+      </c>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5">
+        <v>80</v>
+      </c>
+      <c r="F84" s="5">
+        <v>4</v>
+      </c>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5">
+        <v>75</v>
+      </c>
+      <c r="F85" s="5">
+        <v>6</v>
+      </c>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5">
+        <v>87</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1</v>
+      </c>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5">
+        <v>62</v>
+      </c>
+      <c r="F87" s="5">
+        <v>11</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5">
+        <v>68</v>
+      </c>
+      <c r="F88" s="5">
+        <v>8</v>
+      </c>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5">
+        <v>62</v>
+      </c>
+      <c r="F89" s="5">
+        <v>12</v>
+      </c>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
+        <v>90</v>
+      </c>
+      <c r="F90" s="5">
+        <v>2</v>
+      </c>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
+        <v>73</v>
+      </c>
+      <c r="F91" s="5">
+        <v>5</v>
+      </c>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5">
+        <v>68</v>
+      </c>
+      <c r="F92" s="5">
+        <v>8</v>
+      </c>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11">
+        <v>53</v>
+      </c>
+      <c r="F93" s="11">
+        <v>18</v>
+      </c>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
+        <v>49</v>
+      </c>
+      <c r="F94" s="11">
+        <v>21</v>
+      </c>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5">
+        <v>65</v>
+      </c>
+      <c r="F95" s="5">
+        <v>9</v>
+      </c>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5">
+        <v>51</v>
+      </c>
+      <c r="F96" s="5">
+        <v>18</v>
+      </c>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5">
+        <v>60</v>
+      </c>
+      <c r="F97" s="5">
+        <v>12</v>
+      </c>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5">
+        <v>40</v>
+      </c>
+      <c r="F98" s="5">
+        <v>22</v>
+      </c>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5">
+        <v>48</v>
+      </c>
+      <c r="F99" s="5">
+        <v>22</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5">
+        <v>55</v>
+      </c>
+      <c r="F100" s="5">
+        <v>18</v>
+      </c>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5">
+        <v>40</v>
+      </c>
+      <c r="F101" s="5">
+        <v>23</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5">
+        <v>55</v>
+      </c>
+      <c r="F102" s="5">
+        <v>16</v>
+      </c>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11">
+        <v>64</v>
+      </c>
+      <c r="F103" s="11">
+        <v>12</v>
+      </c>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
+        <v>70</v>
+      </c>
+      <c r="F104" s="11">
+        <v>5</v>
+      </c>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5">
+        <v>48</v>
+      </c>
+      <c r="F105" s="5">
+        <v>20</v>
+      </c>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5">
+        <v>56</v>
+      </c>
+      <c r="F106" s="5">
+        <v>17</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5">
+        <v>72</v>
+      </c>
+      <c r="F107" s="5">
+        <v>5</v>
+      </c>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5">
+        <v>49</v>
+      </c>
+      <c r="F108" s="5">
+        <v>19</v>
+      </c>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5">
+        <v>64</v>
+      </c>
+      <c r="F109" s="5">
+        <v>12</v>
+      </c>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5">
+        <v>61</v>
+      </c>
+      <c r="F110" s="5">
+        <v>10</v>
+      </c>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5">
+        <v>85</v>
+      </c>
+      <c r="F111" s="5">
+        <v>3</v>
+      </c>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5">
+        <v>77</v>
+      </c>
+      <c r="F112" s="5">
+        <v>8</v>
+      </c>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5">
+        <v>78</v>
+      </c>
+      <c r="F113" s="5">
+        <v>5</v>
+      </c>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5">
+        <v>67</v>
+      </c>
+      <c r="F114" s="5">
+        <v>9</v>
+      </c>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5">
+        <v>75</v>
+      </c>
+      <c r="F115" s="5">
+        <v>6</v>
+      </c>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5">
+        <v>74</v>
+      </c>
+      <c r="F116" s="5">
+        <v>6</v>
+      </c>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5">
+        <v>64</v>
+      </c>
+      <c r="F117" s="5">
+        <v>10</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
         <v>44</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F118" s="5">
+        <v>21</v>
+      </c>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11">
+        <v>34</v>
+      </c>
+      <c r="F119" s="11">
+        <v>23</v>
+      </c>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5">
+        <v>48</v>
+      </c>
+      <c r="F120" s="5">
+        <v>21</v>
+      </c>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5">
+        <v>36</v>
+      </c>
+      <c r="F121" s="5">
+        <v>24</v>
+      </c>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5">
+        <v>44</v>
+      </c>
+      <c r="F122" s="5">
+        <v>22</v>
+      </c>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5">
         <v>52</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F123" s="5">
+        <v>17</v>
+      </c>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5">
+        <v>51</v>
+      </c>
+      <c r="F124" s="5">
+        <v>20</v>
+      </c>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5">
+        <v>80</v>
+      </c>
+      <c r="F125" s="5">
+        <v>6</v>
+      </c>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5">
+        <v>88</v>
+      </c>
+      <c r="F126" s="5">
+        <v>3</v>
+      </c>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5">
+        <v>81</v>
+      </c>
+      <c r="F127" s="5">
+        <v>4</v>
+      </c>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>90</v>
+      </c>
+      <c r="F128" s="11">
+        <v>1</v>
+      </c>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5">
+        <v>58</v>
+      </c>
+      <c r="F129" s="5">
+        <v>19</v>
+      </c>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5">
+        <v>53</v>
+      </c>
+      <c r="F130" s="5">
+        <v>17</v>
+      </c>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5">
+        <v>55</v>
+      </c>
+      <c r="F131" s="5">
+        <v>16</v>
+      </c>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5">
+        <v>51</v>
+      </c>
+      <c r="F132" s="5">
+        <v>19</v>
+      </c>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5">
+        <v>81</v>
+      </c>
+      <c r="F133" s="5">
+        <v>5</v>
+      </c>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5">
+        <v>51</v>
+      </c>
+      <c r="F134" s="5">
+        <v>18</v>
+      </c>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5">
+        <v>49</v>
+      </c>
+      <c r="F135" s="5">
+        <v>20</v>
+      </c>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11">
+        <v>82</v>
+      </c>
+      <c r="F136" s="11">
+        <v>3</v>
+      </c>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11">
+        <v>53</v>
+      </c>
+      <c r="F137" s="11">
+        <v>18</v>
+      </c>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5">
+        <v>65</v>
+      </c>
+      <c r="F138" s="5">
+        <v>11</v>
+      </c>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5">
+        <v>68</v>
+      </c>
+      <c r="F139" s="5">
+        <v>8</v>
+      </c>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5">
+        <v>79</v>
+      </c>
+      <c r="F140" s="5">
+        <v>2</v>
+      </c>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5">
+        <v>83</v>
+      </c>
+      <c r="F141" s="5">
+        <v>4</v>
+      </c>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5">
+        <v>49</v>
+      </c>
+      <c r="F142" s="5">
+        <v>18</v>
+      </c>
+      <c r="G142" s="6"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5">
+        <v>62</v>
+      </c>
+      <c r="F143" s="5">
+        <v>13</v>
+      </c>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5">
+        <v>45</v>
+      </c>
+      <c r="F144" s="5">
+        <v>24</v>
+      </c>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11">
+        <v>51</v>
+      </c>
+      <c r="F145" s="11">
+        <v>19</v>
+      </c>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>58</v>
+      </c>
+      <c r="F146" s="11">
+        <v>15</v>
+      </c>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5">
+        <v>62</v>
+      </c>
+      <c r="F147" s="5">
+        <v>13</v>
+      </c>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5">
+        <v>61</v>
+      </c>
+      <c r="F148" s="5">
+        <v>15</v>
+      </c>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5">
+        <v>60</v>
+      </c>
+      <c r="F149" s="5">
+        <v>14</v>
+      </c>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5">
+        <v>68</v>
+      </c>
+      <c r="F150" s="5">
+        <v>9</v>
+      </c>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5">
+        <v>78</v>
+      </c>
+      <c r="F151" s="5">
+        <v>6</v>
+      </c>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5">
+        <v>69</v>
+      </c>
+      <c r="F152" s="5">
+        <v>7</v>
+      </c>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5">
+        <v>55</v>
+      </c>
+      <c r="F153" s="5">
+        <v>16</v>
+      </c>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5">
+        <v>60</v>
+      </c>
+      <c r="F154" s="5">
+        <v>12</v>
+      </c>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5">
+        <v>31</v>
+      </c>
+      <c r="F155" s="5">
+        <v>24</v>
+      </c>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5">
+        <v>72</v>
+      </c>
+      <c r="F156" s="5">
+        <v>7</v>
+      </c>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5">
+        <v>61</v>
+      </c>
+      <c r="F157" s="5">
+        <v>14</v>
+      </c>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5">
+        <v>61</v>
+      </c>
+      <c r="F158" s="5">
+        <v>13</v>
+      </c>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5">
+        <v>57</v>
+      </c>
+      <c r="F159" s="5">
+        <v>15</v>
+      </c>
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5">
+        <v>56</v>
+      </c>
+      <c r="F160" s="5">
+        <v>15</v>
+      </c>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5">
+        <v>59</v>
+      </c>
+      <c r="F161" s="5">
+        <v>13</v>
+      </c>
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5">
+        <v>75</v>
+      </c>
+      <c r="F162" s="5">
+        <v>7</v>
+      </c>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5">
+        <v>60</v>
+      </c>
+      <c r="F163" s="5">
+        <v>13</v>
+      </c>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5">
+        <v>83</v>
+      </c>
+      <c r="F164" s="5">
+        <v>3</v>
+      </c>
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5">
+        <v>93</v>
+      </c>
+      <c r="F165" s="5">
+        <v>1</v>
+      </c>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5">
+        <v>67</v>
+      </c>
+      <c r="F166" s="5">
+        <v>10</v>
+      </c>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5">
+        <v>66</v>
+      </c>
+      <c r="F167" s="5">
+        <v>9</v>
+      </c>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5">
+        <v>68</v>
+      </c>
+      <c r="F168" s="5">
+        <v>6</v>
+      </c>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5">
+        <v>102</v>
+      </c>
+      <c r="F169" s="5">
+        <v>1</v>
+      </c>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5">
+        <v>51</v>
+      </c>
+      <c r="F170" s="5">
+        <v>19</v>
+      </c>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5">
+        <v>62</v>
+      </c>
+      <c r="F171" s="5">
+        <v>12</v>
+      </c>
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11">
+        <v>75</v>
+      </c>
+      <c r="F172" s="11">
+        <v>6</v>
+      </c>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11">
+        <v>80</v>
+      </c>
+      <c r="F173" s="11">
+        <v>3</v>
+      </c>
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5">
+        <v>62</v>
+      </c>
+      <c r="F174" s="5">
+        <v>12</v>
+      </c>
+      <c r="G174" s="6"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5">
+        <v>70</v>
+      </c>
+      <c r="F175" s="5">
+        <v>7</v>
+      </c>
+      <c r="G175" s="6"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5">
+        <v>59</v>
+      </c>
+      <c r="F176" s="5">
+        <v>16</v>
+      </c>
+      <c r="G176" s="6"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5">
+        <v>64</v>
+      </c>
+      <c r="F177" s="5">
+        <v>12</v>
+      </c>
+      <c r="G177" s="6"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5">
+        <v>85</v>
+      </c>
+      <c r="F178" s="5">
+        <v>4</v>
+      </c>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5">
+        <v>89</v>
+      </c>
+      <c r="F179" s="5">
+        <v>2</v>
+      </c>
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5">
+        <v>76</v>
+      </c>
+      <c r="F180" s="5">
+        <v>5</v>
+      </c>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5">
+        <v>73</v>
+      </c>
+      <c r="F181" s="5">
+        <v>7</v>
+      </c>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5">
+        <v>53</v>
+      </c>
+      <c r="F182" s="5">
+        <v>17</v>
+      </c>
+      <c r="G182" s="6"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5">
+        <v>64</v>
+      </c>
+      <c r="F183" s="5">
+        <v>10</v>
+      </c>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11">
+        <v>70</v>
+      </c>
+      <c r="F184" s="11">
+        <v>7</v>
+      </c>
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11">
+        <v>75</v>
+      </c>
+      <c r="F185" s="11">
+        <v>4</v>
+      </c>
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5">
+        <v>67</v>
+      </c>
+      <c r="F186" s="5">
+        <v>9</v>
+      </c>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5">
+        <v>57</v>
+      </c>
+      <c r="F187" s="5">
+        <v>16</v>
+      </c>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5">
+        <v>56</v>
+      </c>
+      <c r="F188" s="5">
+        <v>20</v>
+      </c>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5">
+        <v>48</v>
+      </c>
+      <c r="F189" s="5">
+        <v>19</v>
+      </c>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5">
+        <v>41</v>
+      </c>
+      <c r="F190" s="5">
+        <v>22</v>
+      </c>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5">
+        <v>72</v>
+      </c>
+      <c r="F191" s="5">
+        <v>8</v>
+      </c>
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5">
+        <v>44</v>
+      </c>
+      <c r="F192" s="5">
+        <v>21</v>
+      </c>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5">
+        <v>68</v>
+      </c>
+      <c r="F193" s="5">
+        <v>8</v>
+      </c>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5">
+        <v>62</v>
+      </c>
+      <c r="F194" s="5">
+        <v>11</v>
+      </c>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11">
+        <v>69</v>
+      </c>
+      <c r="F195" s="11">
+        <v>9</v>
+      </c>
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11">
+        <v>68</v>
+      </c>
+      <c r="F196" s="11">
+        <v>8</v>
+      </c>
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5">
+        <v>39</v>
+      </c>
+      <c r="F197" s="5">
+        <v>23</v>
+      </c>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5">
+        <v>94</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5">
+        <v>84</v>
+      </c>
+      <c r="F199" s="5">
+        <v>2</v>
+      </c>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5">
+        <v>86</v>
+      </c>
+      <c r="F200" s="5">
+        <v>3</v>
+      </c>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5">
+        <v>70</v>
+      </c>
+      <c r="F201" s="5">
+        <v>8</v>
+      </c>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5">
+        <v>60</v>
+      </c>
+      <c r="F202" s="5">
+        <v>14</v>
+      </c>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5">
+        <v>94</v>
+      </c>
+      <c r="F203" s="5">
+        <v>1</v>
+      </c>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5">
+        <v>97</v>
+      </c>
+      <c r="F204" s="5">
+        <v>1</v>
+      </c>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11">
+        <v>62</v>
+      </c>
+      <c r="F205" s="11">
+        <v>13</v>
+      </c>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5">
+        <v>75</v>
+      </c>
+      <c r="F206" s="5">
+        <v>6</v>
+      </c>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5">
+        <v>50</v>
+      </c>
+      <c r="F207" s="5">
+        <v>19</v>
+      </c>
+      <c r="G207" s="6"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5">
+        <v>67</v>
+      </c>
+      <c r="F208" s="5">
+        <v>8</v>
+      </c>
+      <c r="G208" s="6"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5">
+        <v>65</v>
+      </c>
+      <c r="F209" s="5">
+        <v>11</v>
+      </c>
+      <c r="G209" s="6"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5">
+        <v>59</v>
+      </c>
+      <c r="F210" s="5">
+        <v>14</v>
+      </c>
+      <c r="G210" s="6"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5">
+        <v>55</v>
+      </c>
+      <c r="F211" s="5">
+        <v>16</v>
+      </c>
+      <c r="G211" s="6"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5">
+        <v>51</v>
+      </c>
+      <c r="F212" s="5">
+        <v>21</v>
+      </c>
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5">
+        <v>53</v>
+      </c>
+      <c r="F213" s="5">
+        <v>17</v>
+      </c>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5">
+        <v>66</v>
+      </c>
+      <c r="F214" s="5">
+        <v>9</v>
+      </c>
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5">
+        <v>70</v>
+      </c>
+      <c r="F215" s="5">
+        <v>7</v>
+      </c>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5">
+        <v>52</v>
+      </c>
+      <c r="F216" s="5">
+        <v>17</v>
+      </c>
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11">
+        <v>80</v>
+      </c>
+      <c r="F217" s="11">
+        <v>4</v>
+      </c>
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5">
+        <v>50</v>
+      </c>
+      <c r="F218" s="5">
+        <v>18</v>
+      </c>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5">
         <v>54</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F219" s="5">
+        <v>22</v>
+      </c>
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11">
+        <v>37</v>
+      </c>
+      <c r="F220" s="11">
+        <v>22</v>
+      </c>
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5">
+        <v>58</v>
+      </c>
+      <c r="F221" s="5">
+        <v>16</v>
+      </c>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5">
+        <v>40</v>
+      </c>
+      <c r="F222" s="5">
+        <v>22</v>
+      </c>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5">
+        <v>42</v>
+      </c>
+      <c r="F223" s="5">
+        <v>22</v>
+      </c>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5">
+        <v>62</v>
+      </c>
+      <c r="F224" s="5">
+        <v>11</v>
+      </c>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5">
+        <v>62</v>
+      </c>
+      <c r="F225" s="5">
+        <v>11</v>
+      </c>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5">
+        <v>73</v>
+      </c>
+      <c r="F226" s="5">
+        <v>7</v>
+      </c>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5">
+        <v>61</v>
+      </c>
+      <c r="F227" s="5">
+        <v>14</v>
+      </c>
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5">
+        <v>66</v>
+      </c>
+      <c r="F228" s="5">
+        <v>9</v>
+      </c>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5">
+        <v>61</v>
+      </c>
+      <c r="F229" s="5">
+        <v>13</v>
+      </c>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11">
+        <v>64</v>
+      </c>
+      <c r="F230" s="11">
+        <v>13</v>
+      </c>
+      <c r="G230" s="12"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11">
+        <v>63</v>
+      </c>
+      <c r="F231" s="11">
+        <v>12</v>
+      </c>
+      <c r="G231" s="12"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5">
+        <v>88</v>
+      </c>
+      <c r="F232" s="5">
+        <v>1</v>
+      </c>
+      <c r="G232" s="6"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5">
+        <v>80</v>
+      </c>
+      <c r="F233" s="5">
+        <v>4</v>
+      </c>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5">
+        <v>60</v>
+      </c>
+      <c r="F234" s="5">
+        <v>12</v>
+      </c>
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5">
+        <v>53</v>
+      </c>
+      <c r="F235" s="5">
+        <v>18</v>
+      </c>
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5">
+        <v>56</v>
+      </c>
+      <c r="F236" s="5">
+        <v>16</v>
+      </c>
+      <c r="G236" s="6"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5">
+        <v>51</v>
+      </c>
+      <c r="F237" s="5">
+        <v>19</v>
+      </c>
+      <c r="G237" s="6"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5">
+        <v>58</v>
+      </c>
+      <c r="F238" s="5">
+        <v>13</v>
+      </c>
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5">
+        <v>68</v>
+      </c>
+      <c r="F239" s="5">
+        <v>9</v>
+      </c>
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11">
+        <v>66</v>
+      </c>
+      <c r="F240" s="11">
+        <v>11</v>
+      </c>
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11">
+        <v>50</v>
+      </c>
+      <c r="F241" s="11">
+        <v>20</v>
+      </c>
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5">
+        <v>77</v>
+      </c>
+      <c r="F242" s="5">
+        <v>5</v>
+      </c>
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5">
+        <v>89</v>
+      </c>
+      <c r="F243" s="5">
+        <v>1</v>
+      </c>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5">
+        <v>71</v>
+      </c>
+      <c r="F244" s="5">
+        <v>7</v>
+      </c>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5">
+        <v>50</v>
+      </c>
+      <c r="F245" s="5">
+        <v>19</v>
+      </c>
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5">
+        <v>52</v>
+      </c>
+      <c r="F246" s="5">
+        <v>17</v>
+      </c>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5">
+        <v>85</v>
+      </c>
+      <c r="F247" s="5">
+        <v>3</v>
+      </c>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5">
+        <v>44</v>
+      </c>
+      <c r="F248" s="5">
+        <v>20</v>
+      </c>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5">
+        <v>47</v>
+      </c>
+      <c r="F249" s="5">
+        <v>20</v>
+      </c>
+      <c r="G249" s="6"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5">
+        <v>56</v>
+      </c>
+      <c r="F250" s="5">
+        <v>14</v>
+      </c>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5">
+        <v>70</v>
+      </c>
+      <c r="F251" s="5">
+        <v>7</v>
+      </c>
+      <c r="G251" s="6"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11">
+        <v>41</v>
+      </c>
+      <c r="F252" s="11">
+        <v>21</v>
+      </c>
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11">
+        <v>44</v>
+      </c>
+      <c r="F253" s="11">
+        <v>22</v>
+      </c>
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5">
+        <v>46</v>
+      </c>
+      <c r="F254" s="5">
+        <v>21</v>
+      </c>
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5">
+        <v>49</v>
+      </c>
+      <c r="F255" s="5">
+        <v>21</v>
+      </c>
+      <c r="G255" s="6"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5">
+        <v>23</v>
+      </c>
+      <c r="F256" s="5">
+        <v>24</v>
+      </c>
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5">
+        <v>40</v>
+      </c>
+      <c r="F257" s="5">
+        <v>22</v>
+      </c>
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11">
+        <v>42</v>
+      </c>
+      <c r="F258" s="5">
+        <v>23</v>
+      </c>
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11">
+        <v>50</v>
+      </c>
+      <c r="F259" s="11">
+        <v>19</v>
+      </c>
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5">
+        <v>42</v>
+      </c>
+      <c r="F260" s="5">
+        <v>24</v>
+      </c>
+      <c r="G260" s="6"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8">
+        <v>42</v>
+      </c>
+      <c r="F261" s="5">
+        <v>23</v>
+      </c>
+      <c r="G261" s="9"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5">
+        <v>69</v>
+      </c>
+      <c r="F262" s="5">
+        <v>10</v>
+      </c>
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5">
+        <v>89</v>
+      </c>
+      <c r="F263" s="5">
+        <v>2</v>
+      </c>
+      <c r="G263" s="6"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11">
+        <v>75</v>
+      </c>
+      <c r="F264" s="11">
+        <v>5</v>
+      </c>
+      <c r="G264" s="12"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11">
+        <v>91</v>
+      </c>
+      <c r="F265" s="11">
+        <v>2</v>
+      </c>
+      <c r="G265" s="12"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8">
+        <v>58</v>
+      </c>
+      <c r="F266" s="8">
+        <v>18</v>
+      </c>
+      <c r="G266" s="9"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8">
+        <v>53</v>
+      </c>
+      <c r="F267" s="8">
+        <v>16</v>
+      </c>
+      <c r="G267" s="9"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5">
+        <v>60</v>
+      </c>
+      <c r="F268" s="8">
+        <v>13</v>
+      </c>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5">
+        <v>74</v>
+      </c>
+      <c r="F269" s="8">
+        <v>6</v>
+      </c>
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5">
+        <v>81</v>
+      </c>
+      <c r="F270" s="8">
+        <v>4</v>
+      </c>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5">
         <v>57</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F271" s="8">
+        <v>15</v>
+      </c>
+      <c r="G271" s="6"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5">
+        <v>64</v>
+      </c>
+      <c r="F272" s="8">
+        <v>12</v>
+      </c>
+      <c r="G272" s="6"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5">
+        <v>56</v>
+      </c>
+      <c r="F273" s="8">
+        <v>16</v>
+      </c>
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11">
+        <v>41</v>
+      </c>
+      <c r="F274" s="8">
+        <v>24</v>
+      </c>
+      <c r="G274" s="12"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5">
+        <v>88</v>
+      </c>
+      <c r="F275" s="8">
+        <v>2</v>
+      </c>
+      <c r="G275" s="6"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5">
+        <v>55</v>
+      </c>
+      <c r="F276" s="8">
+        <v>16</v>
+      </c>
+      <c r="G276" s="6"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5">
+        <v>56</v>
+      </c>
+      <c r="F277" s="8">
+        <v>15</v>
+      </c>
+      <c r="G277" s="6"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5">
+        <v>60</v>
+      </c>
+      <c r="F278" s="8">
+        <v>14</v>
+      </c>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11">
+        <v>62</v>
+      </c>
+      <c r="F279" s="15">
+        <v>14</v>
+      </c>
+      <c r="G279" s="12"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11">
+        <v>53</v>
+      </c>
+      <c r="F280" s="15">
+        <v>16</v>
+      </c>
+      <c r="G280" s="12"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5">
+        <v>37</v>
+      </c>
+      <c r="F281" s="8">
+        <v>24</v>
+      </c>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11">
+        <v>69</v>
+      </c>
+      <c r="F282" s="15">
+        <v>6</v>
+      </c>
+      <c r="G282" s="12"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5">
+        <v>80</v>
+      </c>
+      <c r="F283" s="8">
+        <v>3</v>
+      </c>
+      <c r="G283" s="6"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5">
+        <v>65</v>
+      </c>
+      <c r="F284" s="8">
+        <v>10</v>
+      </c>
+      <c r="G284" s="6"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5">
+        <v>70</v>
+      </c>
+      <c r="F285" s="8">
+        <v>6</v>
+      </c>
+      <c r="G285" s="6"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5">
+        <v>80</v>
+      </c>
+      <c r="F286" s="8">
+        <v>4</v>
+      </c>
+      <c r="G286" s="6"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11">
+        <v>61</v>
+      </c>
+      <c r="F287" s="15">
+        <v>15</v>
+      </c>
+      <c r="G287" s="12"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11">
+        <v>66</v>
+      </c>
+      <c r="F288" s="15">
+        <v>10</v>
+      </c>
+      <c r="G288" s="12"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5">
+        <v>61</v>
+      </c>
+      <c r="F289" s="8">
+        <v>14</v>
+      </c>
+      <c r="G289" s="6"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8">
+        <v>64</v>
+      </c>
+      <c r="F290" s="8">
+        <v>11</v>
+      </c>
+      <c r="G290" s="9"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8">
+        <v>77</v>
+      </c>
+      <c r="F291" s="8">
+        <v>3</v>
+      </c>
+      <c r="G291" s="9"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5">
+        <v>60</v>
+      </c>
+      <c r="F292" s="8">
+        <v>13</v>
+      </c>
+      <c r="G292" s="6"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5">
+        <v>89</v>
+      </c>
+      <c r="F293" s="8">
+        <v>2</v>
+      </c>
+      <c r="G293" s="6"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5">
+        <v>91</v>
+      </c>
+      <c r="F294" s="8">
+        <v>2</v>
+      </c>
+      <c r="G294" s="6"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11">
+        <v>63</v>
+      </c>
+      <c r="F295" s="15">
+        <v>11</v>
+      </c>
+      <c r="G295" s="12"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5">
+        <v>80</v>
+      </c>
+      <c r="F296" s="8">
+        <v>4</v>
+      </c>
+      <c r="G296" s="6"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5">
+        <v>83</v>
+      </c>
+      <c r="F297" s="8">
+        <v>2</v>
+      </c>
+      <c r="G297" s="6"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11">
+        <v>67</v>
+      </c>
+      <c r="F298" s="15">
+        <v>10</v>
+      </c>
+      <c r="G298" s="12"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11">
+        <v>66</v>
+      </c>
+      <c r="F299" s="15">
+        <v>9</v>
+      </c>
+      <c r="G299" s="12"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5">
+        <v>86</v>
+      </c>
+      <c r="F300" s="8">
+        <v>3</v>
+      </c>
+      <c r="G300" s="6"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5">
+        <v>73</v>
+      </c>
+      <c r="F301" s="8">
+        <v>5</v>
+      </c>
+      <c r="G301" s="6"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5">
+        <v>39</v>
+      </c>
+      <c r="F302" s="8">
+        <v>23</v>
+      </c>
+      <c r="G302" s="6"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5">
+        <v>42</v>
+      </c>
+      <c r="F303" s="8">
+        <v>23</v>
+      </c>
+      <c r="G303" s="6"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5">
+        <v>52</v>
+      </c>
+      <c r="F304" s="8">
+        <v>18</v>
+      </c>
+      <c r="G304" s="6"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5">
+        <v>47</v>
+      </c>
+      <c r="F305" s="8">
+        <v>23</v>
+      </c>
+      <c r="G305" s="6"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11">
+        <v>42</v>
+      </c>
+      <c r="F306" s="15">
+        <v>24</v>
+      </c>
+      <c r="G306" s="12"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5">
+        <v>51</v>
+      </c>
+      <c r="F307" s="8">
+        <v>23</v>
+      </c>
+      <c r="G307" s="6"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5">
+        <v>78</v>
+      </c>
+      <c r="F308" s="8">
+        <v>7</v>
+      </c>
+      <c r="G308" s="6"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5">
         <v>58</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>70</v>
-      </c>
+      <c r="F309" s="8">
+        <v>14</v>
+      </c>
+      <c r="G309" s="6"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5">
+        <v>58</v>
+      </c>
+      <c r="F310" s="8">
+        <v>15</v>
+      </c>
+      <c r="G310" s="6"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5">
+        <v>99</v>
+      </c>
+      <c r="F311" s="8">
+        <v>1</v>
+      </c>
+      <c r="G311" s="6"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11">
+        <v>43</v>
+      </c>
+      <c r="F312" s="8">
+        <v>22</v>
+      </c>
+      <c r="G312" s="12"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5">
+        <v>37</v>
+      </c>
+      <c r="F313" s="8">
+        <v>24</v>
+      </c>
+      <c r="G313" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thisen/Desktop/GitHub/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F99360-E410-674E-BD2C-8112C39706CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70844EE1-8A14-3346-A9CC-BE5030CFA16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1304,10 +1304,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Mathias Kold" id="{0A68246A-B99C-B042-AA83-2038F423A7A2}" userId="19c9cbce39ca6169" providerId="Windows Live"/>
@@ -1339,7 +1335,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:I313" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}"/>
+  <autoFilter ref="A1:I313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I313">
     <sortCondition ref="A1:A313"/>
   </sortState>
@@ -1705,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D4C51-CDC5-8D4D-A9A9-ABBAE8089D2A}">
   <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
@@ -9700,8 +9702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F1D7-E339-A544-9A1C-306EF1AAE73C}">
   <dimension ref="A1:P313"/>
   <sheetViews>
-    <sheetView topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="H314" sqref="H314"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9745,7 +9747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -9773,7 +9775,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -9807,7 +9809,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -9844,7 +9846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -9872,7 +9874,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -9900,7 +9902,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -9928,7 +9930,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -9956,7 +9958,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -9984,7 +9986,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -10012,7 +10014,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -10040,7 +10042,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -10068,7 +10070,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -10098,7 +10100,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10126,7 +10128,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -10154,7 +10156,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -10182,7 +10184,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -10206,7 +10208,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10236,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -10262,7 +10264,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -10290,7 +10292,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -10318,7 +10320,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -10346,7 +10348,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -10374,7 +10376,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -10402,7 +10404,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -10430,7 +10432,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -10458,7 +10460,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -10486,7 +10488,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -10514,7 +10516,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -10542,7 +10544,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -10570,7 +10572,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -10598,7 +10600,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -10626,7 +10628,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
@@ -10654,7 +10656,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -10682,7 +10684,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
@@ -10710,7 +10712,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -10738,7 +10740,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -10766,7 +10768,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -10794,7 +10796,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -10822,7 +10824,7 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -10850,7 +10852,7 @@
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -10878,7 +10880,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -10906,7 +10908,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
@@ -10934,7 +10936,7 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -10962,7 +10964,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -10990,7 +10992,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -11018,7 +11020,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -11042,7 +11044,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -11066,7 +11068,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -11094,7 +11096,7 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -11122,7 +11124,7 @@
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -11150,7 +11152,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -11178,7 +11180,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -11206,7 +11208,7 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -11234,7 +11236,7 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -11262,7 +11264,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -11290,7 +11292,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -11318,7 +11320,7 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -11346,7 +11348,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -11374,7 +11376,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -11402,7 +11404,7 @@
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -11430,7 +11432,7 @@
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -11458,7 +11460,7 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -11486,7 +11488,7 @@
       </c>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -11514,7 +11516,7 @@
       </c>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -11542,7 +11544,7 @@
       </c>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -11570,7 +11572,7 @@
       </c>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -11598,7 +11600,7 @@
       </c>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
@@ -11626,7 +11628,7 @@
       </c>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -11654,7 +11656,7 @@
       </c>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
@@ -11682,7 +11684,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
@@ -11710,7 +11712,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
@@ -11738,7 +11740,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
@@ -11766,7 +11768,7 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -11794,7 +11796,7 @@
       </c>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -11822,7 +11824,7 @@
       </c>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -11850,7 +11852,7 @@
       </c>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -11878,7 +11880,7 @@
       </c>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -11906,7 +11908,7 @@
       </c>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -11934,7 +11936,7 @@
       </c>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -11962,7 +11964,7 @@
       </c>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -11990,7 +11992,7 @@
       </c>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -12018,7 +12020,7 @@
       </c>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -12046,7 +12048,7 @@
       </c>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -12074,7 +12076,7 @@
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -12102,7 +12104,7 @@
       </c>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -12130,7 +12132,7 @@
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -12158,7 +12160,7 @@
       </c>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -12186,7 +12188,7 @@
       </c>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -12214,7 +12216,7 @@
       </c>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -12242,7 +12244,7 @@
       </c>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -12270,7 +12272,7 @@
       </c>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -12298,7 +12300,7 @@
       </c>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -12326,7 +12328,7 @@
       </c>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -12354,7 +12356,7 @@
       </c>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -12382,7 +12384,7 @@
       </c>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -12410,7 +12412,7 @@
       </c>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -12434,7 +12436,7 @@
       </c>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>15</v>
       </c>
@@ -12462,7 +12464,7 @@
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>15</v>
       </c>
@@ -12490,7 +12492,7 @@
       </c>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>15</v>
       </c>
@@ -12518,7 +12520,7 @@
       </c>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -12546,7 +12548,7 @@
       </c>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>15</v>
       </c>
@@ -12574,7 +12576,7 @@
       </c>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>15</v>
       </c>
@@ -12602,7 +12604,7 @@
       </c>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -12630,7 +12632,7 @@
       </c>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>15</v>
       </c>
@@ -12658,7 +12660,7 @@
       </c>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>15</v>
       </c>
@@ -12686,7 +12688,7 @@
       </c>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>15</v>
       </c>
@@ -12714,7 +12716,7 @@
       </c>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>15</v>
       </c>
@@ -12742,7 +12744,7 @@
       </c>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>15</v>
       </c>
@@ -12770,7 +12772,7 @@
       </c>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>15</v>
       </c>
@@ -12798,7 +12800,7 @@
       </c>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
@@ -12826,7 +12828,7 @@
       </c>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>15</v>
       </c>
@@ -12854,7 +12856,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>15</v>
       </c>
@@ -12882,7 +12884,7 @@
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
@@ -12910,7 +12912,7 @@
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>15</v>
       </c>
@@ -12938,7 +12940,7 @@
       </c>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>15</v>
       </c>
@@ -12966,7 +12968,7 @@
       </c>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>15</v>
       </c>
@@ -12994,7 +12996,7 @@
       </c>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>15</v>
       </c>
@@ -13022,7 +13024,7 @@
       </c>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>15</v>
       </c>
@@ -13050,7 +13052,7 @@
       </c>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>15</v>
       </c>
@@ -13078,7 +13080,7 @@
       </c>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>15</v>
       </c>
@@ -13106,7 +13108,7 @@
       </c>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>16</v>
       </c>
@@ -13134,7 +13136,7 @@
       </c>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>16</v>
       </c>
@@ -13162,7 +13164,7 @@
       </c>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>16</v>
       </c>
@@ -13190,7 +13192,7 @@
       </c>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>16</v>
       </c>
@@ -13218,7 +13220,7 @@
       </c>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
@@ -13246,7 +13248,7 @@
       </c>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>16</v>
       </c>
@@ -13274,7 +13276,7 @@
       </c>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13304,7 @@
       </c>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>16</v>
       </c>
@@ -13330,7 +13332,7 @@
       </c>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>16</v>
       </c>
@@ -13358,7 +13360,7 @@
       </c>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>16</v>
       </c>
@@ -13386,7 +13388,7 @@
       </c>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>16</v>
       </c>
@@ -13414,7 +13416,7 @@
       </c>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>16</v>
       </c>
@@ -13442,7 +13444,7 @@
       </c>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>16</v>
       </c>
@@ -13470,7 +13472,7 @@
       </c>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>16</v>
       </c>
@@ -13498,7 +13500,7 @@
       </c>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -13526,7 +13528,7 @@
       </c>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>16</v>
       </c>
@@ -13554,7 +13556,7 @@
       </c>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>16</v>
       </c>
@@ -13582,7 +13584,7 @@
       </c>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>16</v>
       </c>
@@ -13610,7 +13612,7 @@
       </c>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>16</v>
       </c>
@@ -13638,7 +13640,7 @@
       </c>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>16</v>
       </c>
@@ -13666,7 +13668,7 @@
       </c>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>16</v>
       </c>
@@ -13694,7 +13696,7 @@
       </c>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>16</v>
       </c>
@@ -13722,7 +13724,7 @@
       </c>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>16</v>
       </c>
@@ -13750,7 +13752,7 @@
       </c>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>16</v>
       </c>
@@ -13778,7 +13780,7 @@
       </c>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>17</v>
       </c>
@@ -13806,7 +13808,7 @@
       </c>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>17</v>
       </c>
@@ -13834,7 +13836,7 @@
       </c>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>17</v>
       </c>
@@ -13862,7 +13864,7 @@
       </c>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>17</v>
       </c>
@@ -13890,7 +13892,7 @@
       </c>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>17</v>
       </c>
@@ -13918,7 +13920,7 @@
       </c>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>17</v>
       </c>
@@ -13946,7 +13948,7 @@
       </c>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>17</v>
       </c>
@@ -13974,7 +13976,7 @@
       </c>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>17</v>
       </c>
@@ -14002,7 +14004,7 @@
       </c>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>17</v>
       </c>
@@ -14030,7 +14032,7 @@
       </c>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
@@ -14058,7 +14060,7 @@
       </c>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>17</v>
       </c>
@@ -14086,7 +14088,7 @@
       </c>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>17</v>
       </c>
@@ -14114,7 +14116,7 @@
       </c>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>17</v>
       </c>
@@ -14142,7 +14144,7 @@
       </c>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>17</v>
       </c>
@@ -14170,7 +14172,7 @@
       </c>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>17</v>
       </c>
@@ -14198,7 +14200,7 @@
       </c>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>17</v>
       </c>
@@ -14226,7 +14228,7 @@
       </c>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
@@ -14254,7 +14256,7 @@
       </c>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>17</v>
       </c>
@@ -14282,7 +14284,7 @@
       </c>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>17</v>
       </c>
@@ -14310,7 +14312,7 @@
       </c>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>17</v>
       </c>
@@ -14338,7 +14340,7 @@
       </c>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>17</v>
       </c>
@@ -14366,7 +14368,7 @@
       </c>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>17</v>
       </c>
@@ -14394,7 +14396,7 @@
       </c>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>17</v>
       </c>
@@ -14422,7 +14424,7 @@
       </c>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>17</v>
       </c>
@@ -14450,7 +14452,7 @@
       </c>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>18</v>
       </c>
@@ -14478,7 +14480,7 @@
       </c>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>18</v>
       </c>
@@ -14506,7 +14508,7 @@
       </c>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>18</v>
       </c>
@@ -14534,7 +14536,7 @@
       </c>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>18</v>
       </c>
@@ -14562,7 +14564,7 @@
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>18</v>
       </c>
@@ -14590,7 +14592,7 @@
       </c>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>18</v>
       </c>
@@ -14618,7 +14620,7 @@
       </c>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>18</v>
       </c>
@@ -14646,7 +14648,7 @@
       </c>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>18</v>
       </c>
@@ -14674,7 +14676,7 @@
       </c>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>18</v>
       </c>
@@ -14702,7 +14704,7 @@
       </c>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>18</v>
       </c>
@@ -14730,7 +14732,7 @@
       </c>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>18</v>
       </c>
@@ -14758,7 +14760,7 @@
       </c>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>18</v>
       </c>
@@ -14786,7 +14788,7 @@
       </c>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>18</v>
       </c>
@@ -14814,7 +14816,7 @@
       </c>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>18</v>
       </c>
@@ -14842,7 +14844,7 @@
       </c>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>18</v>
       </c>
@@ -14870,7 +14872,7 @@
       </c>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>18</v>
       </c>
@@ -14898,7 +14900,7 @@
       </c>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>18</v>
       </c>
@@ -14926,7 +14928,7 @@
       </c>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>18</v>
       </c>
@@ -14954,7 +14956,7 @@
       </c>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>18</v>
       </c>
@@ -14982,7 +14984,7 @@
       </c>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>18</v>
       </c>
@@ -15010,7 +15012,7 @@
       </c>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>18</v>
       </c>
@@ -15034,7 +15036,7 @@
       </c>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>18</v>
       </c>
@@ -15062,7 +15064,7 @@
       </c>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>18</v>
       </c>
@@ -15090,7 +15092,7 @@
       </c>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>18</v>
       </c>
@@ -15118,7 +15120,7 @@
       </c>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>19</v>
       </c>
@@ -15146,7 +15148,7 @@
       </c>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>19</v>
       </c>
@@ -15174,7 +15176,7 @@
       </c>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>19</v>
       </c>
@@ -15202,7 +15204,7 @@
       </c>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>19</v>
       </c>
@@ -15230,7 +15232,7 @@
       </c>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>19</v>
       </c>
@@ -15258,7 +15260,7 @@
       </c>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>19</v>
       </c>
@@ -15282,7 +15284,7 @@
       </c>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>19</v>
       </c>
@@ -15310,7 +15312,7 @@
       </c>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>19</v>
       </c>
@@ -15338,7 +15340,7 @@
       </c>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>19</v>
       </c>
@@ -15366,7 +15368,7 @@
       </c>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>19</v>
       </c>
@@ -15394,7 +15396,7 @@
       </c>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>19</v>
       </c>
@@ -15422,7 +15424,7 @@
       </c>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>19</v>
       </c>
@@ -15450,7 +15452,7 @@
       </c>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>19</v>
       </c>
@@ -15478,7 +15480,7 @@
       </c>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>19</v>
       </c>
@@ -15506,7 +15508,7 @@
       </c>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>19</v>
       </c>
@@ -15534,7 +15536,7 @@
       </c>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>19</v>
       </c>
@@ -15562,7 +15564,7 @@
       </c>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>19</v>
       </c>
@@ -15590,7 +15592,7 @@
       </c>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>19</v>
       </c>
@@ -15618,7 +15620,7 @@
       </c>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>19</v>
       </c>
@@ -15646,7 +15648,7 @@
       </c>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>19</v>
       </c>
@@ -15674,7 +15676,7 @@
       </c>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>19</v>
       </c>
@@ -15702,7 +15704,7 @@
       </c>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>19</v>
       </c>
@@ -15730,7 +15732,7 @@
       </c>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>19</v>
       </c>
@@ -15754,7 +15756,7 @@
       </c>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>19</v>
       </c>
@@ -15782,7 +15784,7 @@
       </c>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>20</v>
       </c>
@@ -15810,7 +15812,7 @@
       </c>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>20</v>
       </c>
@@ -15838,7 +15840,7 @@
       </c>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>20</v>
       </c>
@@ -15866,7 +15868,7 @@
       </c>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>20</v>
       </c>
@@ -15894,7 +15896,7 @@
       </c>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>20</v>
       </c>
@@ -15922,7 +15924,7 @@
       </c>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>20</v>
       </c>
@@ -15950,7 +15952,7 @@
       </c>
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>20</v>
       </c>
@@ -15978,7 +15980,7 @@
       </c>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>20</v>
       </c>
@@ -16006,7 +16008,7 @@
       </c>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>20</v>
       </c>
@@ -16034,7 +16036,7 @@
       </c>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>20</v>
       </c>
@@ -16058,7 +16060,7 @@
       </c>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>20</v>
       </c>
@@ -16086,7 +16088,7 @@
       </c>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>20</v>
       </c>
@@ -16114,7 +16116,7 @@
       </c>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>20</v>
       </c>
@@ -16142,7 +16144,7 @@
       </c>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>20</v>
       </c>
@@ -16170,7 +16172,7 @@
       </c>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>20</v>
       </c>
@@ -16198,7 +16200,7 @@
       </c>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>20</v>
       </c>
@@ -16226,7 +16228,7 @@
       </c>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>20</v>
       </c>
@@ -16254,7 +16256,7 @@
       </c>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>20</v>
       </c>
@@ -16282,7 +16284,7 @@
       </c>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>20</v>
       </c>
@@ -16310,7 +16312,7 @@
       </c>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>20</v>
       </c>
@@ -16338,7 +16340,7 @@
       </c>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>20</v>
       </c>
@@ -16366,7 +16368,7 @@
       </c>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>20</v>
       </c>
@@ -16394,7 +16396,7 @@
       </c>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>20</v>
       </c>
@@ -16418,7 +16420,7 @@
       </c>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>20</v>
       </c>
@@ -16446,7 +16448,7 @@
       </c>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>21</v>
       </c>
@@ -16474,7 +16476,7 @@
       </c>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>21</v>
       </c>
@@ -16502,7 +16504,7 @@
       </c>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>21</v>
       </c>
@@ -16553,9 +16555,7 @@
         <f>56/46</f>
         <v>1.2173913043478262</v>
       </c>
-      <c r="H245" s="6">
-        <v>0</v>
-      </c>
+      <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -16581,12 +16581,10 @@
         <f>58/46</f>
         <v>1.2608695652173914</v>
       </c>
-      <c r="H246" s="6">
-        <v>0</v>
-      </c>
+      <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>21</v>
       </c>
@@ -16614,7 +16612,7 @@
       </c>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>21</v>
       </c>
@@ -16665,12 +16663,10 @@
         <f>66/46</f>
         <v>1.4347826086956521</v>
       </c>
-      <c r="H249" s="6">
-        <v>0</v>
-      </c>
+      <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>21</v>
       </c>
@@ -16698,7 +16694,7 @@
       </c>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>21</v>
       </c>
@@ -16726,7 +16722,7 @@
       </c>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>21</v>
       </c>
@@ -16754,7 +16750,7 @@
       </c>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>21</v>
       </c>
@@ -16805,9 +16801,7 @@
         <f>49/46</f>
         <v>1.0652173913043479</v>
       </c>
-      <c r="H254" s="6">
-        <v>0</v>
-      </c>
+      <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -16833,9 +16827,7 @@
         <f>50/46</f>
         <v>1.0869565217391304</v>
       </c>
-      <c r="H255" s="6">
-        <v>0</v>
-      </c>
+      <c r="H255" s="6"/>
       <c r="I255" s="6"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -16861,9 +16853,7 @@
         <f>65/46</f>
         <v>1.4130434782608696</v>
       </c>
-      <c r="H256" s="6">
-        <v>0</v>
-      </c>
+      <c r="H256" s="6"/>
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -16889,9 +16879,7 @@
         <f>49/46</f>
         <v>1.0652173913043479</v>
       </c>
-      <c r="H257" s="6">
-        <v>0</v>
-      </c>
+      <c r="H257" s="6"/>
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -16917,9 +16905,7 @@
         <f>37/46</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="H258" s="6">
-        <v>0</v>
-      </c>
+      <c r="H258" s="6"/>
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -16945,9 +16931,7 @@
         <f>37/46</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="H259" s="6">
-        <v>0</v>
-      </c>
+      <c r="H259" s="6"/>
       <c r="I259" s="6"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -16973,9 +16957,7 @@
         <f>46/46</f>
         <v>1</v>
       </c>
-      <c r="H260" s="6">
-        <v>0</v>
-      </c>
+      <c r="H260" s="6"/>
       <c r="I260" s="6"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -17001,9 +16983,7 @@
         <f>50/46</f>
         <v>1.0869565217391304</v>
       </c>
-      <c r="H261" s="9">
-        <v>0</v>
-      </c>
+      <c r="H261" s="9"/>
       <c r="I261" s="9"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -17025,12 +17005,10 @@
         <f>36/46</f>
         <v>0.78260869565217395</v>
       </c>
-      <c r="H262" s="6">
-        <v>0</v>
-      </c>
+      <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>21</v>
       </c>
@@ -17077,9 +17055,7 @@
         <f>44/46</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="H264" s="6">
-        <v>0</v>
-      </c>
+      <c r="H264" s="6"/>
       <c r="I264" s="6"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -17105,12 +17081,10 @@
         <f>40/46</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="H265" s="6">
-        <v>0</v>
-      </c>
+      <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>22</v>
       </c>
@@ -17138,7 +17112,7 @@
       </c>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>22</v>
       </c>
@@ -17166,7 +17140,7 @@
       </c>
       <c r="I267" s="9"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>22</v>
       </c>
@@ -17194,7 +17168,7 @@
       </c>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>22</v>
       </c>
@@ -17222,7 +17196,7 @@
       </c>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>22</v>
       </c>
@@ -17250,7 +17224,7 @@
       </c>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>22</v>
       </c>
@@ -17278,7 +17252,7 @@
       </c>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>22</v>
       </c>
@@ -17306,7 +17280,7 @@
       </c>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>22</v>
       </c>
@@ -17334,7 +17308,7 @@
       </c>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>22</v>
       </c>
@@ -17362,7 +17336,7 @@
       </c>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>22</v>
       </c>
@@ -17390,7 +17364,7 @@
       </c>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>22</v>
       </c>
@@ -17418,7 +17392,7 @@
       </c>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>22</v>
       </c>
@@ -17446,7 +17420,7 @@
       </c>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>22</v>
       </c>
@@ -17474,7 +17448,7 @@
       </c>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>22</v>
       </c>
@@ -17502,7 +17476,7 @@
       </c>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>22</v>
       </c>
@@ -17530,7 +17504,7 @@
       </c>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>22</v>
       </c>
@@ -17558,7 +17532,7 @@
       </c>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>22</v>
       </c>
@@ -17586,7 +17560,7 @@
       </c>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>22</v>
       </c>
@@ -17614,7 +17588,7 @@
       </c>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>22</v>
       </c>
@@ -17642,7 +17616,7 @@
       </c>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>22</v>
       </c>
@@ -17670,7 +17644,7 @@
       </c>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>22</v>
       </c>
@@ -17698,7 +17672,7 @@
       </c>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>22</v>
       </c>
@@ -17726,7 +17700,7 @@
       </c>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>22</v>
       </c>
@@ -17750,7 +17724,7 @@
       </c>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>22</v>
       </c>
@@ -17778,7 +17752,7 @@
       </c>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>23</v>
       </c>
@@ -17806,7 +17780,7 @@
       </c>
       <c r="I290" s="9"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>23</v>
       </c>
@@ -17834,7 +17808,7 @@
       </c>
       <c r="I291" s="9"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>23</v>
       </c>
@@ -17862,7 +17836,7 @@
       </c>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>23</v>
       </c>
@@ -17890,7 +17864,7 @@
       </c>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>23</v>
       </c>
@@ -17918,7 +17892,7 @@
       </c>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>23</v>
       </c>
@@ -17946,7 +17920,7 @@
       </c>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>23</v>
       </c>
@@ -17974,7 +17948,7 @@
       </c>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>23</v>
       </c>
@@ -18002,7 +17976,7 @@
       </c>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>23</v>
       </c>
@@ -18030,7 +18004,7 @@
       </c>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>23</v>
       </c>
@@ -18058,7 +18032,7 @@
       </c>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>23</v>
       </c>
@@ -18086,7 +18060,7 @@
       </c>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>23</v>
       </c>
@@ -18114,7 +18088,7 @@
       </c>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>23</v>
       </c>
@@ -18142,7 +18116,7 @@
       </c>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>23</v>
       </c>
@@ -18170,7 +18144,7 @@
       </c>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>23</v>
       </c>
@@ -18198,7 +18172,7 @@
       </c>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>23</v>
       </c>
@@ -18229,7 +18203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>23</v>
       </c>
@@ -18257,7 +18231,7 @@
       </c>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>23</v>
       </c>
@@ -18285,7 +18259,7 @@
       </c>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>23</v>
       </c>
@@ -18313,7 +18287,7 @@
       </c>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>23</v>
       </c>
@@ -18341,7 +18315,7 @@
       </c>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>23</v>
       </c>
@@ -18369,7 +18343,7 @@
       </c>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>23</v>
       </c>
@@ -18397,7 +18371,7 @@
       </c>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>23</v>
       </c>
@@ -18428,7 +18402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>23</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thisen/Desktop/GitHub/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70844EE1-8A14-3346-A9CC-BE5030CFA16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05262E74-04EE-7A4E-950B-1C3229E38DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
@@ -597,7 +597,7 @@
     <t>tilskuere</t>
   </si>
   <si>
-    <t>mål pr kamp</t>
+    <t>goals</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1325,7 @@
     <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{977C4AF2-ED50-724B-AC27-5CA5F5634663}" name="mål pr kamp" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{977C4AF2-ED50-724B-AC27-5CA5F5634663}" name="goals" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{8D05B551-4619-C64B-97C0-C681B41DEB4C}" name="tilskuere" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="14"/>
   </tableColumns>
@@ -1335,13 +1335,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:I313" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I313">
     <sortCondition ref="A1:A313"/>
   </sortState>
@@ -1352,7 +1346,7 @@
     <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="mål pr kamp" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="goals" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{E161F9ED-52DF-434C-8F94-B383F794ED6D}" name="tilskuere" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="transfers (ind-ud)" dataDxfId="0"/>
   </tableColumns>
@@ -1708,7 +1702,7 @@
   <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9703,7 +9697,7 @@
   <dimension ref="A1:P313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H323" sqref="H323"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9718,7 +9712,7 @@
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9747,7 +9741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -9775,7 +9769,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -9809,7 +9803,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -9846,7 +9840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -9874,7 +9868,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -9902,7 +9896,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -9930,7 +9924,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -9958,7 +9952,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -9986,7 +9980,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -10014,7 +10008,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -10042,7 +10036,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -10070,7 +10064,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -10100,7 +10094,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10128,7 +10122,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -10156,7 +10150,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -10184,7 +10178,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -10208,7 +10202,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -10236,7 +10230,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -10264,7 +10258,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -10292,7 +10286,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -10320,7 +10314,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -10348,7 +10342,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -10376,7 +10370,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -10404,7 +10398,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -10432,7 +10426,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -10460,7 +10454,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
@@ -10488,7 +10482,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -10516,7 +10510,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -10544,7 +10538,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -10572,7 +10566,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
@@ -10600,7 +10594,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -10628,7 +10622,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
@@ -10656,7 +10650,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -10684,7 +10678,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
@@ -10712,7 +10706,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -10740,7 +10734,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -10768,7 +10762,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -10796,7 +10790,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -10824,7 +10818,7 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -10852,7 +10846,7 @@
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -10880,7 +10874,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -10908,7 +10902,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
@@ -10936,7 +10930,7 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -10964,7 +10958,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -10992,7 +10986,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -11020,7 +11014,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -11044,7 +11038,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -11068,7 +11062,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -11096,7 +11090,7 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -11124,7 +11118,7 @@
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -11152,7 +11146,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -11180,7 +11174,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -11208,7 +11202,7 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -11236,7 +11230,7 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -11264,7 +11258,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -11292,7 +11286,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -11320,7 +11314,7 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -11348,7 +11342,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -11376,7 +11370,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -11404,7 +11398,7 @@
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -11432,7 +11426,7 @@
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -11460,7 +11454,7 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -11488,7 +11482,7 @@
       </c>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -11516,7 +11510,7 @@
       </c>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -11544,7 +11538,7 @@
       </c>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -11572,7 +11566,7 @@
       </c>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -11600,7 +11594,7 @@
       </c>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
@@ -11628,7 +11622,7 @@
       </c>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -11656,7 +11650,7 @@
       </c>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
@@ -11684,7 +11678,7 @@
       </c>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
@@ -11712,7 +11706,7 @@
       </c>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
@@ -11740,7 +11734,7 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
@@ -11768,7 +11762,7 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -11796,7 +11790,7 @@
       </c>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -11824,7 +11818,7 @@
       </c>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
@@ -11852,7 +11846,7 @@
       </c>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -11880,7 +11874,7 @@
       </c>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>14</v>
       </c>
@@ -11908,7 +11902,7 @@
       </c>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>14</v>
       </c>
@@ -11936,7 +11930,7 @@
       </c>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
@@ -11964,7 +11958,7 @@
       </c>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>14</v>
       </c>
@@ -11992,7 +11986,7 @@
       </c>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -12020,7 +12014,7 @@
       </c>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -12048,7 +12042,7 @@
       </c>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>14</v>
       </c>
@@ -12076,7 +12070,7 @@
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -12104,7 +12098,7 @@
       </c>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>14</v>
       </c>
@@ -12132,7 +12126,7 @@
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -12160,7 +12154,7 @@
       </c>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -12188,7 +12182,7 @@
       </c>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>14</v>
       </c>
@@ -12216,7 +12210,7 @@
       </c>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
@@ -12244,7 +12238,7 @@
       </c>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>14</v>
       </c>
@@ -12272,7 +12266,7 @@
       </c>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>14</v>
       </c>
@@ -12300,7 +12294,7 @@
       </c>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>14</v>
       </c>
@@ -12328,7 +12322,7 @@
       </c>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>14</v>
       </c>
@@ -12356,7 +12350,7 @@
       </c>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>14</v>
       </c>
@@ -12384,7 +12378,7 @@
       </c>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>14</v>
       </c>
@@ -12412,7 +12406,7 @@
       </c>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -12436,7 +12430,7 @@
       </c>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>15</v>
       </c>
@@ -12464,7 +12458,7 @@
       </c>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>15</v>
       </c>
@@ -12492,7 +12486,7 @@
       </c>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>15</v>
       </c>
@@ -12520,7 +12514,7 @@
       </c>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>15</v>
       </c>
@@ -12548,7 +12542,7 @@
       </c>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>15</v>
       </c>
@@ -12576,7 +12570,7 @@
       </c>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>15</v>
       </c>
@@ -12604,7 +12598,7 @@
       </c>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -12632,7 +12626,7 @@
       </c>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>15</v>
       </c>
@@ -12660,7 +12654,7 @@
       </c>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>15</v>
       </c>
@@ -12688,7 +12682,7 @@
       </c>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>15</v>
       </c>
@@ -12716,7 +12710,7 @@
       </c>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>15</v>
       </c>
@@ -12744,7 +12738,7 @@
       </c>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>15</v>
       </c>
@@ -12772,7 +12766,7 @@
       </c>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>15</v>
       </c>
@@ -12800,7 +12794,7 @@
       </c>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>15</v>
       </c>
@@ -12828,7 +12822,7 @@
       </c>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>15</v>
       </c>
@@ -12856,7 +12850,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>15</v>
       </c>
@@ -12884,7 +12878,7 @@
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
@@ -12912,7 +12906,7 @@
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>15</v>
       </c>
@@ -12940,7 +12934,7 @@
       </c>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>15</v>
       </c>
@@ -12968,7 +12962,7 @@
       </c>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>15</v>
       </c>
@@ -12996,7 +12990,7 @@
       </c>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>15</v>
       </c>
@@ -13024,7 +13018,7 @@
       </c>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>15</v>
       </c>
@@ -13052,7 +13046,7 @@
       </c>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>15</v>
       </c>
@@ -13080,7 +13074,7 @@
       </c>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>15</v>
       </c>
@@ -13108,7 +13102,7 @@
       </c>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>16</v>
       </c>
@@ -13136,7 +13130,7 @@
       </c>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>16</v>
       </c>
@@ -13164,7 +13158,7 @@
       </c>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>16</v>
       </c>
@@ -13192,7 +13186,7 @@
       </c>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>16</v>
       </c>
@@ -13220,7 +13214,7 @@
       </c>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
@@ -13248,7 +13242,7 @@
       </c>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>16</v>
       </c>
@@ -13276,7 +13270,7 @@
       </c>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
@@ -13304,7 +13298,7 @@
       </c>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>16</v>
       </c>
@@ -13332,7 +13326,7 @@
       </c>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>16</v>
       </c>
@@ -13360,7 +13354,7 @@
       </c>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>16</v>
       </c>
@@ -13388,7 +13382,7 @@
       </c>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>16</v>
       </c>
@@ -13416,7 +13410,7 @@
       </c>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>16</v>
       </c>
@@ -13444,7 +13438,7 @@
       </c>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>16</v>
       </c>
@@ -13472,7 +13466,7 @@
       </c>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>16</v>
       </c>
@@ -13500,7 +13494,7 @@
       </c>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -13528,7 +13522,7 @@
       </c>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>16</v>
       </c>
@@ -13556,7 +13550,7 @@
       </c>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>16</v>
       </c>
@@ -13584,7 +13578,7 @@
       </c>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>16</v>
       </c>
@@ -13612,7 +13606,7 @@
       </c>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>16</v>
       </c>
@@ -13640,7 +13634,7 @@
       </c>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>16</v>
       </c>
@@ -13668,7 +13662,7 @@
       </c>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>16</v>
       </c>
@@ -13696,7 +13690,7 @@
       </c>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>16</v>
       </c>
@@ -13724,7 +13718,7 @@
       </c>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>16</v>
       </c>
@@ -13752,7 +13746,7 @@
       </c>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>16</v>
       </c>
@@ -13780,7 +13774,7 @@
       </c>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>17</v>
       </c>
@@ -13808,7 +13802,7 @@
       </c>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>17</v>
       </c>
@@ -13836,7 +13830,7 @@
       </c>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>17</v>
       </c>
@@ -13864,7 +13858,7 @@
       </c>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>17</v>
       </c>
@@ -13892,7 +13886,7 @@
       </c>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>17</v>
       </c>
@@ -13920,7 +13914,7 @@
       </c>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>17</v>
       </c>
@@ -13948,7 +13942,7 @@
       </c>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>17</v>
       </c>
@@ -13976,7 +13970,7 @@
       </c>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>17</v>
       </c>
@@ -14004,7 +13998,7 @@
       </c>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>17</v>
       </c>
@@ -14032,7 +14026,7 @@
       </c>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
@@ -14060,7 +14054,7 @@
       </c>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>17</v>
       </c>
@@ -14088,7 +14082,7 @@
       </c>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>17</v>
       </c>
@@ -14116,7 +14110,7 @@
       </c>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>17</v>
       </c>
@@ -14144,7 +14138,7 @@
       </c>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>17</v>
       </c>
@@ -14172,7 +14166,7 @@
       </c>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>17</v>
       </c>
@@ -14200,7 +14194,7 @@
       </c>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>17</v>
       </c>
@@ -14228,7 +14222,7 @@
       </c>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
@@ -14256,7 +14250,7 @@
       </c>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>17</v>
       </c>
@@ -14284,7 +14278,7 @@
       </c>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>17</v>
       </c>
@@ -14312,7 +14306,7 @@
       </c>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>17</v>
       </c>
@@ -14340,7 +14334,7 @@
       </c>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>17</v>
       </c>
@@ -14368,7 +14362,7 @@
       </c>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>17</v>
       </c>
@@ -14396,7 +14390,7 @@
       </c>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>17</v>
       </c>
@@ -14424,7 +14418,7 @@
       </c>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>17</v>
       </c>
@@ -14452,7 +14446,7 @@
       </c>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>18</v>
       </c>
@@ -14480,7 +14474,7 @@
       </c>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>18</v>
       </c>
@@ -14508,7 +14502,7 @@
       </c>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>18</v>
       </c>
@@ -14536,7 +14530,7 @@
       </c>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>18</v>
       </c>
@@ -14564,7 +14558,7 @@
       </c>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>18</v>
       </c>
@@ -14592,7 +14586,7 @@
       </c>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>18</v>
       </c>
@@ -14620,7 +14614,7 @@
       </c>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>18</v>
       </c>
@@ -14648,7 +14642,7 @@
       </c>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>18</v>
       </c>
@@ -14676,7 +14670,7 @@
       </c>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>18</v>
       </c>
@@ -14704,7 +14698,7 @@
       </c>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>18</v>
       </c>
@@ -14732,7 +14726,7 @@
       </c>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>18</v>
       </c>
@@ -14760,7 +14754,7 @@
       </c>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>18</v>
       </c>
@@ -14788,7 +14782,7 @@
       </c>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>18</v>
       </c>
@@ -14816,7 +14810,7 @@
       </c>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>18</v>
       </c>
@@ -14844,7 +14838,7 @@
       </c>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>18</v>
       </c>
@@ -14872,7 +14866,7 @@
       </c>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>18</v>
       </c>
@@ -14900,7 +14894,7 @@
       </c>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>18</v>
       </c>
@@ -14928,7 +14922,7 @@
       </c>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>18</v>
       </c>
@@ -14956,7 +14950,7 @@
       </c>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>18</v>
       </c>
@@ -14984,7 +14978,7 @@
       </c>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>18</v>
       </c>
@@ -15012,7 +15006,7 @@
       </c>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>18</v>
       </c>
@@ -15036,7 +15030,7 @@
       </c>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>18</v>
       </c>
@@ -15064,7 +15058,7 @@
       </c>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>18</v>
       </c>
@@ -15092,7 +15086,7 @@
       </c>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>18</v>
       </c>
@@ -15120,7 +15114,7 @@
       </c>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>19</v>
       </c>
@@ -15148,7 +15142,7 @@
       </c>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>19</v>
       </c>
@@ -15176,7 +15170,7 @@
       </c>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>19</v>
       </c>
@@ -15204,7 +15198,7 @@
       </c>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>19</v>
       </c>
@@ -15232,7 +15226,7 @@
       </c>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>19</v>
       </c>
@@ -15260,7 +15254,7 @@
       </c>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>19</v>
       </c>
@@ -15284,7 +15278,7 @@
       </c>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>19</v>
       </c>
@@ -15312,7 +15306,7 @@
       </c>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>19</v>
       </c>
@@ -15340,7 +15334,7 @@
       </c>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>19</v>
       </c>
@@ -15368,7 +15362,7 @@
       </c>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>19</v>
       </c>
@@ -15396,7 +15390,7 @@
       </c>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>19</v>
       </c>
@@ -15424,7 +15418,7 @@
       </c>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>19</v>
       </c>
@@ -15452,7 +15446,7 @@
       </c>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>19</v>
       </c>
@@ -15480,7 +15474,7 @@
       </c>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>19</v>
       </c>
@@ -15508,7 +15502,7 @@
       </c>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>19</v>
       </c>
@@ -15536,7 +15530,7 @@
       </c>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>19</v>
       </c>
@@ -15564,7 +15558,7 @@
       </c>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>19</v>
       </c>
@@ -15592,7 +15586,7 @@
       </c>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>19</v>
       </c>
@@ -15620,7 +15614,7 @@
       </c>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>19</v>
       </c>
@@ -15648,7 +15642,7 @@
       </c>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>19</v>
       </c>
@@ -15676,7 +15670,7 @@
       </c>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>19</v>
       </c>
@@ -15704,7 +15698,7 @@
       </c>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>19</v>
       </c>
@@ -15732,7 +15726,7 @@
       </c>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>19</v>
       </c>
@@ -15756,7 +15750,7 @@
       </c>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>19</v>
       </c>
@@ -15784,7 +15778,7 @@
       </c>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>20</v>
       </c>
@@ -15812,7 +15806,7 @@
       </c>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>20</v>
       </c>
@@ -15840,7 +15834,7 @@
       </c>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>20</v>
       </c>
@@ -15868,7 +15862,7 @@
       </c>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>20</v>
       </c>
@@ -15896,7 +15890,7 @@
       </c>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>20</v>
       </c>
@@ -15924,7 +15918,7 @@
       </c>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>20</v>
       </c>
@@ -15952,7 +15946,7 @@
       </c>
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>20</v>
       </c>
@@ -15980,7 +15974,7 @@
       </c>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>20</v>
       </c>
@@ -16008,7 +16002,7 @@
       </c>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>20</v>
       </c>
@@ -16036,7 +16030,7 @@
       </c>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>20</v>
       </c>
@@ -16060,7 +16054,7 @@
       </c>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>20</v>
       </c>
@@ -16088,7 +16082,7 @@
       </c>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>20</v>
       </c>
@@ -16116,7 +16110,7 @@
       </c>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>20</v>
       </c>
@@ -16144,7 +16138,7 @@
       </c>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>20</v>
       </c>
@@ -16172,7 +16166,7 @@
       </c>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>20</v>
       </c>
@@ -16200,7 +16194,7 @@
       </c>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>20</v>
       </c>
@@ -16228,7 +16222,7 @@
       </c>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>20</v>
       </c>
@@ -16256,7 +16250,7 @@
       </c>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>20</v>
       </c>
@@ -16284,7 +16278,7 @@
       </c>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>20</v>
       </c>
@@ -16312,7 +16306,7 @@
       </c>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>20</v>
       </c>
@@ -16340,7 +16334,7 @@
       </c>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>20</v>
       </c>
@@ -16368,7 +16362,7 @@
       </c>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>20</v>
       </c>
@@ -16396,7 +16390,7 @@
       </c>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>20</v>
       </c>
@@ -16420,7 +16414,7 @@
       </c>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>20</v>
       </c>
@@ -16448,7 +16442,7 @@
       </c>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>21</v>
       </c>
@@ -16476,7 +16470,7 @@
       </c>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>21</v>
       </c>
@@ -16504,7 +16498,7 @@
       </c>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>21</v>
       </c>
@@ -16584,7 +16578,7 @@
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>21</v>
       </c>
@@ -16612,7 +16606,7 @@
       </c>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>21</v>
       </c>
@@ -16666,7 +16660,7 @@
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>21</v>
       </c>
@@ -16694,7 +16688,7 @@
       </c>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>21</v>
       </c>
@@ -16722,7 +16716,7 @@
       </c>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>21</v>
       </c>
@@ -16750,7 +16744,7 @@
       </c>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>21</v>
       </c>
@@ -17008,7 +17002,7 @@
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>21</v>
       </c>
@@ -17084,7 +17078,7 @@
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>22</v>
       </c>
@@ -17112,7 +17106,7 @@
       </c>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>22</v>
       </c>
@@ -17140,7 +17134,7 @@
       </c>
       <c r="I267" s="9"/>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>22</v>
       </c>
@@ -17168,7 +17162,7 @@
       </c>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>22</v>
       </c>
@@ -17196,7 +17190,7 @@
       </c>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>22</v>
       </c>
@@ -17224,7 +17218,7 @@
       </c>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>22</v>
       </c>
@@ -17252,7 +17246,7 @@
       </c>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>22</v>
       </c>
@@ -17280,7 +17274,7 @@
       </c>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>22</v>
       </c>
@@ -17308,7 +17302,7 @@
       </c>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>22</v>
       </c>
@@ -17336,7 +17330,7 @@
       </c>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>22</v>
       </c>
@@ -17364,7 +17358,7 @@
       </c>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>22</v>
       </c>
@@ -17392,7 +17386,7 @@
       </c>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>22</v>
       </c>
@@ -17420,7 +17414,7 @@
       </c>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>22</v>
       </c>
@@ -17448,7 +17442,7 @@
       </c>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>22</v>
       </c>
@@ -17476,7 +17470,7 @@
       </c>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>22</v>
       </c>
@@ -17504,7 +17498,7 @@
       </c>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>22</v>
       </c>
@@ -17532,7 +17526,7 @@
       </c>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>22</v>
       </c>
@@ -17560,7 +17554,7 @@
       </c>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>22</v>
       </c>
@@ -17588,7 +17582,7 @@
       </c>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>22</v>
       </c>
@@ -17616,7 +17610,7 @@
       </c>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>22</v>
       </c>
@@ -17644,7 +17638,7 @@
       </c>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>22</v>
       </c>
@@ -17672,7 +17666,7 @@
       </c>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>22</v>
       </c>
@@ -17700,7 +17694,7 @@
       </c>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>22</v>
       </c>
@@ -17724,7 +17718,7 @@
       </c>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>22</v>
       </c>
@@ -17752,7 +17746,7 @@
       </c>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>23</v>
       </c>
@@ -17780,7 +17774,7 @@
       </c>
       <c r="I290" s="9"/>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>23</v>
       </c>
@@ -17808,7 +17802,7 @@
       </c>
       <c r="I291" s="9"/>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>23</v>
       </c>
@@ -17836,7 +17830,7 @@
       </c>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>23</v>
       </c>
@@ -17864,7 +17858,7 @@
       </c>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>23</v>
       </c>
@@ -17892,7 +17886,7 @@
       </c>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>23</v>
       </c>
@@ -17920,7 +17914,7 @@
       </c>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>23</v>
       </c>
@@ -17948,7 +17942,7 @@
       </c>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>23</v>
       </c>
@@ -17976,7 +17970,7 @@
       </c>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>23</v>
       </c>
@@ -18004,7 +17998,7 @@
       </c>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>23</v>
       </c>
@@ -18032,7 +18026,7 @@
       </c>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>23</v>
       </c>
@@ -18060,7 +18054,7 @@
       </c>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>23</v>
       </c>
@@ -18088,7 +18082,7 @@
       </c>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>23</v>
       </c>
@@ -18116,7 +18110,7 @@
       </c>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>23</v>
       </c>
@@ -18144,7 +18138,7 @@
       </c>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>23</v>
       </c>
@@ -18172,7 +18166,7 @@
       </c>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>23</v>
       </c>
@@ -18203,7 +18197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>23</v>
       </c>
@@ -18231,7 +18225,7 @@
       </c>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>23</v>
       </c>
@@ -18259,7 +18253,7 @@
       </c>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>23</v>
       </c>
@@ -18287,7 +18281,7 @@
       </c>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>23</v>
       </c>
@@ -18315,7 +18309,7 @@
       </c>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>23</v>
       </c>
@@ -18343,7 +18337,7 @@
       </c>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>23</v>
       </c>
@@ -18371,7 +18365,7 @@
       </c>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>23</v>
       </c>
@@ -18402,7 +18396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>23</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Desktop/Uni/6. sem/Bachelorprojekt/bachelor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thisen/Desktop/GitHub/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D97598-4486-3F40-9C91-019C008E5500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B382EA6-9C67-CF4A-9D19-CF1CD6BA4CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16600" windowHeight="17500" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="15220" windowHeight="21380" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Mathias Kold</author>
-    <author>tc={1151B972-DE20-4E40-8EEC-C0845EF477B8}</author>
+    <author>tc={020A3C5E-6F1E-9044-AD67-D0885D51F773}</author>
   </authors>
   <commentList>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{41D130C8-653F-5346-8739-E7A1A9914C59}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{8B4EE28F-728F-C04D-9174-5BABFAE508BC}">
       <text>
         <r>
           <rPr>
@@ -76,15 +76,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="A89" authorId="1" shapeId="0" xr:uid="{1151B972-DE20-4E40-8EEC-C0845EF477B8}">
+    <comment ref="B89" authorId="1" shapeId="0" xr:uid="{020A3C5E-6F1E-9044-AD67-D0885D51F773}">
       <text>
-        <t>[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Ændring af periode fra maj til juli, så 14 måneder her</t>
       </text>
     </comment>
-    <comment ref="A191" authorId="0" shapeId="0" xr:uid="{FF1FCFEE-5050-4A49-A164-C8EB160B68E2}">
+    <comment ref="B191" authorId="0" shapeId="0" xr:uid="{2304DD7D-5612-D747-B214-BFB6DB7D8839}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0" shapeId="0" xr:uid="{777C5667-F0E9-6D4A-9C57-568D01B28182}">
+    <comment ref="B194" authorId="0" shapeId="0" xr:uid="{2D26D252-EF5E-B246-8F14-50E3CF9BF26D}">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A195" authorId="0" shapeId="0" xr:uid="{C3092937-7458-6B44-99B1-26A8996E95EE}">
+    <comment ref="B195" authorId="0" shapeId="0" xr:uid="{6974AE06-48CB-A742-8981-5041F06BD870}">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A213" authorId="0" shapeId="0" xr:uid="{F53CE790-5E66-9544-BAB7-4BFB2CFF8984}">
+    <comment ref="B213" authorId="0" shapeId="0" xr:uid="{3234F98B-FDC6-F14A-ACF0-AF028412AFD4}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A215" authorId="0" shapeId="0" xr:uid="{4BBB72D9-922A-124F-8291-9CE1A8257BFD}">
+    <comment ref="B215" authorId="0" shapeId="0" xr:uid="{EE259777-2064-5F4B-8BA2-7912A81E940C}">
       <text>
         <r>
           <rPr>
@@ -262,15 +262,15 @@
   <commentList>
     <comment ref="B13" authorId="0" shapeId="0" xr:uid="{E32A00B4-D94F-CA40-949C-4348A1286677}">
       <text>
-        <t xml:space="preserve">[Trådet kommentar]
-Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
-Kommentar:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     18 måneder så delt med 18 og ganget med 12
-Besvar:
+Reply:
     BUH KÆMPE FEJL
-Besvar:
+Reply:
     altså hvorfor er tallet stadigvæk så højt??
-Besvar:
+Reply:
     tror måske fordi de rykkede ned 2 sæsoner før så måske de stadig fik nogle penge
 </t>
       </text>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="86">
   <si>
     <t>season</t>
   </si>
@@ -602,6 +602,9 @@
   <si>
     <t>gapg</t>
   </si>
+  <si>
+    <t>squad_value</t>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -781,12 +784,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -804,15 +808,38 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -838,6 +865,20 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1125,28 +1166,19 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1250,29 +1282,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1347,44 +1356,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}" name="Tabel2" displayName="Tabel2" ref="A1:J261" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A1:J261" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}" name="Tabel2" displayName="Tabel2" ref="A1:K261" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A1:K261" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K261">
     <sortCondition ref="A1:A261"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BA6784EC-DD25-45B9-9B3B-087EAE44FAB3}" name="season" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{264AB119-A18E-4879-9AF8-42B86718EDE8}" name="club" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A151D9FE-0DE1-4234-9A37-7A3DB95D3259}" name="revenue" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{977C4AF2-ED50-724B-AC27-5CA5F5634663}" name="gfpg" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{3EC71E14-02AC-A549-BEDC-13E0F9464D38}" name="gapg" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{8D05B551-4619-C64B-97C0-C681B41DEB4C}" name="tilskuere" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="16"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BA6784EC-DD25-45B9-9B3B-087EAE44FAB3}" name="club" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{9DF7A340-2D60-C24C-8F9B-5D28C34152A3}" name="season" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A151D9FE-0DE1-4234-9A37-7A3DB95D3259}" name="revenue" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{977C4AF2-ED50-724B-AC27-5CA5F5634663}" name="gfpg" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{3EC71E14-02AC-A549-BEDC-13E0F9464D38}" name="gapg" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{8D05B551-4619-C64B-97C0-C681B41DEB4C}" name="tilskuere" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{15986C8F-F2B5-1E45-BFCB-E2523C2699D6}" name="squad_value" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:J313" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:J313" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:J313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J313">
     <sortCondition ref="A1:A313"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E399353A-1CC7-2745-8D5D-8DCEC38A4026}" name="season" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E8422483-0E20-7548-B9A5-25103A8914E9}" name="club" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{532D6E3A-48EC-E549-847E-FF66BC1FD208}" name="revenue" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="gfpg" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{BB3EE534-3650-9742-99A4-8DEEB76ED767}" name="gapg" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E161F9ED-52DF-434C-8F94-B383F794ED6D}" name="tilskuere" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="transfers (ind-ud)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E399353A-1CC7-2745-8D5D-8DCEC38A4026}" name="season" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E8422483-0E20-7548-B9A5-25103A8914E9}" name="club" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{532D6E3A-48EC-E549-847E-FF66BC1FD208}" name="revenue" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="gfpg" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{BB3EE534-3650-9742-99A4-8DEEB76ED767}" name="gapg" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E161F9ED-52DF-434C-8F94-B383F794ED6D}" name="tilskuere" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="transfers (ind-ud)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -1707,7 +1717,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A89" dT="2025-02-24T09:18:02.67" personId="{0A68246A-B99C-B042-AA83-2038F423A7A2}" id="{1151B972-DE20-4E40-8EEC-C0845EF477B8}">
+  <threadedComment ref="B89" dT="2025-02-24T09:18:02.67" personId="{0A68246A-B99C-B042-AA83-2038F423A7A2}" id="{020A3C5E-6F1E-9044-AD67-D0885D51F773}">
     <text>Ændring af periode fra maj til juli, så 14 måneder her</text>
   </threadedComment>
 </ThreadedComments>
@@ -1735,27 +1745,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D4C51-CDC5-8D4D-A9A9-ABBAE8089D2A}">
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView topLeftCell="E236" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K246" sqref="K246"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1779,15 +1790,18 @@
         <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="5">
         <v>213091</v>
@@ -1812,20 +1826,23 @@
       <c r="I2" s="6">
         <v>74989</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="13">
+        <v>388000</v>
+      </c>
+      <c r="K2" s="6">
         <f>(29.3-16.97)*1000*0.83</f>
         <v>10233.900000000001</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="5">
         <v>225595</v>
@@ -1850,25 +1867,28 @@
       <c r="I3" s="6">
         <v>41435</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="12">
+        <v>424100</v>
+      </c>
+      <c r="K3" s="6">
         <v>87150</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.83</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="5">
         <v>153200</v>
@@ -1893,16 +1913,19 @@
       <c r="I4" s="6">
         <v>45905</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="13">
+        <v>404180</v>
+      </c>
+      <c r="K4" s="6">
         <v>119072</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>196533</v>
@@ -1927,17 +1950,20 @@
       <c r="I5" s="6">
         <v>60023</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="12">
+        <v>324000</v>
+      </c>
+      <c r="K5" s="6">
         <f>(23-8.1)*1000*0.83</f>
         <v>12367</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>163486</v>
@@ -1962,17 +1988,20 @@
       <c r="I6" s="6">
         <v>35722</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="12">
+        <v>307080</v>
+      </c>
+      <c r="K6" s="6">
         <f>(26.6-2.94)*1000*0.83</f>
         <v>19637.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C7" s="5">
         <v>183640</v>
@@ -1997,17 +2026,20 @@
       <c r="I7" s="6">
         <v>42824</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="12">
+        <v>339200</v>
+      </c>
+      <c r="K7" s="6">
         <f>(97.73-103)*1000*0.83</f>
         <v>-4374.0999999999967</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>82021</v>
@@ -2032,16 +2064,19 @@
       <c r="I8" s="6">
         <v>36064</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="12">
+        <v>184480</v>
+      </c>
+      <c r="K8" s="6">
         <v>-4067</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>76405</v>
@@ -2066,16 +2101,19 @@
       <c r="I9" s="6">
         <v>25151</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="12">
+        <v>109550</v>
+      </c>
+      <c r="K9" s="6">
         <v>-1461</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="5">
         <v>92028</v>
@@ -2100,16 +2138,19 @@
       <c r="I10" s="6">
         <v>37194</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="12">
+        <v>202800</v>
+      </c>
+      <c r="K10" s="6">
         <v>7470</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="5">
         <v>79326</v>
@@ -2134,16 +2175,19 @@
       <c r="I11" s="6">
         <v>40011</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="12">
+        <v>149330</v>
+      </c>
+      <c r="K11" s="6">
         <v>-10524</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C12" s="5">
         <v>65086</v>
@@ -2168,16 +2212,19 @@
       <c r="I12" s="6">
         <v>24683</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="12">
+        <v>86880</v>
+      </c>
+      <c r="K12" s="6">
         <v>10773</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="5">
         <v>88424</v>
@@ -2202,17 +2249,20 @@
       <c r="I13" s="6">
         <v>47718</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="12">
+        <v>119480</v>
+      </c>
+      <c r="K13" s="6">
         <f>(13.98-41.75)*1000*0.83</f>
         <v>-23049.1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="5">
         <v>67626</v>
@@ -2237,17 +2287,20 @@
       <c r="I14" s="6">
         <v>26858</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="12">
+        <v>94450</v>
+      </c>
+      <c r="K14" s="6">
         <f>(21.1-6.78)*1000*0.83</f>
         <v>11885.599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="5">
         <v>60724</v>
@@ -2272,16 +2325,19 @@
       <c r="I15" s="6">
         <v>22807</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="12">
+        <v>100150</v>
+      </c>
+      <c r="K15" s="6">
         <v>3320</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>57558</v>
@@ -2306,17 +2362,20 @@
       <c r="I16" s="6">
         <v>25000</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="12">
+        <v>91530</v>
+      </c>
+      <c r="K16" s="6">
         <f>(5.05-0.275)*1000*0.83</f>
         <v>3963.2499999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="5">
         <v>50507</v>
@@ -2341,17 +2400,20 @@
       <c r="I17" s="6">
         <v>16807</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="12">
+        <v>80500</v>
+      </c>
+      <c r="K17" s="6">
         <f>(11.4-3.4)*830</f>
         <v>6640</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="5">
         <v>64401</v>
@@ -2376,16 +2438,19 @@
       <c r="I18" s="6">
         <v>27696</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="12">
+        <v>83550</v>
+      </c>
+      <c r="K18" s="6">
         <v>11437</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>61453</v>
@@ -2410,16 +2475,19 @@
       <c r="I19" s="6">
         <v>25462</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="12">
+        <v>95380</v>
+      </c>
+      <c r="K19" s="6">
         <v>21103</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="5">
         <v>51670</v>
@@ -2444,16 +2512,19 @@
       <c r="I20" s="6">
         <v>15780</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="12">
+        <v>50030</v>
+      </c>
+      <c r="K20" s="6">
         <v>4175</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C21" s="5">
         <v>80544</v>
@@ -2479,15 +2550,18 @@
         <v>33404</v>
       </c>
       <c r="J21" s="6">
+        <v>138750</v>
+      </c>
+      <c r="K21" s="6">
         <v>10856</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>231100</v>
@@ -2512,16 +2586,17 @@
       <c r="I22" s="6">
         <v>47045</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
         <v>49676</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>187369</v>
@@ -2546,17 +2621,18 @@
       <c r="I23" s="6">
         <v>75387</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
         <f>(62.3-12.9)*1000*0.83</f>
         <v>41002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C24" s="5">
         <v>230640</v>
@@ -2581,17 +2657,18 @@
       <c r="I24" s="6">
         <v>60000</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6">
         <f>(65.48-78.29)*1000*0.83</f>
         <v>-10632.300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="5">
         <v>144156</v>
@@ -2616,17 +2693,18 @@
       <c r="I25" s="6">
         <v>36036</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
         <f>(9-43.25)*1000*0.83</f>
         <v>-28427.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C26" s="5">
         <v>93296</v>
@@ -2651,17 +2729,18 @@
       <c r="I26" s="6">
         <v>49951</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
         <f>(27-16.04)*1000*0.83</f>
         <v>9096.7999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C27" s="5">
         <v>257534</v>
@@ -2686,16 +2765,17 @@
       <c r="I27" s="6">
         <v>41484</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
         <v>53859</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C28" s="5">
         <v>80531</v>
@@ -2720,16 +2800,17 @@
       <c r="I28" s="6">
         <v>33228</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
         <v>-16268</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C29" s="5">
         <v>168998</v>
@@ -2754,17 +2835,18 @@
       <c r="I29" s="6">
         <v>44253</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
         <f>(69.33-22)*1000*0.83</f>
         <v>39283.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C30" s="5">
         <v>78652</v>
@@ -2789,16 +2871,17 @@
       <c r="I30" s="6">
         <v>25399</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
         <v>8682</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C31" s="5">
         <v>66660</v>
@@ -2823,16 +2906,17 @@
       <c r="I31" s="6">
         <v>24770</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6">
         <v>-1643</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C32" s="5">
         <v>65166</v>
@@ -2857,17 +2941,18 @@
       <c r="I32" s="6">
         <v>19946</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
         <f>(12.85-0.455)*1000*0.83</f>
         <v>10287.85</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C33" s="5">
         <v>74608</v>
@@ -2892,17 +2977,18 @@
       <c r="I33" s="6">
         <v>26606</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
         <f>(15.25-0.5)*830</f>
         <v>12242.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C34" s="5">
         <v>77042</v>
@@ -2927,16 +3013,17 @@
       <c r="I34" s="6">
         <v>39047</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
         <v>1320</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C35" s="5">
         <v>70734</v>
@@ -2961,17 +3048,18 @@
       <c r="I35" s="6">
         <v>27226</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6">
         <f>(24.8-1.99)*1000*0.83</f>
         <v>18932.300000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C36" s="5">
         <v>52597</v>
@@ -2996,17 +3084,18 @@
       <c r="I36" s="6">
         <v>18634</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6">
         <f>(12.38-11.29)*830</f>
         <v>904.70000000000141</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C37" s="5">
         <v>80365</v>
@@ -3031,16 +3120,17 @@
       <c r="I37" s="6">
         <v>33883</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
         <v>-19430</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C38" s="5">
         <v>73796</v>
@@ -3065,17 +3155,18 @@
       <c r="I38" s="6">
         <v>17295</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
         <f>(26.23-2.8)*830</f>
         <v>19446.900000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C39" s="5">
         <v>58450</v>
@@ -3100,16 +3191,17 @@
       <c r="I39" s="6">
         <v>23670</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
         <v>-606</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C40" s="5">
         <v>54180</v>
@@ -3134,17 +3226,18 @@
       <c r="I40" s="6">
         <v>22551</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
         <f>(20.55-40.3)*830</f>
         <v>-16392.499999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C41" s="5">
         <v>60646</v>
@@ -3169,16 +3262,17 @@
       <c r="I41" s="6">
         <v>25677</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6">
         <v>7844</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C42" s="5">
         <v>194442</v>
@@ -3203,17 +3297,18 @@
       <c r="I42" s="6">
         <v>75530</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
         <f>(76.45-9.65)*1000*0.83</f>
         <v>55444</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C43" s="5">
         <v>271000</v>
@@ -3238,16 +3333,17 @@
       <c r="I43" s="6">
         <v>46974</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6">
         <v>14650</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C44" s="5">
         <v>255772</v>
@@ -3272,16 +3368,17 @@
       <c r="I44" s="6">
         <v>41462</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6">
         <v>69928</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C45" s="5">
         <v>218648</v>
@@ -3306,17 +3403,18 @@
       <c r="I45" s="6">
         <v>60079</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6">
         <f>(56-65.85)*1000*0.83</f>
         <v>-8175.4999999999955</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C46" s="5">
         <v>147392</v>
@@ -3341,17 +3439,18 @@
       <c r="I46" s="6">
         <v>36066</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6">
         <f>(73.25-72.78)*1000*0.83</f>
         <v>390.09999999999906</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C47" s="5">
         <v>86397</v>
@@ -3376,16 +3475,17 @@
       <c r="I47" s="6">
         <v>36356</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6">
         <v>2407</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C48" s="5">
         <v>206115</v>
@@ -3410,17 +3510,18 @@
       <c r="I48" s="6">
         <v>44749</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
         <f>(70.6-10.45)*1000*0.83</f>
         <v>49924.499999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C49" s="5">
         <v>69734</v>
@@ -3445,16 +3546,17 @@
       <c r="I49" s="6">
         <v>25202</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
         <v>1054</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C50" s="5">
         <v>67113</v>
@@ -3479,17 +3581,18 @@
       <c r="I50" s="6">
         <v>20476</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6">
         <f>(20.47-32.6)*1000*0.83</f>
         <v>-10067.900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C51" s="5">
         <v>89815</v>
@@ -3514,16 +3617,17 @@
       <c r="I51" s="6">
         <v>34717</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6">
         <v>15655</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C52" s="5">
         <v>74733</v>
@@ -3548,17 +3652,18 @@
       <c r="I52" s="6">
         <v>26672</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6">
         <f>(11.08-0.38)*830</f>
         <v>8881</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C53" s="5">
         <v>73014</v>
@@ -3583,16 +3688,17 @@
       <c r="I53" s="6">
         <v>25423</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6">
         <v>-17779</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C54" s="5">
         <v>66516</v>
@@ -3617,17 +3723,18 @@
       <c r="I54" s="6">
         <v>26722</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6">
         <f>(23.68-0.64)*1000*0.83</f>
         <v>19123.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C55" s="5">
         <v>69413</v>
@@ -3652,16 +3759,17 @@
       <c r="I55" s="6">
         <v>30855</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6">
         <v>34445</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C56" s="5">
         <v>83696</v>
@@ -3686,16 +3794,17 @@
       <c r="I56" s="6">
         <v>35060</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="6"/>
+      <c r="K56" s="6">
         <v>20443</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C57" s="5">
         <v>95879</v>
@@ -3720,17 +3829,18 @@
       <c r="I57" s="6">
         <v>50517</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="6"/>
+      <c r="K57" s="6">
         <f>(31.97-14.8)*1000*0.83</f>
         <v>14251.099999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C58" s="5">
         <v>72026</v>
@@ -3755,16 +3865,17 @@
       <c r="I58" s="6">
         <v>40563</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="6"/>
+      <c r="K58" s="6">
         <v>19480</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C59" s="5">
         <v>56413</v>
@@ -3789,17 +3900,18 @@
       <c r="I59" s="6">
         <v>19359</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
         <f>(10.54-13.25)*830</f>
         <v>-2249.3000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C60" s="5">
         <v>59266</v>
@@ -3824,17 +3936,18 @@
       <c r="I60" s="6">
         <v>23862</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="6"/>
+      <c r="K60" s="6">
         <f>(10.82-0.9)*830</f>
         <v>8233.6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C61" s="5">
         <v>105032</v>
@@ -3859,17 +3972,18 @@
       <c r="I61" s="6">
         <v>17779</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6">
         <f>(50.35-4.51)*830</f>
         <v>38047.200000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C62" s="5">
         <v>346500</v>
@@ -3894,16 +4008,17 @@
       <c r="I62" s="6">
         <v>47080</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="6"/>
+      <c r="K62" s="6">
         <v>86486</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C63" s="5">
         <v>255647</v>
@@ -3928,17 +4043,18 @@
       <c r="I63" s="6">
         <v>44671</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6">
         <f>(58.1-32.5)*1000*0.83</f>
         <v>21248</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C64" s="5">
         <v>319843</v>
@@ -3963,16 +4079,17 @@
       <c r="I64" s="6">
         <v>41482</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="6"/>
+      <c r="K64" s="6">
         <v>43509</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C65" s="5">
         <v>302797</v>
@@ -3997,17 +4114,18 @@
       <c r="I65" s="6">
         <v>60013</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="6"/>
+      <c r="K65" s="6">
         <f>(49.25-12.15)*1000*0.83</f>
         <v>30793</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C66" s="5">
         <v>120511</v>
@@ -4032,16 +4150,17 @@
       <c r="I66" s="6">
         <v>37732</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6">
         <v>-11869</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C67" s="5">
         <v>180541</v>
@@ -4066,17 +4185,18 @@
       <c r="I67" s="6">
         <v>35808</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6">
         <f>(122.55-138.4)*1000*0.83</f>
         <v>-13155.500000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C68" s="5">
         <v>228676</v>
@@ -4101,17 +4221,18 @@
       <c r="I68" s="6">
         <v>75207</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="6"/>
+      <c r="K68" s="6">
         <f>(77.13-1.8)*1000*0.83</f>
         <v>62523.899999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C69" s="5">
         <v>103441</v>
@@ -4136,16 +4257,17 @@
       <c r="I69" s="6">
         <v>30212</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="6"/>
+      <c r="K69" s="6">
         <v>29382</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C70" s="5">
         <v>98318</v>
@@ -4170,17 +4292,18 @@
       <c r="I70" s="6">
         <v>26137</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6">
         <f>7*1000*0.83</f>
         <v>5810</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C71" s="5">
         <v>129745</v>
@@ -4205,17 +4328,18 @@
       <c r="I71" s="6">
         <v>50395</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6">
         <f>(3.8-25.87)*1000*0.83</f>
         <v>-18318.099999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C72" s="5">
         <v>90401</v>
@@ -4240,17 +4364,18 @@
       <c r="I72" s="6">
         <v>24114</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6">
         <f>33*1000*0.83</f>
         <v>27390</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C73" s="5">
         <v>98692</v>
@@ -4275,17 +4400,18 @@
       <c r="I73" s="6">
         <v>20407</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6">
         <f>(26.61-0)*1000*0.83</f>
         <v>22086.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C74" s="5">
         <v>114852</v>
@@ -4310,16 +4436,17 @@
       <c r="I74" s="6">
         <v>34197</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="6"/>
+      <c r="K74" s="6">
         <v>19480</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C75" s="5">
         <v>101016</v>
@@ -4344,16 +4471,17 @@
       <c r="I75" s="6">
         <v>41090</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6">
         <v>9570</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C76" s="5">
         <v>116920</v>
@@ -4378,16 +4506,17 @@
       <c r="I76" s="6">
         <v>36081</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6">
         <v>9744</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C77" s="5">
         <v>84482</v>
@@ -4412,16 +4541,17 @@
       <c r="I77" s="6">
         <v>24117</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="6"/>
+      <c r="K77" s="6">
         <v>25083</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C78" s="5">
         <v>86769</v>
@@ -4446,16 +4576,17 @@
       <c r="I78" s="6">
         <v>25194</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="6"/>
+      <c r="K78" s="6">
         <v>3569</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C79" s="5">
         <v>94345</v>
@@ -4480,17 +4611,18 @@
       <c r="I79" s="6">
         <v>26805</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="6"/>
+      <c r="K79" s="6">
         <f>(30.05-4.84)*830</f>
         <v>20924.3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C80" s="5">
         <v>91280</v>
@@ -4515,16 +4647,17 @@
       <c r="I80" s="6">
         <v>24977</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6">
         <v>20875</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C81" s="5">
         <v>79938</v>
@@ -4549,16 +4682,17 @@
       <c r="I81" s="6">
         <v>27430</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="6"/>
+      <c r="K81" s="6">
         <v>34926</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C82" s="5">
         <v>314287</v>
@@ -4583,16 +4717,17 @@
       <c r="I82" s="6">
         <v>41546</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="6"/>
+      <c r="K82" s="6">
         <v>-4241</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C83" s="5">
         <v>351800</v>
@@ -4617,16 +4752,17 @@
       <c r="I83" s="6">
         <v>45365</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6">
         <v>60175</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C84" s="5">
         <v>334366</v>
@@ -4651,17 +4787,18 @@
       <c r="I84" s="6">
         <v>59992</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="6"/>
+      <c r="K84" s="6">
         <f>(118.98-27.8)*1000*0.83</f>
         <v>75679.399999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C85" s="5">
         <v>182623</v>
@@ -4686,17 +4823,18 @@
       <c r="I85" s="6">
         <v>75335</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
         <f>(195.35-46.7)*1000*0.83</f>
         <v>123379.49999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C86" s="5">
         <v>196377</v>
@@ -4721,17 +4859,18 @@
       <c r="I86" s="6">
         <v>35728</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="6"/>
+      <c r="K86" s="6">
         <f>(48.48-44.15)*1000*0.83</f>
         <v>3593.8999999999983</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C87" s="5">
         <v>297947</v>
@@ -4756,17 +4895,18 @@
       <c r="I87" s="6">
         <v>44659</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6">
         <f>(151.43-99.27)*1000*0.83</f>
         <v>43292.800000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C88" s="5">
         <v>110619</v>
@@ -4791,16 +4931,17 @@
       <c r="I88" s="6">
         <v>30652</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6">
         <v>-23099</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C89" s="5">
         <v>103928</v>
@@ -4825,17 +4966,18 @@
       <c r="I89" s="6">
         <v>20555</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="6"/>
+      <c r="K89" s="6">
         <f>(41.53-61.9)*1000*0.83</f>
         <v>-16907.099999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C90" s="5">
         <v>99573</v>
@@ -4860,17 +5002,18 @@
       <c r="I90" s="6">
         <v>27081</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="6"/>
+      <c r="K90" s="6">
         <f>(1.8-3.8)*1000*0.83</f>
         <v>-1659.9999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C91" s="5">
         <v>102396</v>
@@ -4895,17 +5038,18 @@
       <c r="I91" s="6">
         <v>24412</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="6"/>
+      <c r="K91" s="6">
         <f>(31.22-2.87)*1000*0.83</f>
         <v>23530.499999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C92" s="5">
         <v>125572</v>
@@ -4930,16 +5074,17 @@
       <c r="I92" s="6">
         <v>38406</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="6"/>
+      <c r="K92" s="6">
         <v>31756</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C93" s="5">
         <v>120747</v>
@@ -4964,16 +5109,17 @@
       <c r="I93" s="6">
         <v>34871</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="6"/>
+      <c r="K93" s="6">
         <v>25523</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C94" s="5">
         <v>96269</v>
@@ -4998,16 +5144,17 @@
       <c r="I94" s="6">
         <v>25064</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="6"/>
+      <c r="K94" s="6">
         <v>18741</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C95" s="5">
         <v>104437</v>
@@ -5032,17 +5179,18 @@
       <c r="I95" s="6">
         <v>31693</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="6"/>
+      <c r="K95" s="6">
         <f>22.86*1000*0.83</f>
         <v>18973.8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C96" s="5">
         <v>128830</v>
@@ -5067,17 +5215,18 @@
       <c r="I96" s="6">
         <v>50359</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="6"/>
+      <c r="K96" s="6">
         <f>(45.02-23.87)*1000*0.83</f>
         <v>17554.500000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C97" s="5">
         <v>97007</v>
@@ -5102,16 +5251,17 @@
       <c r="I97" s="6">
         <v>43171</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="6"/>
+      <c r="K97" s="6">
         <v>12674</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C98" s="5">
         <v>115692</v>
@@ -5136,16 +5286,17 @@
       <c r="I98" s="6">
         <v>34133</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="6"/>
+      <c r="K98" s="6">
         <v>10068</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C99" s="5">
         <v>84090</v>
@@ -5170,16 +5321,17 @@
       <c r="I99" s="6">
         <v>23557</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="6"/>
+      <c r="K99" s="6">
         <v>24502</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C100" s="5">
         <v>78770</v>
@@ -5204,17 +5356,18 @@
       <c r="I100" s="6">
         <v>19131</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="6"/>
+      <c r="K100" s="6">
         <f>(12.62)*1000*0.83</f>
         <v>10474.6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C101" s="5">
         <v>112072</v>
@@ -5239,17 +5392,18 @@
       <c r="I101" s="6">
         <v>17809</v>
       </c>
-      <c r="J101" s="6">
+      <c r="J101" s="6"/>
+      <c r="K101" s="6">
         <f>(43.54-26.04)*830</f>
         <v>14525</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C102" s="5">
         <v>128715</v>
@@ -5274,17 +5428,18 @@
       <c r="I102" s="6">
         <v>32021</v>
       </c>
-      <c r="J102" s="6">
+      <c r="J102" s="6"/>
+      <c r="K102" s="6">
         <f>(49-9.45)*1000*0.83</f>
         <v>32826.5</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C103" s="5">
         <v>338204</v>
@@ -5309,17 +5464,18 @@
       <c r="I103" s="6">
         <v>59944</v>
       </c>
-      <c r="J103" s="6">
+      <c r="J103" s="6"/>
+      <c r="K103" s="6">
         <f>(26.5-2.5)*1000*0.83</f>
         <v>19920</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C104" s="5">
         <v>209770</v>
@@ -5344,17 +5500,18 @@
       <c r="I104" s="6">
         <v>35776</v>
       </c>
-      <c r="J104" s="6">
+      <c r="J104" s="6"/>
+      <c r="K104" s="6">
         <f>(71-87.25)*1000*0.83</f>
         <v>-13487.5</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C105" s="5">
         <v>398100</v>
@@ -5379,16 +5536,17 @@
       <c r="I105" s="6">
         <v>54041</v>
       </c>
-      <c r="J105" s="6">
+      <c r="J105" s="6"/>
+      <c r="K105" s="6">
         <v>117055</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C106" s="5">
         <v>230271</v>
@@ -5413,17 +5571,18 @@
       <c r="I106" s="6">
         <v>75279</v>
       </c>
-      <c r="J106" s="6">
+      <c r="J106" s="6"/>
+      <c r="K106" s="6">
         <f>(156-100.67)*1000*0.83</f>
         <v>45923.899999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C107" s="5">
         <v>121092</v>
@@ -5448,16 +5607,17 @@
       <c r="I107" s="6">
         <v>30751</v>
       </c>
-      <c r="J107" s="6">
+      <c r="J107" s="6"/>
+      <c r="K107" s="6">
         <v>6142</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C108" s="5">
         <v>142063</v>
@@ -5482,16 +5642,17 @@
       <c r="I108" s="6">
         <v>34910</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J108" s="6"/>
+      <c r="K108" s="6">
         <v>28369</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C109" s="5">
         <v>301765</v>
@@ -5516,17 +5677,18 @@
       <c r="I109" s="6">
         <v>43910</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J109" s="6"/>
+      <c r="K109" s="6">
         <f>(126.5-90.55)*1000*0.83</f>
         <v>29838.5</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C110" s="5">
         <v>104169</v>
@@ -5551,17 +5713,18 @@
       <c r="I110" s="6">
         <v>27534</v>
       </c>
-      <c r="J110" s="6">
+      <c r="J110" s="6"/>
+      <c r="K110" s="6">
         <f>(53.65-23.2)*1000*0.83</f>
         <v>25273.5</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C111" s="5">
         <v>329122</v>
@@ -5586,16 +5749,17 @@
       <c r="I111" s="6">
         <v>41500</v>
       </c>
-      <c r="J111" s="6">
+      <c r="J111" s="6"/>
+      <c r="K111" s="6">
         <v>7478</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C112" s="5">
         <v>121541</v>
@@ -5620,16 +5784,17 @@
       <c r="I112" s="6">
         <v>38124</v>
       </c>
-      <c r="J112" s="6">
+      <c r="J112" s="6"/>
+      <c r="K112" s="6">
         <v>30876</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C113" s="5">
         <v>97151</v>
@@ -5654,17 +5819,18 @@
       <c r="I113" s="6">
         <v>20711</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="6"/>
+      <c r="K113" s="6">
         <f>(21.81-16.81)*1000*0.83</f>
         <v>4150</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C114" s="5">
         <v>94449</v>
@@ -5689,17 +5855,18 @@
       <c r="I114" s="6">
         <v>20594</v>
       </c>
-      <c r="J114" s="6">
+      <c r="J114" s="6"/>
+      <c r="K114" s="6">
         <f>(82.8-9.75)*830</f>
         <v>60631.5</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C115" s="5">
         <v>98337</v>
@@ -5724,16 +5891,17 @@
       <c r="I115" s="6">
         <v>24631</v>
       </c>
-      <c r="J115" s="6">
+      <c r="J115" s="6"/>
+      <c r="K115" s="6">
         <v>24883</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C116" s="5">
         <v>101816</v>
@@ -5758,17 +5926,18 @@
       <c r="I116" s="6">
         <v>24825</v>
       </c>
-      <c r="J116" s="6">
+      <c r="J116" s="6"/>
+      <c r="K116" s="6">
         <f>(28.8-5.4)*1000*0.83</f>
         <v>19422</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C117" s="5">
         <v>87875</v>
@@ -5793,16 +5962,17 @@
       <c r="I117" s="6">
         <v>11189</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="6"/>
+      <c r="K117" s="6">
         <v>45202</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C118" s="5">
         <v>104072</v>
@@ -5827,16 +5997,17 @@
       <c r="I118" s="6">
         <v>43071</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="6"/>
+      <c r="K118" s="6">
         <v>45692</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C119" s="5">
         <v>125755</v>
@@ -5861,17 +6032,18 @@
       <c r="I119" s="6">
         <v>49754</v>
       </c>
-      <c r="J119" s="6">
+      <c r="J119" s="6"/>
+      <c r="K119" s="6">
         <f>(107.91-5.43)*1000*0.83</f>
         <v>85058.39999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C120" s="5">
         <v>97816</v>
@@ -5896,17 +6068,18 @@
       <c r="I120" s="6">
         <v>26972</v>
       </c>
-      <c r="J120" s="6">
+      <c r="J120" s="6"/>
+      <c r="K120" s="6">
         <f>(50.5-21.5)*830</f>
         <v>24070</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C121" s="5">
         <v>108816</v>
@@ -5931,16 +6104,17 @@
       <c r="I121" s="6">
         <v>33690</v>
       </c>
-      <c r="J121" s="6">
+      <c r="J121" s="6"/>
+      <c r="K121" s="6">
         <v>1536</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C122" s="5">
         <v>361308</v>
@@ -5965,16 +6139,17 @@
       <c r="I122" s="6">
         <v>41508</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="6"/>
+      <c r="K122" s="6">
         <v>19837</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C123" s="5">
         <v>309674</v>
@@ -5999,17 +6174,18 @@
       <c r="I123" s="6">
         <v>31639</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="6"/>
+      <c r="K123" s="6">
         <f>(83.5-52.3)*1000*0.83</f>
         <v>25896</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C124" s="5">
         <v>473400</v>
@@ -6034,16 +6210,17 @@
       <c r="I124" s="6">
         <v>54019</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="6"/>
+      <c r="K124" s="6">
         <v>150147</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C125" s="5">
         <v>364246</v>
@@ -6068,17 +6245,18 @@
       <c r="I125" s="6">
         <v>53016</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="6"/>
+      <c r="K125" s="6">
         <f>(79.9-88.98)*1000*0.83</f>
         <v>-7536.3999999999978</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C126" s="5">
         <v>401135</v>
@@ -6103,17 +6281,18 @@
       <c r="I126" s="6">
         <v>59957</v>
       </c>
-      <c r="J126" s="6">
+      <c r="J126" s="6"/>
+      <c r="K126" s="6">
         <f>(113-10.35)*0.83*1000</f>
         <v>85199.5</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C127" s="5">
         <v>289038</v>
@@ -6138,17 +6317,18 @@
       <c r="I127" s="6">
         <v>75290</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="6"/>
+      <c r="K127" s="6">
         <f>(185-47.25)*1000*0.83</f>
         <v>114332.5</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C128" s="5">
         <v>171330</v>
@@ -6173,16 +6353,17 @@
       <c r="I128" s="6">
         <v>39080</v>
       </c>
-      <c r="J128" s="6">
+      <c r="J128" s="6"/>
+      <c r="K128" s="6">
         <v>20916</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C129" s="5">
         <v>178334</v>
@@ -6207,16 +6388,17 @@
       <c r="I129" s="6">
         <v>30936</v>
       </c>
-      <c r="J129" s="6">
+      <c r="J129" s="6"/>
+      <c r="K129" s="6">
         <v>-13405</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C130" s="5">
         <v>136456</v>
@@ -6241,16 +6423,17 @@
       <c r="I130" s="6">
         <v>11182</v>
       </c>
-      <c r="J130" s="6">
+      <c r="J130" s="6"/>
+      <c r="K130" s="6">
         <v>14110</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C131" s="5">
         <v>137949</v>
@@ -6275,16 +6458,17 @@
       <c r="I131" s="6">
         <v>23876</v>
       </c>
-      <c r="J131" s="6">
+      <c r="J131" s="6"/>
+      <c r="K131" s="6">
         <v>9064</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C132" s="5">
         <v>183340</v>
@@ -6309,16 +6493,17 @@
       <c r="I132" s="6">
         <v>56972</v>
       </c>
-      <c r="J132" s="6">
+      <c r="J132" s="6"/>
+      <c r="K132" s="6">
         <v>35275</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C133" s="5">
         <v>233013</v>
@@ -6343,17 +6528,18 @@
       <c r="I133" s="6">
         <v>31893</v>
       </c>
-      <c r="J133" s="6">
+      <c r="J133" s="6"/>
+      <c r="K133" s="6">
         <f>(92.1-66.05)*1000*0.83</f>
         <v>21621.499999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C134" s="5">
         <v>135954</v>
@@ -6378,17 +6564,18 @@
       <c r="I134" s="6">
         <v>27433</v>
       </c>
-      <c r="J134" s="6">
+      <c r="J134" s="6"/>
+      <c r="K134" s="6">
         <f>(42.17-3.8)*1000*0.83</f>
         <v>31847.100000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C135" s="5">
         <v>142735</v>
@@ -6413,17 +6600,18 @@
       <c r="I135" s="6">
         <v>25161</v>
       </c>
-      <c r="J135" s="6">
+      <c r="J135" s="6"/>
+      <c r="K135" s="6">
         <f>(101.2-50.2)*1000*0.83</f>
         <v>42330</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C136" s="5">
         <v>127761</v>
@@ -6448,17 +6636,18 @@
       <c r="I136" s="6">
         <v>20619</v>
       </c>
-      <c r="J136" s="6">
+      <c r="J136" s="6"/>
+      <c r="K136" s="6">
         <f>(58.1-49.3)*1000*0.83</f>
         <v>7304.0000000000027</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C137" s="5">
         <v>121169</v>
@@ -6483,17 +6672,18 @@
       <c r="I137" s="6">
         <v>20558</v>
       </c>
-      <c r="J137" s="6">
+      <c r="J137" s="6"/>
+      <c r="K137" s="6">
         <f>(45.6-1.2)*1000*0.83</f>
         <v>36852</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C138" s="5">
         <v>123907</v>
@@ -6518,17 +6708,18 @@
       <c r="I138" s="6">
         <v>20571</v>
       </c>
-      <c r="J138" s="6">
+      <c r="J138" s="6"/>
+      <c r="K138" s="6">
         <f>(70.45-58.1)*830</f>
         <v>10250.500000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C139" s="5">
         <v>116927</v>
@@ -6553,16 +6744,17 @@
       <c r="I139" s="6">
         <v>20656</v>
       </c>
-      <c r="J139" s="6">
+      <c r="J139" s="6"/>
+      <c r="K139" s="6">
         <v>9213</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C140" s="5">
         <v>121392</v>
@@ -6587,17 +6779,18 @@
       <c r="I140" s="6">
         <v>30449</v>
       </c>
-      <c r="J140" s="6">
+      <c r="J140" s="6"/>
+      <c r="K140" s="6">
         <f>(47.95-13.5)*830</f>
         <v>28593.500000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C141" s="5">
         <v>123504</v>
@@ -6622,16 +6815,17 @@
       <c r="I141" s="6">
         <v>41287</v>
       </c>
-      <c r="J141" s="6">
+      <c r="J141" s="6"/>
+      <c r="K141" s="6">
         <v>15048</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C142" s="5">
         <v>500500</v>
@@ -6656,16 +6850,17 @@
       <c r="I142" s="6">
         <v>53812</v>
       </c>
-      <c r="J142" s="6">
+      <c r="J142" s="6"/>
+      <c r="K142" s="6">
         <v>187705</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C143" s="5">
         <v>571577</v>
@@ -6690,17 +6885,18 @@
       <c r="I143" s="6">
         <v>74976</v>
       </c>
-      <c r="J143" s="6">
+      <c r="J143" s="6"/>
+      <c r="K143" s="6">
         <f>(198.4-45.5)*1000*0.83</f>
         <v>126907</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C144" s="5">
         <v>380697</v>
@@ -6725,17 +6921,18 @@
       <c r="I144" s="6">
         <v>67496</v>
       </c>
-      <c r="J144" s="6">
+      <c r="J144" s="6"/>
+      <c r="K144" s="6">
         <f>(121-103.8)*1000*0.83</f>
         <v>14276.000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C145" s="5">
         <v>455089</v>
@@ -6760,17 +6957,18 @@
       <c r="I145" s="6">
         <v>53049</v>
       </c>
-      <c r="J145" s="6">
+      <c r="J145" s="6"/>
+      <c r="K145" s="6">
         <f>(173.65-184.5)*1000*0.83</f>
         <v>-9005.4999999999945</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C146" s="5">
         <v>443449</v>
@@ -6795,16 +6993,17 @@
       <c r="I146" s="6">
         <v>41282</v>
       </c>
-      <c r="J146" s="6">
+      <c r="J146" s="6"/>
+      <c r="K146" s="6">
         <v>54697</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C147" s="5">
         <v>386288</v>
@@ -6829,17 +7028,18 @@
       <c r="I147" s="6">
         <v>59323</v>
       </c>
-      <c r="J147" s="6">
+      <c r="J147" s="6"/>
+      <c r="K147" s="6">
         <f>(152.85-162.4)*0.83*1000</f>
         <v>-7926.5000000000091</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C148" s="5">
         <v>138997</v>
@@ -6864,17 +7064,18 @@
       <c r="I148" s="6">
         <v>20688</v>
       </c>
-      <c r="J148" s="6">
+      <c r="J148" s="6"/>
+      <c r="K148" s="6">
         <f>(35.74-50)*1000*0.83</f>
         <v>-11835.799999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C149" s="5">
         <v>189200</v>
@@ -6899,16 +7100,17 @@
       <c r="I149" s="6">
         <v>38797</v>
       </c>
-      <c r="J149" s="6">
+      <c r="J149" s="6"/>
+      <c r="K149" s="6">
         <v>63761</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C150" s="5">
         <v>158881</v>
@@ -6933,17 +7135,18 @@
       <c r="I150" s="6">
         <v>31583</v>
       </c>
-      <c r="J150" s="6">
+      <c r="J150" s="6"/>
+      <c r="K150" s="6">
         <f>(83.85-50.1)*1000*0.83</f>
         <v>28012.499999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C151" s="5">
         <v>178495</v>
@@ -6968,17 +7171,18 @@
       <c r="I151" s="6">
         <v>51992</v>
       </c>
-      <c r="J151" s="6">
+      <c r="J151" s="6"/>
+      <c r="K151" s="6">
         <f>(46.5-21.22)*1000*0.83</f>
         <v>20982.399999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C152" s="5">
         <v>150346</v>
@@ -7003,17 +7207,18 @@
       <c r="I152" s="6">
         <v>25065</v>
       </c>
-      <c r="J152" s="6">
+      <c r="J152" s="6"/>
+      <c r="K152" s="6">
         <f>(55.95-3)*1000*0.83</f>
         <v>43948.5</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C153" s="5">
         <v>134861</v>
@@ -7038,16 +7243,17 @@
       <c r="I153" s="6">
         <v>10640</v>
       </c>
-      <c r="J153" s="6">
+      <c r="J153" s="6"/>
+      <c r="K153" s="6">
         <v>28469</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C154" s="5">
         <v>175346</v>
@@ -7072,16 +7278,17 @@
       <c r="I154" s="6">
         <v>56885</v>
       </c>
-      <c r="J154" s="6">
+      <c r="J154" s="6"/>
+      <c r="K154" s="6">
         <v>-5993</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C155" s="5">
         <v>128885</v>
@@ -7106,17 +7313,18 @@
       <c r="I155" s="6">
         <v>20231</v>
       </c>
-      <c r="J155" s="6">
+      <c r="J155" s="6"/>
+      <c r="K155" s="6">
         <f>(73.4-18.74)*830</f>
         <v>45367.80000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C156" s="5">
         <v>139155</v>
@@ -7141,16 +7349,17 @@
       <c r="I156" s="6">
         <v>30402</v>
       </c>
-      <c r="J156" s="6">
+      <c r="J156" s="6"/>
+      <c r="K156" s="6">
         <v>57768</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C157" s="5">
         <v>125236</v>
@@ -7175,16 +7384,17 @@
       <c r="I157" s="6">
         <v>24042</v>
       </c>
-      <c r="J157" s="6">
+      <c r="J157" s="6"/>
+      <c r="K157" s="6">
         <v>41741</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C158" s="5">
         <v>148425</v>
@@ -7209,16 +7419,17 @@
       <c r="I158" s="6">
         <v>30794</v>
       </c>
-      <c r="J158" s="6">
+      <c r="J158" s="6"/>
+      <c r="K158" s="6">
         <v>-30793</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C159" s="5">
         <v>126831</v>
@@ -7243,17 +7454,18 @@
       <c r="I159" s="6">
         <v>20622</v>
       </c>
-      <c r="J159" s="6">
+      <c r="J159" s="6"/>
+      <c r="K159" s="6">
         <f>(73.39-81.1)*1000*0.83</f>
         <v>-6399.2999999999947</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C160" s="5">
         <v>127192</v>
@@ -7278,17 +7490,18 @@
       <c r="I160" s="6">
         <v>29280</v>
       </c>
-      <c r="J160" s="6">
+      <c r="J160" s="6"/>
+      <c r="K160" s="6">
         <f>(57.7-35.14)*1000*0.83</f>
         <v>18724.800000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C161" s="5">
         <v>124762</v>
@@ -7313,16 +7526,17 @@
       <c r="I161" s="6">
         <v>24520</v>
       </c>
-      <c r="J161" s="6">
+      <c r="J161" s="6"/>
+      <c r="K161" s="6">
         <v>42704</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C162" s="5">
         <v>535200</v>
@@ -7347,16 +7561,17 @@
       <c r="I162" s="6">
         <v>54130</v>
       </c>
-      <c r="J162" s="6">
+      <c r="J162" s="6"/>
+      <c r="K162" s="6">
         <v>17422</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C163" s="5">
         <v>533022</v>
@@ -7381,17 +7596,18 @@
       <c r="I163" s="6">
         <v>52983</v>
       </c>
-      <c r="J163" s="6">
+      <c r="J163" s="6"/>
+      <c r="K163" s="6">
         <f>(182.2-41.32)*1000*0.83</f>
         <v>116930.4</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C164" s="5">
         <v>446741</v>
@@ -7416,16 +7632,17 @@
       <c r="I164" s="6">
         <v>40441</v>
       </c>
-      <c r="J164" s="6">
+      <c r="J164" s="6"/>
+      <c r="K164" s="6">
         <v>104207</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C165" s="5">
         <v>460695</v>
@@ -7450,17 +7667,18 @@
       <c r="I165" s="6">
         <v>54216</v>
       </c>
-      <c r="J165" s="6">
+      <c r="J165" s="6"/>
+      <c r="K165" s="6">
         <f>(-5.35)*1000*0.83</f>
         <v>-4440.5</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C166" s="5">
         <v>362877</v>
@@ -7485,17 +7703,18 @@
       <c r="I166" s="6">
         <v>59899</v>
       </c>
-      <c r="J166" s="6">
+      <c r="J166" s="6"/>
+      <c r="K166" s="6">
         <f>(80.15-9.1)*0.83*1000</f>
         <v>58971.500000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C167" s="5">
         <v>601935</v>
@@ -7520,17 +7739,18 @@
       <c r="I167" s="6">
         <v>74498</v>
       </c>
-      <c r="J167" s="6">
+      <c r="J167" s="6"/>
+      <c r="K167" s="6">
         <f>(82.7-30.55)*1000*0.83</f>
         <v>43284.500000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C168" s="5">
         <v>172463</v>
@@ -7555,16 +7775,17 @@
       <c r="I168" s="6">
         <v>31025</v>
       </c>
-      <c r="J168" s="6">
+      <c r="J168" s="6"/>
+      <c r="K168" s="6">
         <v>78186</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C169" s="5">
         <v>187700</v>
@@ -7589,16 +7810,17 @@
       <c r="I169" s="6">
         <v>39043</v>
       </c>
-      <c r="J169" s="6">
+      <c r="J169" s="6"/>
+      <c r="K169" s="6">
         <v>59055</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C170" s="5">
         <v>178429</v>
@@ -7623,17 +7845,18 @@
       <c r="I170" s="6">
         <v>31851</v>
       </c>
-      <c r="J170" s="6">
+      <c r="J170" s="6"/>
+      <c r="K170" s="6">
         <f>(114.6-95.8)*1000*0.83</f>
         <v>15603.999999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C171" s="5">
         <v>190695</v>
@@ -7658,16 +7881,17 @@
       <c r="I171" s="6">
         <v>58336</v>
       </c>
-      <c r="J171" s="6">
+      <c r="J171" s="6"/>
+      <c r="K171" s="6">
         <v>72318</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C172" s="5">
         <v>147661</v>
@@ -7692,17 +7916,18 @@
       <c r="I172" s="6">
         <v>20016</v>
       </c>
-      <c r="J172" s="6">
+      <c r="J172" s="6"/>
+      <c r="K172" s="6">
         <f>(30.1-51.84)*830</f>
         <v>-18044.2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C173" s="5">
         <v>155404</v>
@@ -7727,17 +7952,18 @@
       <c r="I173" s="6">
         <v>25455</v>
       </c>
-      <c r="J173" s="6">
+      <c r="J173" s="6"/>
+      <c r="K173" s="6">
         <f>(11.85-0.35)*1000*0.83</f>
         <v>9545</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C174" s="5">
         <v>176448</v>
@@ -7762,17 +7988,18 @@
       <c r="I174" s="6">
         <v>51121</v>
       </c>
-      <c r="J174" s="6">
+      <c r="J174" s="6"/>
+      <c r="K174" s="6">
         <f>(59.75-51.05)*1000*0.83</f>
         <v>7221.0000000000027</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C175" s="5">
         <v>131134</v>
@@ -7797,16 +8024,17 @@
       <c r="I175" s="6">
         <v>10532</v>
       </c>
-      <c r="J175" s="6">
+      <c r="J175" s="6"/>
+      <c r="K175" s="6">
         <v>59262</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C176" s="5">
         <v>137791</v>
@@ -7831,17 +8059,18 @@
       <c r="I176" s="6">
         <v>20534</v>
       </c>
-      <c r="J176" s="6">
+      <c r="J176" s="6"/>
+      <c r="K176" s="6">
         <f>(33-8)*1000*0.83</f>
         <v>20750</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C177" s="5">
         <v>144649</v>
@@ -7866,16 +8095,17 @@
       <c r="I177" s="6">
         <v>30139</v>
       </c>
-      <c r="J177" s="6">
+      <c r="J177" s="6"/>
+      <c r="K177" s="6">
         <v>30005</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C178" s="5">
         <v>143132</v>
@@ -7900,16 +8130,17 @@
       <c r="I178" s="6">
         <v>30426</v>
       </c>
-      <c r="J178" s="6">
+      <c r="J178" s="6"/>
+      <c r="K178" s="6">
         <v>63910</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C179" s="5">
         <v>122574</v>
@@ -7934,16 +8165,17 @@
       <c r="I179" s="6">
         <v>31408</v>
       </c>
-      <c r="J179" s="6">
+      <c r="J179" s="6"/>
+      <c r="K179" s="6">
         <v>42496</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C180" s="5">
         <v>137748</v>
@@ -7968,16 +8200,17 @@
       <c r="I180" s="6">
         <v>24371</v>
       </c>
-      <c r="J180" s="6">
+      <c r="J180" s="6"/>
+      <c r="K180" s="6">
         <v>92255</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C181" s="5">
         <v>119321</v>
@@ -8002,16 +8235,17 @@
       <c r="I181" s="6">
         <v>23340</v>
       </c>
-      <c r="J181" s="6">
+      <c r="J181" s="6"/>
+      <c r="K181" s="6">
         <v>31847</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C182" s="5">
         <v>489860</v>
@@ -8036,17 +8270,18 @@
       <c r="I182" s="6">
         <v>53143</v>
       </c>
-      <c r="J182" s="6">
+      <c r="J182" s="6"/>
+      <c r="K182" s="6">
         <f>(10.4-48)*1000*0.83</f>
         <v>-31208</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C183" s="5">
         <v>478400</v>
@@ -8071,16 +8306,17 @@
       <c r="I183" s="6">
         <v>54219</v>
       </c>
-      <c r="J183" s="6">
+      <c r="J183" s="6"/>
+      <c r="K183" s="6">
         <v>82021</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C184" s="5">
         <v>487460</v>
@@ -8105,17 +8341,18 @@
       <c r="I184" s="6">
         <v>72710</v>
       </c>
-      <c r="J184" s="6">
+      <c r="J184" s="6"/>
+      <c r="K184" s="6">
         <f>(236.8-81.18)*1000*0.83</f>
         <v>129164.59999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C185" s="5">
         <v>407402</v>
@@ -8140,16 +8377,17 @@
       <c r="I185" s="6">
         <v>40563</v>
       </c>
-      <c r="J185" s="6">
+      <c r="J185" s="6"/>
+      <c r="K185" s="6">
         <v>-97998</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C186" s="5">
         <v>149950</v>
@@ -8174,17 +8412,18 @@
       <c r="I186" s="6">
         <v>32061</v>
       </c>
-      <c r="J186" s="6">
+      <c r="J186" s="6"/>
+      <c r="K186" s="6">
         <f>(104.3-88.5)*1000*0.83</f>
         <v>13113.999999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C187" s="5">
         <v>402386</v>
@@ -8209,17 +8448,18 @@
       <c r="I187" s="6">
         <v>59384</v>
       </c>
-      <c r="J187" s="6">
+      <c r="J187" s="6"/>
+      <c r="K187" s="6">
         <f>(150.5-64.5)*1000*0.83</f>
         <v>71380</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C188" s="5">
         <v>132609</v>
@@ -8244,16 +8484,17 @@
       <c r="I188" s="6">
         <v>31360</v>
       </c>
-      <c r="J188" s="6">
+      <c r="J188" s="6"/>
+      <c r="K188" s="6">
         <v>76858</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C189" s="5">
         <v>343814</v>
@@ -8278,17 +8519,18 @@
       <c r="I189" s="6">
         <v>60279</v>
       </c>
-      <c r="J189" s="6">
+      <c r="J189" s="6"/>
+      <c r="K189" s="6">
         <f>(160.8-53.65)*0.83*1000</f>
         <v>88934.5</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C190" s="5">
         <v>143137</v>
@@ -8313,17 +8555,18 @@
       <c r="I190" s="6">
         <v>30905</v>
       </c>
-      <c r="J190" s="6">
+      <c r="J190" s="6"/>
+      <c r="K190" s="6">
         <f>(72.5-0.35)*830</f>
         <v>59884.500000000007</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C191" s="5">
         <v>133813</v>
@@ -8348,17 +8591,18 @@
       <c r="I191" s="6">
         <v>20260</v>
       </c>
-      <c r="J191" s="6">
+      <c r="J191" s="6"/>
+      <c r="K191" s="6">
         <f>(23.85-13.55)*1000*0.83</f>
         <v>8549</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C192" s="5">
         <v>126482</v>
@@ -8383,16 +8627,17 @@
       <c r="I192" s="6">
         <v>29675</v>
       </c>
-      <c r="J192" s="6">
+      <c r="J192" s="6"/>
+      <c r="K192" s="6">
         <v>28386</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C193" s="5">
         <v>185800</v>
@@ -8417,16 +8662,17 @@
       <c r="I193" s="6">
         <v>39150</v>
       </c>
-      <c r="J193" s="6">
+      <c r="J193" s="6"/>
+      <c r="K193" s="6">
         <v>27556</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C194" s="5">
         <v>152626</v>
@@ -8451,17 +8697,18 @@
       <c r="I194" s="6">
         <v>48248</v>
       </c>
-      <c r="J194" s="6">
+      <c r="J194" s="6"/>
+      <c r="K194" s="6">
         <f>(72.4-35.64)*1000*0.83</f>
         <v>30510.800000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C195" s="5">
         <v>142347</v>
@@ -8486,17 +8733,18 @@
       <c r="I195" s="6">
         <v>25060</v>
       </c>
-      <c r="J195" s="6">
+      <c r="J195" s="6"/>
+      <c r="K195" s="6">
         <f>(7.6-55.38)*1000*0.83</f>
         <v>-39657.4</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C196" s="5">
         <v>123291</v>
@@ -8521,16 +8769,17 @@
       <c r="I196" s="6">
         <v>30356</v>
       </c>
-      <c r="J196" s="6">
+      <c r="J196" s="6"/>
+      <c r="K196" s="6">
         <v>44189</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C197" s="5">
         <v>139500</v>
@@ -8555,16 +8804,17 @@
       <c r="I197" s="6">
         <v>59925</v>
       </c>
-      <c r="J197" s="6">
+      <c r="J197" s="6"/>
+      <c r="K197" s="6">
         <v>53178</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C198" s="5">
         <v>112596</v>
@@ -8589,16 +8839,17 @@
       <c r="I198" s="6">
         <v>41661</v>
       </c>
-      <c r="J198" s="6">
+      <c r="J198" s="6"/>
+      <c r="K198" s="6">
         <v>129895</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C199" s="5">
         <v>95380</v>
@@ -8623,16 +8874,17 @@
       <c r="I199" s="6">
         <v>10510</v>
       </c>
-      <c r="J199" s="6">
+      <c r="J199" s="6"/>
+      <c r="K199" s="6">
         <v>16832</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C200" s="5">
         <v>119985</v>
@@ -8657,17 +8909,18 @@
       <c r="I200" s="6">
         <v>20837</v>
       </c>
-      <c r="J200" s="6">
+      <c r="J200" s="6"/>
+      <c r="K200" s="6">
         <f>(56-25.4)*830</f>
         <v>25398</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C201" s="5">
         <v>119352</v>
@@ -8692,17 +8945,18 @@
       <c r="I201" s="6">
         <v>27022</v>
       </c>
-      <c r="J201" s="6">
+      <c r="J201" s="6"/>
+      <c r="K201" s="6">
         <f>(8.82-2.2)*830</f>
         <v>5494.6</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C202" s="5">
         <v>569800</v>
@@ -8727,16 +8981,17 @@
       <c r="I202" s="6">
         <v>10000</v>
       </c>
-      <c r="J202" s="6">
+      <c r="J202" s="6"/>
+      <c r="K202" s="6">
         <v>90802</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C203" s="5">
         <v>464839</v>
@@ -8761,17 +9016,18 @@
       <c r="I203" s="6">
         <v>10000</v>
       </c>
-      <c r="J203" s="6">
+      <c r="J203" s="6"/>
+      <c r="K203" s="6">
         <f>(83.95-19.5)*1000*0.83</f>
         <v>53493.5</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C204" s="5">
         <v>487365</v>
@@ -8796,17 +9052,18 @@
       <c r="I204" s="6">
         <v>4000</v>
       </c>
-      <c r="J204" s="6">
+      <c r="J204" s="6"/>
+      <c r="K204" s="6">
         <f>(84.8-17.2)*1000*0.83</f>
         <v>56108</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C205" s="5">
         <v>434863</v>
@@ -8831,16 +9088,17 @@
       <c r="I205" s="6">
         <v>4598</v>
       </c>
-      <c r="J205" s="6">
+      <c r="J205" s="6"/>
+      <c r="K205" s="6">
         <v>157742</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C206" s="5">
         <v>226204</v>
@@ -8865,17 +9123,18 @@
       <c r="I206" s="6">
         <v>8000</v>
       </c>
-      <c r="J206" s="6">
+      <c r="J206" s="6"/>
+      <c r="K206" s="6">
         <f>(59.4-53.77)*1000*0.83</f>
         <v>4672.899999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C207" s="5">
         <v>192728</v>
@@ -8900,16 +9159,17 @@
       <c r="I207" s="6">
         <v>6000</v>
       </c>
-      <c r="J207" s="6">
+      <c r="J207" s="6"/>
+      <c r="K207" s="6">
         <v>7711</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C208" s="5">
         <v>361872</v>
@@ -8934,17 +9194,18 @@
       <c r="I208" s="6">
         <v>6000</v>
       </c>
-      <c r="J208" s="6">
+      <c r="J208" s="6"/>
+      <c r="K208" s="6">
         <f>(110.5-13.3)*1000*0.83</f>
         <v>80676</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C209" s="5">
         <v>325369</v>
@@ -8969,17 +9230,18 @@
       <c r="I209" s="6">
         <v>10000</v>
       </c>
-      <c r="J209" s="6">
+      <c r="J209" s="6"/>
+      <c r="K209" s="6">
         <f>(86-19.15)*1000*0.83</f>
         <v>55485.5</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C210" s="5">
         <v>171028</v>
@@ -9004,17 +9266,18 @@
       <c r="I210" s="6">
         <v>8000</v>
       </c>
-      <c r="J210" s="6">
+      <c r="J210" s="6"/>
+      <c r="K210" s="6">
         <f>127.8*830</f>
         <v>106074</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C211" s="5">
         <v>193100</v>
@@ -9039,16 +9302,17 @@
       <c r="I211" s="6">
         <v>3356</v>
       </c>
-      <c r="J211" s="6">
+      <c r="J211" s="6"/>
+      <c r="K211" s="6">
         <v>58050</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C212" s="5">
         <v>183632</v>
@@ -9071,16 +9335,17 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="6">
+      <c r="J212" s="6"/>
+      <c r="K212" s="6">
         <v>81821</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C213" s="5">
         <v>140192</v>
@@ -9105,17 +9370,18 @@
       <c r="I213" s="6">
         <v>10000</v>
       </c>
-      <c r="J213" s="6">
+      <c r="J213" s="6"/>
+      <c r="K213" s="6">
         <f>(38.75-0.78)*1000*0.83</f>
         <v>31515.1</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C214" s="5">
         <v>194096</v>
@@ -9138,16 +9404,17 @@
         <v>1.368421052631579</v>
       </c>
       <c r="I214" s="6"/>
-      <c r="J214" s="6">
+      <c r="J214" s="6"/>
+      <c r="K214" s="6">
         <v>6964</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C215" s="5">
         <v>134383</v>
@@ -9172,17 +9439,18 @@
       <c r="I215" s="6">
         <v>4250</v>
       </c>
-      <c r="J215" s="6">
+      <c r="J215" s="6"/>
+      <c r="K215" s="6">
         <f>(22.4-20)*1000*0.83</f>
         <v>1991.9999999999989</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C216" s="5">
         <v>157143</v>
@@ -9207,16 +9475,17 @@
       <c r="I216" s="6">
         <v>2000</v>
       </c>
-      <c r="J216" s="6">
+      <c r="J216" s="6"/>
+      <c r="K216" s="6">
         <v>9130</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C217" s="5">
         <v>139731</v>
@@ -9241,16 +9510,17 @@
       <c r="I217" s="6">
         <v>3982</v>
       </c>
-      <c r="J217" s="6">
+      <c r="J217" s="6"/>
+      <c r="K217" s="6">
         <v>24485</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C218" s="5">
         <v>115101</v>
@@ -9275,17 +9545,18 @@
       <c r="I218" s="6">
         <v>3500</v>
       </c>
-      <c r="J218" s="6">
+      <c r="J218" s="6"/>
+      <c r="K218" s="6">
         <f>(1.1-2.3)*1000*0.83</f>
         <v>-995.99999999999977</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C219" s="5">
         <v>116111</v>
@@ -9310,16 +9581,17 @@
       <c r="I219" s="6">
         <v>2000</v>
       </c>
-      <c r="J219" s="6">
+      <c r="J219" s="6"/>
+      <c r="K219" s="6">
         <v>30918</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C220" s="5">
         <v>106934</v>
@@ -9344,16 +9616,17 @@
       <c r="I220" s="6">
         <v>5371</v>
       </c>
-      <c r="J220" s="6">
+      <c r="J220" s="6"/>
+      <c r="K220" s="6">
         <v>28253</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C221" s="5">
         <v>115221</v>
@@ -9378,17 +9651,18 @@
       <c r="I221" s="6">
         <v>5096</v>
       </c>
-      <c r="J221" s="6">
+      <c r="J221" s="6"/>
+      <c r="K221" s="6">
         <f>62.7*830</f>
         <v>52041</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C222" s="5">
         <v>613000</v>
@@ -9413,16 +9687,17 @@
       <c r="I222" s="6">
         <v>52738</v>
       </c>
-      <c r="J222" s="6">
+      <c r="J222" s="6"/>
+      <c r="K222" s="6">
         <v>37433</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C223" s="5">
         <v>594271</v>
@@ -9447,17 +9722,18 @@
       <c r="I223" s="6">
         <v>53008</v>
       </c>
-      <c r="J223" s="6">
+      <c r="J223" s="6"/>
+      <c r="K223" s="6">
         <f>(93-31.65)*1000*0.83</f>
         <v>50920.5</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C224" s="5">
         <v>481278</v>
@@ -9482,16 +9758,17 @@
       <c r="I224" s="6">
         <v>36443</v>
       </c>
-      <c r="J224" s="6">
+      <c r="J224" s="6"/>
+      <c r="K224" s="6">
         <v>-31200</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C225" s="5">
         <v>444028</v>
@@ -9516,17 +9793,18 @@
       <c r="I225" s="6">
         <v>56523</v>
       </c>
-      <c r="J225" s="6">
+      <c r="J225" s="6"/>
+      <c r="K225" s="6">
         <f>(95.9-34.62)*1000*0.83</f>
         <v>50862.400000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C226" s="5">
         <v>340271</v>
@@ -9551,17 +9829,18 @@
       <c r="I226" s="6">
         <v>59811</v>
       </c>
-      <c r="J226" s="6">
+      <c r="J226" s="6"/>
+      <c r="K226" s="6">
         <f>(167.4-31.4)*1000*0.83</f>
         <v>112880</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C227" s="5">
         <v>539937</v>
@@ -9586,17 +9865,18 @@
       <c r="I227" s="6">
         <v>73150</v>
       </c>
-      <c r="J227" s="6">
+      <c r="J227" s="6"/>
+      <c r="K227" s="6">
         <f>(142-31.1)*1000*0.83</f>
         <v>92047</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C228" s="5">
         <v>252720</v>
@@ -9621,16 +9901,17 @@
       <c r="I228" s="6">
         <v>58569</v>
       </c>
-      <c r="J228" s="6">
+      <c r="J228" s="6"/>
+      <c r="K228" s="6">
         <v>58316</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C229" s="5">
         <v>214590</v>
@@ -9655,17 +9936,18 @@
       <c r="I229" s="6">
         <v>31940</v>
       </c>
-      <c r="J229" s="6">
+      <c r="J229" s="6"/>
+      <c r="K229" s="6">
         <f>(67.6-4)*1000*0.83</f>
         <v>52787.999999999993</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C230" s="5">
         <v>167429</v>
@@ -9690,16 +9972,17 @@
       <c r="I230" s="6">
         <v>30943</v>
       </c>
-      <c r="J230" s="6">
+      <c r="J230" s="6"/>
+      <c r="K230" s="6">
         <v>-3154</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C231" s="5">
         <v>165659</v>
@@ -9724,16 +10007,17 @@
       <c r="I231" s="6">
         <v>30692</v>
       </c>
-      <c r="J231" s="6">
+      <c r="J231" s="6"/>
+      <c r="K231" s="6">
         <v>4814</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C232" s="5">
         <v>179986</v>
@@ -9758,17 +10042,18 @@
       <c r="I232" s="6">
         <v>51487</v>
       </c>
-      <c r="J232" s="6">
+      <c r="J232" s="6"/>
+      <c r="K232" s="6">
         <f>(130.5)*1000*0.83</f>
         <v>108315</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C233" s="5">
         <v>159999</v>
@@ -9793,17 +10078,18 @@
       <c r="I233" s="6">
         <v>24282</v>
       </c>
-      <c r="J233" s="6">
+      <c r="J233" s="6"/>
+      <c r="K233" s="6">
         <f>85.62*1000*0.83</f>
         <v>71064.599999999991</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C234" s="5">
         <v>140913</v>
@@ -9828,16 +10114,17 @@
       <c r="I234" s="6">
         <v>16907</v>
       </c>
-      <c r="J234" s="6">
+      <c r="J234" s="6"/>
+      <c r="K234" s="6">
         <v>30876</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C235" s="5">
         <v>178399</v>
@@ -9862,16 +10149,17 @@
       <c r="I235" s="6">
         <v>41651</v>
       </c>
-      <c r="J235" s="6">
+      <c r="J235" s="6"/>
+      <c r="K235" s="6">
         <v>2324</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C236" s="5">
         <v>150628</v>
@@ -9896,16 +10184,17 @@
       <c r="I236" s="6">
         <v>29974</v>
       </c>
-      <c r="J236" s="6">
+      <c r="J236" s="6"/>
+      <c r="K236" s="6">
         <v>2532</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C237" s="5">
         <v>181000</v>
@@ -9930,16 +10219,17 @@
       <c r="I237" s="6">
         <v>38882</v>
       </c>
-      <c r="J237" s="6">
+      <c r="J237" s="6"/>
+      <c r="K237" s="6">
         <v>-5395</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C238" s="5">
         <v>189207</v>
@@ -9964,17 +10254,18 @@
       <c r="I238" s="6">
         <v>36286</v>
       </c>
-      <c r="J238" s="6">
+      <c r="J238" s="6"/>
+      <c r="K238" s="6">
         <f>59.3*830</f>
         <v>49219</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C239" s="5">
         <v>123407</v>
@@ -9999,17 +10290,18 @@
       <c r="I239" s="6">
         <v>19317</v>
       </c>
-      <c r="J239" s="6">
+      <c r="J239" s="6"/>
+      <c r="K239" s="6">
         <f>(49.4-40.5)*1000*0.83</f>
         <v>7386.9999999999982</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C240" s="5">
         <v>128094</v>
@@ -10034,17 +10326,18 @@
       <c r="I240" s="6">
         <v>20598</v>
       </c>
-      <c r="J240" s="6">
+      <c r="J240" s="6"/>
+      <c r="K240" s="6">
         <f>-72*830</f>
         <v>-59760</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C241" s="5">
         <v>133869</v>
@@ -10069,17 +10362,18 @@
       <c r="I241" s="6">
         <v>26883</v>
       </c>
-      <c r="J241" s="6">
+      <c r="J241" s="6"/>
+      <c r="K241" s="6">
         <f>(63.55-38.4)*830</f>
         <v>20874.5</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C242" s="5">
         <v>712800</v>
@@ -10104,16 +10398,17 @@
       <c r="I242" s="6">
         <v>53249</v>
       </c>
-      <c r="J242" s="6">
+      <c r="J242" s="6"/>
+      <c r="K242" s="6">
         <v>-5951</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C243" s="5">
         <v>428453</v>
@@ -10138,17 +10433,18 @@
       <c r="I243" s="6">
         <v>60191</v>
       </c>
-      <c r="J243" s="6">
+      <c r="J243" s="6"/>
+      <c r="K243" s="6">
         <f>(186400-23800)*0.83</f>
         <v>134958</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C244" s="5">
         <v>601313</v>
@@ -10173,17 +10469,18 @@
       <c r="I244" s="6">
         <v>73815</v>
       </c>
-      <c r="J244" s="6">
+      <c r="J244" s="6"/>
+      <c r="K244" s="6">
         <f>(243.28-23.65)*1000*0.83</f>
         <v>182292.9</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C245" s="5">
         <v>249865</v>
@@ -10208,17 +10505,18 @@
       <c r="I245" s="6">
         <v>52127</v>
       </c>
-      <c r="J245" s="6">
+      <c r="J245" s="6"/>
+      <c r="K245" s="6">
         <f>(185-14.06)*1000*0.83</f>
         <v>141880.19999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C246" s="5">
         <v>593836</v>
@@ -10243,17 +10541,18 @@
       <c r="I246" s="6">
         <v>53184</v>
       </c>
-      <c r="J246" s="6">
+      <c r="J246" s="6"/>
+      <c r="K246" s="6">
         <f>(145.8-80.7)*1000*0.83</f>
         <v>54033</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C247" s="5">
         <v>203574</v>
@@ -10278,16 +10577,17 @@
       <c r="I247" s="6">
         <v>31477</v>
       </c>
-      <c r="J247" s="6">
+      <c r="J247" s="6"/>
+      <c r="K247" s="6">
         <v>-68641</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A248" s="4" t="s">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C248" s="5">
         <v>217694</v>
@@ -10312,16 +10612,17 @@
       <c r="I248" s="6">
         <v>41707</v>
       </c>
-      <c r="J248" s="6">
+      <c r="J248" s="6"/>
+      <c r="K248" s="6">
         <v>48970</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C249" s="5">
         <v>549633</v>
@@ -10346,17 +10647,18 @@
       <c r="I249" s="6">
         <v>61585</v>
       </c>
-      <c r="J249" s="6">
+      <c r="J249" s="6"/>
+      <c r="K249" s="6">
         <f>(179.9-38.75)*1000*0.83</f>
         <v>117154.5</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C250" s="5">
         <v>166508</v>
@@ -10381,16 +10683,17 @@
       <c r="I250" s="6">
         <v>17080</v>
       </c>
-      <c r="J250" s="6">
+      <c r="J250" s="6"/>
+      <c r="K250" s="6">
         <v>37890</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C251" s="5">
         <v>182325</v>
@@ -10415,16 +10718,17 @@
       <c r="I251" s="6">
         <v>23766</v>
       </c>
-      <c r="J251" s="6">
+      <c r="J251" s="6"/>
+      <c r="K251" s="6">
         <v>42081</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C252" s="5">
         <v>180066</v>
@@ -10449,17 +10753,18 @@
       <c r="I252" s="6">
         <v>25051</v>
       </c>
-      <c r="J252" s="6">
+      <c r="J252" s="6"/>
+      <c r="K252" s="6">
         <f>(46.6-5.46)*1000*0.83</f>
         <v>34146.199999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C253" s="5">
         <v>512467</v>
@@ -10484,16 +10789,17 @@
       <c r="I253" s="6">
         <v>40002</v>
       </c>
-      <c r="J253" s="6">
+      <c r="J253" s="6"/>
+      <c r="K253" s="6">
         <v>466784</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" s="4" t="s">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C254" s="5">
         <v>168575</v>
@@ -10518,16 +10824,17 @@
       <c r="I254" s="6">
         <v>31423</v>
       </c>
-      <c r="J254" s="6">
+      <c r="J254" s="6"/>
+      <c r="K254" s="6">
         <v>96811</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C255" s="5">
         <v>236656</v>
@@ -10552,16 +10859,17 @@
       <c r="I255" s="6">
         <v>62462</v>
       </c>
-      <c r="J255" s="6">
+      <c r="J255" s="6"/>
+      <c r="K255" s="6">
         <v>145292</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C256" s="5">
         <v>140983</v>
@@ -10586,16 +10894,17 @@
       <c r="I256" s="6">
         <v>10307</v>
       </c>
-      <c r="J256" s="6">
+      <c r="J256" s="6"/>
+      <c r="K256" s="6">
         <v>68973</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C257" s="5">
         <v>154758</v>
@@ -10620,17 +10929,18 @@
       <c r="I257" s="6">
         <v>29188</v>
       </c>
-      <c r="J257" s="6">
+      <c r="J257" s="6"/>
+      <c r="K257" s="6">
         <f>(198.35-5)*830</f>
         <v>160480.5</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C258" s="5">
         <v>172200</v>
@@ -10655,16 +10965,17 @@
       <c r="I258" s="6">
         <v>39241</v>
       </c>
-      <c r="J258" s="6">
+      <c r="J258" s="6"/>
+      <c r="K258" s="6">
         <v>-17040</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C259" s="5">
         <v>177326</v>
@@ -10689,17 +11000,18 @@
       <c r="I259" s="6">
         <v>31887</v>
       </c>
-      <c r="J259" s="6">
+      <c r="J259" s="6"/>
+      <c r="K259" s="6">
         <f>(49-81.4)*1000*0.83</f>
         <v>-26892.000000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C260" s="5">
         <v>189684</v>
@@ -10724,17 +11036,18 @@
       <c r="I260" s="6">
         <v>36566</v>
       </c>
-      <c r="J260" s="6">
+      <c r="J260" s="6"/>
+      <c r="K260" s="6">
         <f>(163.89-114.5)*830</f>
         <v>40993.69999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A261" s="7" t="s">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B261" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="C261" s="8">
         <v>145467</v>
@@ -10759,12 +11072,14 @@
       <c r="I261" s="9">
         <v>30416</v>
       </c>
-      <c r="J261" s="9">
+      <c r="J261" s="9"/>
+      <c r="K261" s="9">
         <v>122516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -10776,7 +11091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F1D7-E339-A544-9A1C-306EF1AAE73C}">
   <dimension ref="A1:Q313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B280" workbookViewId="0">
+    <sheetView topLeftCell="B280" workbookViewId="0">
       <selection activeCell="K304" sqref="K304"/>
     </sheetView>
   </sheetViews>
@@ -14333,7 +14648,7 @@
       <c r="F111" s="5">
         <v>14</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111">
         <f>71/46</f>
         <v>1.5434782608695652</v>
       </c>
@@ -14749,7 +15064,7 @@
       <c r="F124" s="5">
         <v>3</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124">
         <f>72/46</f>
         <v>1.5652173913043479</v>
       </c>
@@ -14941,7 +15256,7 @@
       <c r="F130" s="5">
         <v>9</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G130">
         <f>72/46</f>
         <v>1.5652173913043479</v>
       </c>
@@ -16317,7 +16632,7 @@
       <c r="F173" s="5">
         <v>4</v>
       </c>
-      <c r="G173" s="12">
+      <c r="G173">
         <f>72/46</f>
         <v>1.5652173913043479</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thisen/Desktop/GitHub/bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B382EA6-9C67-CF4A-9D19-CF1CD6BA4CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D1A4A-54F2-4742-AB91-4D46991738B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="15220" windowHeight="21380" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="12520" windowHeight="21380" activeTab="1" xr2:uid="{21EF8D0E-709A-5849-95F5-8BD874E64F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -784,66 +784,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1182,6 +1127,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1282,6 +1243,43 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1357,44 +1355,58 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}" name="Tabel2" displayName="Tabel2" ref="A1:K261" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:K261" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}"/>
+  <autoFilter ref="A1:K261" xr:uid="{BC7779FA-9C76-47BB-AFCC-519D4CE53E83}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="14_15"/>
+        <filter val="15_16"/>
+        <filter val="16_17"/>
+        <filter val="17_18"/>
+        <filter val="18_19"/>
+        <filter val="19_20"/>
+        <filter val="20_21"/>
+        <filter val="21_22"/>
+        <filter val="22_23"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K261">
     <sortCondition ref="A1:A261"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BA6784EC-DD25-45B9-9B3B-087EAE44FAB3}" name="club" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{9DF7A340-2D60-C24C-8F9B-5D28C34152A3}" name="season" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A151D9FE-0DE1-4234-9A37-7A3DB95D3259}" name="revenue" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{977C4AF2-ED50-724B-AC27-5CA5F5634663}" name="gfpg" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{3EC71E14-02AC-A549-BEDC-13E0F9464D38}" name="gapg" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{8D05B551-4619-C64B-97C0-C681B41DEB4C}" name="tilskuere" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{15986C8F-F2B5-1E45-BFCB-E2523C2699D6}" name="squad_value" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{BA6784EC-DD25-45B9-9B3B-087EAE44FAB3}" name="club" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{9DF7A340-2D60-C24C-8F9B-5D28C34152A3}" name="season" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{A151D9FE-0DE1-4234-9A37-7A3DB95D3259}" name="revenue" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{C4F0F1C4-CE85-473E-9247-CDCACE3AAD15}" name="wage" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{22D81F38-1CCC-44A6-95AD-96297284D5FD}" name="points" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00E172C2-A4B3-40B9-BB4D-979F4EC73795}" name="placering" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{977C4AF2-ED50-724B-AC27-5CA5F5634663}" name="gfpg" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{3EC71E14-02AC-A549-BEDC-13E0F9464D38}" name="gapg" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{8D05B551-4619-C64B-97C0-C681B41DEB4C}" name="tilskuere" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{15986C8F-F2B5-1E45-BFCB-E2523C2699D6}" name="squad_value" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{640002E0-C335-47BD-8725-D3444875C57E}" name="transfers (ind-ud)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:J313" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}" name="Tabel22" displayName="Tabel22" ref="A1:J313" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J313" xr:uid="{25361EC0-DBF7-AC42-9E30-4909D2957DFA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J313">
     <sortCondition ref="A1:A313"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E399353A-1CC7-2745-8D5D-8DCEC38A4026}" name="season" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E8422483-0E20-7548-B9A5-25103A8914E9}" name="club" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{532D6E3A-48EC-E549-847E-FF66BC1FD208}" name="revenue" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="gfpg" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{BB3EE534-3650-9742-99A4-8DEEB76ED767}" name="gapg" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E161F9ED-52DF-434C-8F94-B383F794ED6D}" name="tilskuere" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="transfers (ind-ud)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E399353A-1CC7-2745-8D5D-8DCEC38A4026}" name="season" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E8422483-0E20-7548-B9A5-25103A8914E9}" name="club" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{532D6E3A-48EC-E549-847E-FF66BC1FD208}" name="revenue" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{ED2BC751-304B-5545-BB4B-F5204DBCF2BC}" name="wage" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4A9390E6-D036-0846-9DF0-CDBADC0CE366}" name="points" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E4BEAB79-A63F-8F4A-9F9B-0F759C48922D}" name="placering" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{4B50620F-4E96-9346-AB30-51523F2ED029}" name="gfpg" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{BB3EE534-3650-9742-99A4-8DEEB76ED767}" name="gapg" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E161F9ED-52DF-434C-8F94-B383F794ED6D}" name="tilskuere" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C0537F2F-0086-374F-BA04-B4974DE7DD29}" name="squad_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -1747,9 +1759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D4C51-CDC5-8D4D-A9A9-ABBAE8089D2A}">
   <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1796,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
@@ -1826,7 +1838,7 @@
       <c r="I2" s="6">
         <v>74989</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="3">
         <v>388000</v>
       </c>
       <c r="K2" s="6">
@@ -1837,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1867,7 +1879,7 @@
       <c r="I3" s="6">
         <v>41435</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="6">
         <v>424100</v>
       </c>
       <c r="K3" s="6">
@@ -1883,7 +1895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -1913,14 +1925,14 @@
       <c r="I4" s="6">
         <v>45905</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="3">
         <v>404180</v>
       </c>
       <c r="K4" s="6">
         <v>119072</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1950,7 +1962,7 @@
       <c r="I5" s="6">
         <v>60023</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="6">
         <v>324000</v>
       </c>
       <c r="K5" s="6">
@@ -1958,7 +1970,7 @@
         <v>12367</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1988,7 +2000,7 @@
       <c r="I6" s="6">
         <v>35722</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="6">
         <v>307080</v>
       </c>
       <c r="K6" s="6">
@@ -1996,7 +2008,7 @@
         <v>19637.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +2038,7 @@
       <c r="I7" s="6">
         <v>42824</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="6">
         <v>339200</v>
       </c>
       <c r="K7" s="6">
@@ -2034,7 +2046,7 @@
         <v>-4374.0999999999967</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2064,14 +2076,14 @@
       <c r="I8" s="6">
         <v>36064</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="6">
         <v>184480</v>
       </c>
       <c r="K8" s="6">
         <v>-4067</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2101,14 +2113,14 @@
       <c r="I9" s="6">
         <v>25151</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="6">
         <v>109550</v>
       </c>
       <c r="K9" s="6">
         <v>-1461</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -2138,14 +2150,14 @@
       <c r="I10" s="6">
         <v>37194</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="6">
         <v>202800</v>
       </c>
       <c r="K10" s="6">
         <v>7470</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -2175,14 +2187,14 @@
       <c r="I11" s="6">
         <v>40011</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="6">
         <v>149330</v>
       </c>
       <c r="K11" s="6">
         <v>-10524</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2212,14 +2224,14 @@
       <c r="I12" s="6">
         <v>24683</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="6">
         <v>86880</v>
       </c>
       <c r="K12" s="6">
         <v>10773</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -2249,7 +2261,7 @@
       <c r="I13" s="6">
         <v>47718</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="6">
         <v>119480</v>
       </c>
       <c r="K13" s="6">
@@ -2257,7 +2269,7 @@
         <v>-23049.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -2287,7 +2299,7 @@
       <c r="I14" s="6">
         <v>26858</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="6">
         <v>94450</v>
       </c>
       <c r="K14" s="6">
@@ -2295,7 +2307,7 @@
         <v>11885.599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2325,14 +2337,14 @@
       <c r="I15" s="6">
         <v>22807</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="6">
         <v>100150</v>
       </c>
       <c r="K15" s="6">
         <v>3320</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2374,7 @@
       <c r="I16" s="6">
         <v>25000</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="6">
         <v>91530</v>
       </c>
       <c r="K16" s="6">
@@ -2370,7 +2382,7 @@
         <v>3963.2499999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -2400,7 +2412,7 @@
       <c r="I17" s="6">
         <v>16807</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="6">
         <v>80500</v>
       </c>
       <c r="K17" s="6">
@@ -2408,7 +2420,7 @@
         <v>6640</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
@@ -2438,14 +2450,14 @@
       <c r="I18" s="6">
         <v>27696</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="6">
         <v>83550</v>
       </c>
       <c r="K18" s="6">
         <v>11437</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -2475,14 +2487,14 @@
       <c r="I19" s="6">
         <v>25462</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="6">
         <v>95380</v>
       </c>
       <c r="K19" s="6">
         <v>21103</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -2512,14 +2524,14 @@
       <c r="I20" s="6">
         <v>15780</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="6">
         <v>50030</v>
       </c>
       <c r="K20" s="6">
         <v>4175</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>10856</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -2586,12 +2598,14 @@
       <c r="I22" s="6">
         <v>47045</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6">
+        <v>498600</v>
+      </c>
       <c r="K22" s="6">
         <v>49676</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -2621,13 +2635,15 @@
       <c r="I23" s="6">
         <v>75387</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6">
+        <v>404100</v>
+      </c>
       <c r="K23" s="6">
         <f>(62.3-12.9)*1000*0.83</f>
         <v>41002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2657,13 +2673,15 @@
       <c r="I24" s="6">
         <v>60000</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6">
+        <v>362430</v>
+      </c>
       <c r="K24" s="6">
         <f>(65.48-78.29)*1000*0.83</f>
         <v>-10632.300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -2693,13 +2711,15 @@
       <c r="I25" s="6">
         <v>36036</v>
       </c>
-      <c r="J25" s="6"/>
+      <c r="J25" s="6">
+        <v>323500</v>
+      </c>
       <c r="K25" s="6">
         <f>(9-43.25)*1000*0.83</f>
         <v>-28427.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -2729,13 +2749,15 @@
       <c r="I26" s="6">
         <v>49951</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6">
+        <v>161700</v>
+      </c>
       <c r="K26" s="6">
         <f>(27-16.04)*1000*0.83</f>
         <v>9096.7999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2765,12 +2787,14 @@
       <c r="I27" s="6">
         <v>41484</v>
       </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="6">
+        <v>375500</v>
+      </c>
       <c r="K27" s="6">
         <v>53859</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -2800,12 +2824,14 @@
       <c r="I28" s="6">
         <v>33228</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="6">
+        <v>169950</v>
+      </c>
       <c r="K28" s="6">
         <v>-16268</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -2835,13 +2861,15 @@
       <c r="I29" s="6">
         <v>44253</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6">
+        <v>236900</v>
+      </c>
       <c r="K29" s="6">
         <f>(69.33-22)*1000*0.83</f>
         <v>39283.9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -2871,12 +2899,14 @@
       <c r="I30" s="6">
         <v>25399</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6">
+        <v>100000</v>
+      </c>
       <c r="K30" s="6">
         <v>8682</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -2906,12 +2936,14 @@
       <c r="I31" s="6">
         <v>24770</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="J31" s="6">
+        <v>69550</v>
+      </c>
       <c r="K31" s="6">
         <v>-1643</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -2941,13 +2973,15 @@
       <c r="I32" s="6">
         <v>19946</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="6">
+        <v>75600</v>
+      </c>
       <c r="K32" s="6">
         <f>(12.85-0.455)*1000*0.83</f>
         <v>10287.85</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -2977,13 +3011,15 @@
       <c r="I33" s="6">
         <v>26606</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6">
+        <v>58750</v>
+      </c>
       <c r="K33" s="6">
         <f>(15.25-0.5)*830</f>
         <v>12242.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
@@ -3013,12 +3049,14 @@
       <c r="I34" s="6">
         <v>39047</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="6">
+        <v>126500</v>
+      </c>
       <c r="K34" s="6">
         <v>1320</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -3048,13 +3086,15 @@
       <c r="I35" s="6">
         <v>27226</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="6">
+        <v>81650</v>
+      </c>
       <c r="K35" s="6">
         <f>(24.8-1.99)*1000*0.83</f>
         <v>18932.300000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
@@ -3084,13 +3124,15 @@
       <c r="I36" s="6">
         <v>18634</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="6">
+        <v>74250</v>
+      </c>
       <c r="K36" s="6">
         <f>(12.38-11.29)*830</f>
         <v>904.70000000000141</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
@@ -3120,12 +3162,14 @@
       <c r="I37" s="6">
         <v>33883</v>
       </c>
-      <c r="J37" s="6"/>
+      <c r="J37" s="6">
+        <v>123500</v>
+      </c>
       <c r="K37" s="6">
         <v>-19430</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -3155,13 +3199,15 @@
       <c r="I38" s="6">
         <v>17295</v>
       </c>
-      <c r="J38" s="6"/>
+      <c r="J38" s="6">
+        <v>81380</v>
+      </c>
       <c r="K38" s="6">
         <f>(26.23-2.8)*830</f>
         <v>19446.900000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>28</v>
       </c>
@@ -3191,12 +3237,14 @@
       <c r="I39" s="6">
         <v>23670</v>
       </c>
-      <c r="J39" s="6"/>
+      <c r="J39" s="6">
+        <v>90050</v>
+      </c>
       <c r="K39" s="6">
         <v>-606</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>26</v>
       </c>
@@ -3226,13 +3274,15 @@
       <c r="I40" s="6">
         <v>22551</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="6">
+        <v>80000</v>
+      </c>
       <c r="K40" s="6">
         <f>(20.55-40.3)*830</f>
         <v>-16392.499999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>61</v>
       </c>
@@ -3262,12 +3312,14 @@
       <c r="I41" s="6">
         <v>25677</v>
       </c>
-      <c r="J41" s="6"/>
+      <c r="J41" s="6">
+        <v>78050</v>
+      </c>
       <c r="K41" s="6">
         <v>7844</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -3297,13 +3349,15 @@
       <c r="I42" s="6">
         <v>75530</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="6">
+        <v>457500</v>
+      </c>
       <c r="K42" s="6">
         <f>(76.45-9.65)*1000*0.83</f>
         <v>55444</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -3333,12 +3387,14 @@
       <c r="I43" s="6">
         <v>46974</v>
       </c>
-      <c r="J43" s="6"/>
+      <c r="J43" s="6">
+        <v>502100</v>
+      </c>
       <c r="K43" s="6">
         <v>14650</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
@@ -3368,12 +3424,14 @@
       <c r="I44" s="6">
         <v>41462</v>
       </c>
-      <c r="J44" s="6"/>
+      <c r="J44" s="6">
+        <v>454250</v>
+      </c>
       <c r="K44" s="6">
         <v>69928</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
@@ -3403,13 +3461,15 @@
       <c r="I45" s="6">
         <v>60079</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="6">
+        <v>296900</v>
+      </c>
       <c r="K45" s="6">
         <f>(56-65.85)*1000*0.83</f>
         <v>-8175.4999999999955</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
@@ -3439,13 +3499,15 @@
       <c r="I46" s="6">
         <v>36066</v>
       </c>
-      <c r="J46" s="6"/>
+      <c r="J46" s="6">
+        <v>296800</v>
+      </c>
       <c r="K46" s="6">
         <f>(73.25-72.78)*1000*0.83</f>
         <v>390.09999999999906</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
@@ -3475,12 +3537,14 @@
       <c r="I47" s="6">
         <v>36356</v>
       </c>
-      <c r="J47" s="6"/>
+      <c r="J47" s="6">
+        <v>138750</v>
+      </c>
       <c r="K47" s="6">
         <v>2407</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
@@ -3510,13 +3574,15 @@
       <c r="I48" s="6">
         <v>44749</v>
       </c>
-      <c r="J48" s="6"/>
+      <c r="J48" s="6">
+        <v>276100</v>
+      </c>
       <c r="K48" s="6">
         <f>(70.6-10.45)*1000*0.83</f>
         <v>49924.499999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>58</v>
       </c>
@@ -3546,12 +3612,14 @@
       <c r="I49" s="6">
         <v>25202</v>
       </c>
-      <c r="J49" s="6"/>
+      <c r="J49" s="6">
+        <v>93500</v>
+      </c>
       <c r="K49" s="6">
         <v>1054</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
@@ -3581,13 +3649,15 @@
       <c r="I50" s="6">
         <v>20476</v>
       </c>
-      <c r="J50" s="6"/>
+      <c r="J50" s="6">
+        <v>102250</v>
+      </c>
       <c r="K50" s="6">
         <f>(20.47-32.6)*1000*0.83</f>
         <v>-10067.900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
@@ -3617,12 +3687,14 @@
       <c r="I51" s="6">
         <v>34717</v>
       </c>
-      <c r="J51" s="6"/>
+      <c r="J51" s="6">
+        <v>103000</v>
+      </c>
       <c r="K51" s="6">
         <v>15655</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
@@ -3652,13 +3724,15 @@
       <c r="I52" s="6">
         <v>26672</v>
       </c>
-      <c r="J52" s="6"/>
+      <c r="J52" s="6">
+        <v>73250</v>
+      </c>
       <c r="K52" s="6">
         <f>(11.08-0.38)*830</f>
         <v>8881</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
@@ -3688,12 +3762,14 @@
       <c r="I53" s="6">
         <v>25423</v>
       </c>
-      <c r="J53" s="6"/>
+      <c r="J53" s="6">
+        <v>109850</v>
+      </c>
       <c r="K53" s="6">
         <v>-17779</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
@@ -3723,13 +3799,15 @@
       <c r="I54" s="6">
         <v>26722</v>
       </c>
-      <c r="J54" s="6"/>
+      <c r="J54" s="6">
+        <v>104050</v>
+      </c>
       <c r="K54" s="6">
         <f>(23.68-0.64)*1000*0.83</f>
         <v>19123.2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
@@ -3759,12 +3837,14 @@
       <c r="I55" s="6">
         <v>30855</v>
       </c>
-      <c r="J55" s="6"/>
+      <c r="J55" s="6">
+        <v>83050</v>
+      </c>
       <c r="K55" s="6">
         <v>34445</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>24</v>
       </c>
@@ -3794,12 +3874,14 @@
       <c r="I56" s="6">
         <v>35060</v>
       </c>
-      <c r="J56" s="6"/>
+      <c r="J56" s="6">
+        <v>110500</v>
+      </c>
       <c r="K56" s="6">
         <v>20443</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>46</v>
       </c>
@@ -3829,13 +3911,15 @@
       <c r="I57" s="6">
         <v>50517</v>
       </c>
-      <c r="J57" s="6"/>
+      <c r="J57" s="6">
+        <v>200250</v>
+      </c>
       <c r="K57" s="6">
         <f>(31.97-14.8)*1000*0.83</f>
         <v>14251.099999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>54</v>
       </c>
@@ -3865,12 +3949,14 @@
       <c r="I58" s="6">
         <v>40563</v>
       </c>
-      <c r="J58" s="6"/>
+      <c r="J58" s="6">
+        <v>133900</v>
+      </c>
       <c r="K58" s="6">
         <v>19480</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>60</v>
       </c>
@@ -3900,13 +3986,15 @@
       <c r="I59" s="6">
         <v>19359</v>
       </c>
-      <c r="J59" s="6"/>
+      <c r="J59" s="6">
+        <v>91550</v>
+      </c>
       <c r="K59" s="6">
         <f>(10.54-13.25)*830</f>
         <v>-2249.3000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>50</v>
       </c>
@@ -3936,13 +4024,15 @@
       <c r="I60" s="6">
         <v>23862</v>
       </c>
-      <c r="J60" s="6"/>
+      <c r="J60" s="6">
+        <v>46250</v>
+      </c>
       <c r="K60" s="6">
         <f>(10.82-0.9)*830</f>
         <v>8233.6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>49</v>
       </c>
@@ -3972,13 +4062,15 @@
       <c r="I61" s="6">
         <v>17779</v>
       </c>
-      <c r="J61" s="6"/>
+      <c r="J61" s="6">
+        <v>120050</v>
+      </c>
       <c r="K61" s="6">
         <f>(50.35-4.51)*830</f>
         <v>38047.200000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>43</v>
       </c>
@@ -4008,12 +4100,14 @@
       <c r="I62" s="6">
         <v>47080</v>
       </c>
-      <c r="J62" s="6"/>
+      <c r="J62" s="6">
+        <v>455800</v>
+      </c>
       <c r="K62" s="6">
         <v>86486</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>42</v>
       </c>
@@ -4043,13 +4137,15 @@
       <c r="I63" s="6">
         <v>44671</v>
       </c>
-      <c r="J63" s="6"/>
+      <c r="J63" s="6">
+        <v>315750</v>
+      </c>
       <c r="K63" s="6">
         <f>(58.1-32.5)*1000*0.83</f>
         <v>21248</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>34</v>
       </c>
@@ -4079,12 +4175,14 @@
       <c r="I64" s="6">
         <v>41482</v>
       </c>
-      <c r="J64" s="6"/>
+      <c r="J64" s="6">
+        <v>584200</v>
+      </c>
       <c r="K64" s="6">
         <v>43509</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
@@ -4114,13 +4212,15 @@
       <c r="I65" s="6">
         <v>60013</v>
       </c>
-      <c r="J65" s="6"/>
+      <c r="J65" s="6">
+        <v>385750</v>
+      </c>
       <c r="K65" s="6">
         <f>(49.25-12.15)*1000*0.83</f>
         <v>30793</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>36</v>
       </c>
@@ -4150,12 +4250,14 @@
       <c r="I66" s="6">
         <v>37732</v>
       </c>
-      <c r="J66" s="6"/>
+      <c r="J66" s="6">
+        <v>210000</v>
+      </c>
       <c r="K66" s="6">
         <v>-11869</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>56</v>
       </c>
@@ -4185,13 +4287,15 @@
       <c r="I67" s="6">
         <v>35808</v>
       </c>
-      <c r="J67" s="6"/>
+      <c r="J67" s="6">
+        <v>288950</v>
+      </c>
       <c r="K67" s="6">
         <f>(122.55-138.4)*1000*0.83</f>
         <v>-13155.500000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>44</v>
       </c>
@@ -4221,13 +4325,15 @@
       <c r="I68" s="6">
         <v>75207</v>
       </c>
-      <c r="J68" s="6"/>
+      <c r="J68" s="6">
+        <v>402550</v>
+      </c>
       <c r="K68" s="6">
         <f>(77.13-1.8)*1000*0.83</f>
         <v>62523.899999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
@@ -4257,12 +4363,14 @@
       <c r="I69" s="6">
         <v>30212</v>
       </c>
-      <c r="J69" s="6"/>
+      <c r="J69" s="6">
+        <v>131500</v>
+      </c>
       <c r="K69" s="6">
         <v>29382</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -4292,13 +4400,15 @@
       <c r="I70" s="6">
         <v>26137</v>
       </c>
-      <c r="J70" s="6"/>
+      <c r="J70" s="6">
+        <v>104700</v>
+      </c>
       <c r="K70" s="6">
         <f>7*1000*0.83</f>
         <v>5810</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>46</v>
       </c>
@@ -4328,13 +4438,15 @@
       <c r="I71" s="6">
         <v>50395</v>
       </c>
-      <c r="J71" s="6"/>
+      <c r="J71" s="6">
+        <v>172300</v>
+      </c>
       <c r="K71" s="6">
         <f>(3.8-25.87)*1000*0.83</f>
         <v>-18318.099999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>35</v>
       </c>
@@ -4364,13 +4476,15 @@
       <c r="I72" s="6">
         <v>24114</v>
       </c>
-      <c r="J72" s="6"/>
+      <c r="J72" s="6">
+        <v>68700</v>
+      </c>
       <c r="K72" s="6">
         <f>33*1000*0.83</f>
         <v>27390</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>55</v>
       </c>
@@ -4400,13 +4514,15 @@
       <c r="I73" s="6">
         <v>20407</v>
       </c>
-      <c r="J73" s="6"/>
+      <c r="J73" s="6">
+        <v>128930</v>
+      </c>
       <c r="K73" s="6">
         <f>(26.61-0)*1000*0.83</f>
         <v>22086.3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>59</v>
       </c>
@@ -4436,12 +4552,14 @@
       <c r="I74" s="6">
         <v>34197</v>
       </c>
-      <c r="J74" s="6"/>
+      <c r="J74" s="6">
+        <v>109500</v>
+      </c>
       <c r="K74" s="6">
         <v>19480</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>54</v>
       </c>
@@ -4471,12 +4589,14 @@
       <c r="I75" s="6">
         <v>41090</v>
       </c>
-      <c r="J75" s="6"/>
+      <c r="J75" s="6">
+        <v>122000</v>
+      </c>
       <c r="K75" s="6">
         <v>9570</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>24</v>
       </c>
@@ -4506,12 +4626,14 @@
       <c r="I76" s="6">
         <v>36081</v>
       </c>
-      <c r="J76" s="6"/>
+      <c r="J76" s="6">
+        <v>109500</v>
+      </c>
       <c r="K76" s="6">
         <v>9744</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>39</v>
       </c>
@@ -4541,12 +4663,14 @@
       <c r="I77" s="6">
         <v>24117</v>
       </c>
-      <c r="J77" s="6"/>
+      <c r="J77" s="6">
+        <v>68150</v>
+      </c>
       <c r="K77" s="6">
         <v>25083</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>58</v>
       </c>
@@ -4576,12 +4700,14 @@
       <c r="I78" s="6">
         <v>25194</v>
       </c>
-      <c r="J78" s="6"/>
+      <c r="J78" s="6">
+        <v>90800</v>
+      </c>
       <c r="K78" s="6">
         <v>3569</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>47</v>
       </c>
@@ -4611,13 +4737,15 @@
       <c r="I79" s="6">
         <v>26805</v>
       </c>
-      <c r="J79" s="6"/>
+      <c r="J79" s="6">
+        <v>89300</v>
+      </c>
       <c r="K79" s="6">
         <f>(30.05-4.84)*830</f>
         <v>20924.3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>37</v>
       </c>
@@ -4647,12 +4775,14 @@
       <c r="I80" s="6">
         <v>24977</v>
       </c>
-      <c r="J80" s="6"/>
+      <c r="J80" s="6">
+        <v>112650</v>
+      </c>
       <c r="K80" s="6">
         <v>20875</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>33</v>
       </c>
@@ -4682,7 +4812,9 @@
       <c r="I81" s="6">
         <v>27430</v>
       </c>
-      <c r="J81" s="6"/>
+      <c r="J81" s="6">
+        <v>87900</v>
+      </c>
       <c r="K81" s="6">
         <v>34926</v>
       </c>
@@ -4717,7 +4849,9 @@
       <c r="I82" s="6">
         <v>41546</v>
       </c>
-      <c r="J82" s="6"/>
+      <c r="J82" s="6">
+        <v>557250</v>
+      </c>
       <c r="K82" s="6">
         <v>-4241</v>
       </c>
@@ -4752,7 +4886,9 @@
       <c r="I83" s="6">
         <v>45365</v>
       </c>
-      <c r="J83" s="6"/>
+      <c r="J83" s="6">
+        <v>448250</v>
+      </c>
       <c r="K83" s="6">
         <v>60175</v>
       </c>
@@ -4787,7 +4923,9 @@
       <c r="I84" s="6">
         <v>59992</v>
       </c>
-      <c r="J84" s="6"/>
+      <c r="J84" s="6">
+        <v>414750</v>
+      </c>
       <c r="K84" s="6">
         <f>(118.98-27.8)*1000*0.83</f>
         <v>75679.399999999994</v>
@@ -4823,7 +4961,9 @@
       <c r="I85" s="6">
         <v>75335</v>
       </c>
-      <c r="J85" s="6"/>
+      <c r="J85" s="6">
+        <v>505400</v>
+      </c>
       <c r="K85" s="6">
         <f>(195.35-46.7)*1000*0.83</f>
         <v>123379.49999999997</v>
@@ -4859,7 +4999,9 @@
       <c r="I86" s="6">
         <v>35728</v>
       </c>
-      <c r="J86" s="6"/>
+      <c r="J86" s="6">
+        <v>304150</v>
+      </c>
       <c r="K86" s="6">
         <f>(48.48-44.15)*1000*0.83</f>
         <v>3593.8999999999983</v>
@@ -4895,7 +5037,9 @@
       <c r="I87" s="6">
         <v>44659</v>
       </c>
-      <c r="J87" s="6"/>
+      <c r="J87" s="6">
+        <v>324850</v>
+      </c>
       <c r="K87" s="6">
         <f>(151.43-99.27)*1000*0.83</f>
         <v>43292.800000000003</v>
@@ -4931,7 +5075,9 @@
       <c r="I88" s="6">
         <v>30652</v>
       </c>
-      <c r="J88" s="6"/>
+      <c r="J88" s="6">
+        <v>210250</v>
+      </c>
       <c r="K88" s="6">
         <v>-23099</v>
       </c>
@@ -4966,7 +5112,9 @@
       <c r="I89" s="6">
         <v>20555</v>
       </c>
-      <c r="J89" s="6"/>
+      <c r="J89" s="6">
+        <v>130750</v>
+      </c>
       <c r="K89" s="6">
         <f>(41.53-61.9)*1000*0.83</f>
         <v>-16907.099999999995</v>
@@ -5002,7 +5150,9 @@
       <c r="I90" s="6">
         <v>27081</v>
       </c>
-      <c r="J90" s="6"/>
+      <c r="J90" s="6">
+        <v>110500</v>
+      </c>
       <c r="K90" s="6">
         <f>(1.8-3.8)*1000*0.83</f>
         <v>-1659.9999999999998</v>
@@ -5038,7 +5188,9 @@
       <c r="I91" s="6">
         <v>24412</v>
       </c>
-      <c r="J91" s="6"/>
+      <c r="J91" s="6">
+        <v>97250</v>
+      </c>
       <c r="K91" s="6">
         <f>(31.22-2.87)*1000*0.83</f>
         <v>23530.499999999996</v>
@@ -5074,7 +5226,9 @@
       <c r="I92" s="6">
         <v>38406</v>
       </c>
-      <c r="J92" s="6"/>
+      <c r="J92" s="6">
+        <v>182850</v>
+      </c>
       <c r="K92" s="6">
         <v>31756</v>
       </c>
@@ -5109,7 +5263,9 @@
       <c r="I93" s="6">
         <v>34871</v>
       </c>
-      <c r="J93" s="6"/>
+      <c r="J93" s="6">
+        <v>135900</v>
+      </c>
       <c r="K93" s="6">
         <v>25523</v>
       </c>
@@ -5144,7 +5300,9 @@
       <c r="I94" s="6">
         <v>25064</v>
       </c>
-      <c r="J94" s="6"/>
+      <c r="J94" s="6">
+        <v>95950</v>
+      </c>
       <c r="K94" s="6">
         <v>18741</v>
       </c>
@@ -5179,7 +5337,9 @@
       <c r="I95" s="6">
         <v>31693</v>
       </c>
-      <c r="J95" s="6"/>
+      <c r="J95" s="6">
+        <v>66700</v>
+      </c>
       <c r="K95" s="6">
         <f>22.86*1000*0.83</f>
         <v>18973.8</v>
@@ -5215,7 +5375,9 @@
       <c r="I96" s="6">
         <v>50359</v>
       </c>
-      <c r="J96" s="6"/>
+      <c r="J96" s="6">
+        <v>140000</v>
+      </c>
       <c r="K96" s="6">
         <f>(45.02-23.87)*1000*0.83</f>
         <v>17554.500000000004</v>
@@ -5251,7 +5413,9 @@
       <c r="I97" s="6">
         <v>43171</v>
       </c>
-      <c r="J97" s="6"/>
+      <c r="J97" s="6">
+        <v>91000</v>
+      </c>
       <c r="K97" s="6">
         <v>12674</v>
       </c>
@@ -5286,7 +5450,9 @@
       <c r="I98" s="6">
         <v>34133</v>
       </c>
-      <c r="J98" s="6"/>
+      <c r="J98" s="6">
+        <v>114250</v>
+      </c>
       <c r="K98" s="6">
         <v>10068</v>
       </c>
@@ -5321,7 +5487,9 @@
       <c r="I99" s="6">
         <v>23557</v>
       </c>
-      <c r="J99" s="6"/>
+      <c r="J99" s="6">
+        <v>117100</v>
+      </c>
       <c r="K99" s="6">
         <v>24502</v>
       </c>
@@ -5356,7 +5524,9 @@
       <c r="I100" s="6">
         <v>19131</v>
       </c>
-      <c r="J100" s="6"/>
+      <c r="J100" s="6">
+        <v>52550</v>
+      </c>
       <c r="K100" s="6">
         <f>(12.62)*1000*0.83</f>
         <v>10474.6</v>
@@ -5392,7 +5562,9 @@
       <c r="I101" s="6">
         <v>17809</v>
       </c>
-      <c r="J101" s="6"/>
+      <c r="J101" s="6">
+        <v>112250</v>
+      </c>
       <c r="K101" s="6">
         <f>(43.54-26.04)*830</f>
         <v>14525</v>
@@ -5428,7 +5600,9 @@
       <c r="I102" s="6">
         <v>32021</v>
       </c>
-      <c r="J102" s="6"/>
+      <c r="J102" s="6">
+        <v>161100</v>
+      </c>
       <c r="K102" s="6">
         <f>(49-9.45)*1000*0.83</f>
         <v>32826.5</v>
@@ -5464,7 +5638,9 @@
       <c r="I103" s="6">
         <v>59944</v>
       </c>
-      <c r="J103" s="6"/>
+      <c r="J103" s="6">
+        <v>457850</v>
+      </c>
       <c r="K103" s="6">
         <f>(26.5-2.5)*1000*0.83</f>
         <v>19920</v>
@@ -5500,7 +5676,9 @@
       <c r="I104" s="6">
         <v>35776</v>
       </c>
-      <c r="J104" s="6"/>
+      <c r="J104" s="6">
+        <v>371850</v>
+      </c>
       <c r="K104" s="6">
         <f>(71-87.25)*1000*0.83</f>
         <v>-13487.5</v>
@@ -5536,7 +5714,9 @@
       <c r="I105" s="6">
         <v>54041</v>
       </c>
-      <c r="J105" s="6"/>
+      <c r="J105" s="6">
+        <v>499350</v>
+      </c>
       <c r="K105" s="6">
         <v>117055</v>
       </c>
@@ -5571,7 +5751,9 @@
       <c r="I106" s="6">
         <v>75279</v>
       </c>
-      <c r="J106" s="6"/>
+      <c r="J106" s="6">
+        <v>439850</v>
+      </c>
       <c r="K106" s="6">
         <f>(156-100.67)*1000*0.83</f>
         <v>45923.899999999994</v>
@@ -5607,7 +5789,9 @@
       <c r="I107" s="6">
         <v>30751</v>
       </c>
-      <c r="J107" s="6"/>
+      <c r="J107" s="6">
+        <v>225500</v>
+      </c>
       <c r="K107" s="6">
         <v>6142</v>
       </c>
@@ -5642,7 +5826,9 @@
       <c r="I108" s="6">
         <v>34910</v>
       </c>
-      <c r="J108" s="6"/>
+      <c r="J108" s="6">
+        <v>201330</v>
+      </c>
       <c r="K108" s="6">
         <v>28369</v>
       </c>
@@ -5677,7 +5863,9 @@
       <c r="I109" s="6">
         <v>43910</v>
       </c>
-      <c r="J109" s="6"/>
+      <c r="J109" s="6">
+        <v>375250</v>
+      </c>
       <c r="K109" s="6">
         <f>(126.5-90.55)*1000*0.83</f>
         <v>29838.5</v>
@@ -5713,7 +5901,9 @@
       <c r="I110" s="6">
         <v>27534</v>
       </c>
-      <c r="J110" s="6"/>
+      <c r="J110" s="6">
+        <v>147000</v>
+      </c>
       <c r="K110" s="6">
         <f>(53.65-23.2)*1000*0.83</f>
         <v>25273.5</v>
@@ -5749,7 +5939,9 @@
       <c r="I111" s="6">
         <v>41500</v>
       </c>
-      <c r="J111" s="6"/>
+      <c r="J111" s="6">
+        <v>553500</v>
+      </c>
       <c r="K111" s="6">
         <v>7478</v>
       </c>
@@ -5784,7 +5976,9 @@
       <c r="I112" s="6">
         <v>38124</v>
       </c>
-      <c r="J112" s="6"/>
+      <c r="J112" s="6">
+        <v>249850</v>
+      </c>
       <c r="K112" s="6">
         <v>30876</v>
       </c>
@@ -5819,7 +6013,9 @@
       <c r="I113" s="6">
         <v>20711</v>
       </c>
-      <c r="J113" s="6"/>
+      <c r="J113" s="6">
+        <v>145800</v>
+      </c>
       <c r="K113" s="6">
         <f>(21.81-16.81)*1000*0.83</f>
         <v>4150</v>
@@ -5855,7 +6051,9 @@
       <c r="I114" s="6">
         <v>20594</v>
       </c>
-      <c r="J114" s="6"/>
+      <c r="J114" s="6">
+        <v>137000</v>
+      </c>
       <c r="K114" s="6">
         <f>(82.8-9.75)*830</f>
         <v>60631.5</v>
@@ -5891,7 +6089,9 @@
       <c r="I115" s="6">
         <v>24631</v>
       </c>
-      <c r="J115" s="6"/>
+      <c r="J115" s="6">
+        <v>113100</v>
+      </c>
       <c r="K115" s="6">
         <v>24883</v>
       </c>
@@ -5926,7 +6126,9 @@
       <c r="I116" s="6">
         <v>24825</v>
       </c>
-      <c r="J116" s="6"/>
+      <c r="J116" s="6">
+        <v>135700</v>
+      </c>
       <c r="K116" s="6">
         <f>(28.8-5.4)*1000*0.83</f>
         <v>19422</v>
@@ -5962,7 +6164,9 @@
       <c r="I117" s="6">
         <v>11189</v>
       </c>
-      <c r="J117" s="6"/>
+      <c r="J117" s="6">
+        <v>99900</v>
+      </c>
       <c r="K117" s="6">
         <v>45202</v>
       </c>
@@ -5997,7 +6201,9 @@
       <c r="I118" s="6">
         <v>43071</v>
       </c>
-      <c r="J118" s="6"/>
+      <c r="J118" s="6">
+        <v>111250</v>
+      </c>
       <c r="K118" s="6">
         <v>45692</v>
       </c>
@@ -6032,7 +6238,9 @@
       <c r="I119" s="6">
         <v>49754</v>
       </c>
-      <c r="J119" s="6"/>
+      <c r="J119" s="6">
+        <v>198000</v>
+      </c>
       <c r="K119" s="6">
         <f>(107.91-5.43)*1000*0.83</f>
         <v>85058.39999999998</v>
@@ -6068,7 +6276,9 @@
       <c r="I120" s="6">
         <v>26972</v>
       </c>
-      <c r="J120" s="6"/>
+      <c r="J120" s="6">
+        <v>116900</v>
+      </c>
       <c r="K120" s="6">
         <f>(50.5-21.5)*830</f>
         <v>24070</v>
@@ -6104,7 +6314,9 @@
       <c r="I121" s="6">
         <v>33690</v>
       </c>
-      <c r="J121" s="6"/>
+      <c r="J121" s="6">
+        <v>117950</v>
+      </c>
       <c r="K121" s="6">
         <v>1536</v>
       </c>
@@ -6139,7 +6351,9 @@
       <c r="I122" s="6">
         <v>41508</v>
       </c>
-      <c r="J122" s="6"/>
+      <c r="J122" s="6">
+        <v>686700</v>
+      </c>
       <c r="K122" s="6">
         <v>19837</v>
       </c>
@@ -6174,7 +6388,9 @@
       <c r="I123" s="6">
         <v>31639</v>
       </c>
-      <c r="J123" s="6"/>
+      <c r="J123" s="6">
+        <v>543650</v>
+      </c>
       <c r="K123" s="6">
         <f>(83.5-52.3)*1000*0.83</f>
         <v>25896</v>
@@ -6210,7 +6426,9 @@
       <c r="I124" s="6">
         <v>54019</v>
       </c>
-      <c r="J124" s="6"/>
+      <c r="J124" s="6">
+        <v>576500</v>
+      </c>
       <c r="K124" s="6">
         <v>150147</v>
       </c>
@@ -6245,7 +6463,9 @@
       <c r="I125" s="6">
         <v>53016</v>
       </c>
-      <c r="J125" s="6"/>
+      <c r="J125" s="6">
+        <v>425650</v>
+      </c>
       <c r="K125" s="6">
         <f>(79.9-88.98)*1000*0.83</f>
         <v>-7536.3999999999978</v>
@@ -6281,7 +6501,9 @@
       <c r="I126" s="6">
         <v>59957</v>
       </c>
-      <c r="J126" s="6"/>
+      <c r="J126" s="6">
+        <v>542000</v>
+      </c>
       <c r="K126" s="6">
         <f>(113-10.35)*0.83*1000</f>
         <v>85199.5</v>
@@ -6317,7 +6539,9 @@
       <c r="I127" s="6">
         <v>75290</v>
       </c>
-      <c r="J127" s="6"/>
+      <c r="J127" s="6">
+        <v>531450</v>
+      </c>
       <c r="K127" s="6">
         <f>(185-47.25)*1000*0.83</f>
         <v>114332.5</v>
@@ -6353,7 +6577,9 @@
       <c r="I128" s="6">
         <v>39080</v>
       </c>
-      <c r="J128" s="6"/>
+      <c r="J128" s="6">
+        <v>311250</v>
+      </c>
       <c r="K128" s="6">
         <v>20916</v>
       </c>
@@ -6388,7 +6614,9 @@
       <c r="I129" s="6">
         <v>30936</v>
       </c>
-      <c r="J129" s="6"/>
+      <c r="J129" s="6">
+        <v>263750</v>
+      </c>
       <c r="K129" s="6">
         <v>-13405</v>
       </c>
@@ -6423,7 +6651,9 @@
       <c r="I130" s="6">
         <v>11182</v>
       </c>
-      <c r="J130" s="6"/>
+      <c r="J130" s="6">
+        <v>131600</v>
+      </c>
       <c r="K130" s="6">
         <v>14110</v>
       </c>
@@ -6458,7 +6688,9 @@
       <c r="I131" s="6">
         <v>23876</v>
       </c>
-      <c r="J131" s="6"/>
+      <c r="J131" s="6">
+        <v>123200</v>
+      </c>
       <c r="K131" s="6">
         <v>9064</v>
       </c>
@@ -6493,7 +6725,9 @@
       <c r="I132" s="6">
         <v>56972</v>
       </c>
-      <c r="J132" s="6"/>
+      <c r="J132" s="6">
+        <v>273050</v>
+      </c>
       <c r="K132" s="6">
         <v>35275</v>
       </c>
@@ -6528,7 +6762,9 @@
       <c r="I133" s="6">
         <v>31893</v>
       </c>
-      <c r="J133" s="6"/>
+      <c r="J133" s="6">
+        <v>218650</v>
+      </c>
       <c r="K133" s="6">
         <f>(92.1-66.05)*1000*0.83</f>
         <v>21621.499999999996</v>
@@ -6564,7 +6800,9 @@
       <c r="I134" s="6">
         <v>27433</v>
       </c>
-      <c r="J134" s="6"/>
+      <c r="J134" s="6">
+        <v>186000</v>
+      </c>
       <c r="K134" s="6">
         <f>(42.17-3.8)*1000*0.83</f>
         <v>31847.100000000006</v>
@@ -6600,7 +6838,9 @@
       <c r="I135" s="6">
         <v>25161</v>
       </c>
-      <c r="J135" s="6"/>
+      <c r="J135" s="6">
+        <v>228430</v>
+      </c>
       <c r="K135" s="6">
         <f>(101.2-50.2)*1000*0.83</f>
         <v>42330</v>
@@ -6636,7 +6876,9 @@
       <c r="I136" s="6">
         <v>20619</v>
       </c>
-      <c r="J136" s="6"/>
+      <c r="J136" s="6">
+        <v>157100</v>
+      </c>
       <c r="K136" s="6">
         <f>(58.1-49.3)*1000*0.83</f>
         <v>7304.0000000000027</v>
@@ -6672,7 +6914,9 @@
       <c r="I137" s="6">
         <v>20558</v>
       </c>
-      <c r="J137" s="6"/>
+      <c r="J137" s="6">
+        <v>107180</v>
+      </c>
       <c r="K137" s="6">
         <f>(45.6-1.2)*1000*0.83</f>
         <v>36852</v>
@@ -6708,7 +6952,9 @@
       <c r="I138" s="6">
         <v>20571</v>
       </c>
-      <c r="J138" s="6"/>
+      <c r="J138" s="6">
+        <v>175650</v>
+      </c>
       <c r="K138" s="6">
         <f>(70.45-58.1)*830</f>
         <v>10250.500000000002</v>
@@ -6744,7 +6990,9 @@
       <c r="I139" s="6">
         <v>20656</v>
       </c>
-      <c r="J139" s="6"/>
+      <c r="J139" s="6">
+        <v>135850</v>
+      </c>
       <c r="K139" s="6">
         <v>9213</v>
       </c>
@@ -6779,7 +7027,9 @@
       <c r="I140" s="6">
         <v>30449</v>
       </c>
-      <c r="J140" s="6"/>
+      <c r="J140" s="6">
+        <v>128800</v>
+      </c>
       <c r="K140" s="6">
         <f>(47.95-13.5)*830</f>
         <v>28593.500000000004</v>
@@ -6815,7 +7065,9 @@
       <c r="I141" s="6">
         <v>41287</v>
       </c>
-      <c r="J141" s="6"/>
+      <c r="J141" s="6">
+        <v>132000</v>
+      </c>
       <c r="K141" s="6">
         <v>15048</v>
       </c>
@@ -6850,7 +7102,9 @@
       <c r="I142" s="6">
         <v>53812</v>
       </c>
-      <c r="J142" s="6"/>
+      <c r="J142" s="6">
+        <v>1010000</v>
+      </c>
       <c r="K142" s="6">
         <v>187705</v>
       </c>
@@ -6885,7 +7139,9 @@
       <c r="I143" s="6">
         <v>74976</v>
       </c>
-      <c r="J143" s="6"/>
+      <c r="J143" s="6">
+        <v>849500</v>
+      </c>
       <c r="K143" s="6">
         <f>(198.4-45.5)*1000*0.83</f>
         <v>126907</v>
@@ -6921,7 +7177,9 @@
       <c r="I144" s="6">
         <v>67496</v>
       </c>
-      <c r="J144" s="6"/>
+      <c r="J144" s="6">
+        <v>829600</v>
+      </c>
       <c r="K144" s="6">
         <f>(121-103.8)*1000*0.83</f>
         <v>14276.000000000002</v>
@@ -6957,7 +7215,9 @@
       <c r="I145" s="6">
         <v>53049</v>
       </c>
-      <c r="J145" s="6"/>
+      <c r="J145" s="6">
+        <v>857500</v>
+      </c>
       <c r="K145" s="6">
         <f>(173.65-184.5)*1000*0.83</f>
         <v>-9005.4999999999945</v>
@@ -6993,7 +7253,9 @@
       <c r="I146" s="6">
         <v>41282</v>
       </c>
-      <c r="J146" s="6"/>
+      <c r="J146" s="6">
+        <v>884250</v>
+      </c>
       <c r="K146" s="6">
         <v>54697</v>
       </c>
@@ -7028,7 +7290,9 @@
       <c r="I147" s="6">
         <v>59323</v>
       </c>
-      <c r="J147" s="6"/>
+      <c r="J147" s="6">
+        <v>694000</v>
+      </c>
       <c r="K147" s="6">
         <f>(152.85-162.4)*0.83*1000</f>
         <v>-7926.5000000000091</v>
@@ -7064,7 +7328,9 @@
       <c r="I148" s="6">
         <v>20688</v>
       </c>
-      <c r="J148" s="6"/>
+      <c r="J148" s="6">
+        <v>169300</v>
+      </c>
       <c r="K148" s="6">
         <f>(35.74-50)*1000*0.83</f>
         <v>-11835.799999999997</v>
@@ -7100,7 +7366,9 @@
       <c r="I149" s="6">
         <v>38797</v>
       </c>
-      <c r="J149" s="6"/>
+      <c r="J149" s="6">
+        <v>381250</v>
+      </c>
       <c r="K149" s="6">
         <v>63761</v>
       </c>
@@ -7135,7 +7403,9 @@
       <c r="I150" s="6">
         <v>31583</v>
       </c>
-      <c r="J150" s="6"/>
+      <c r="J150" s="6">
+        <v>304250</v>
+      </c>
       <c r="K150" s="6">
         <f>(83.85-50.1)*1000*0.83</f>
         <v>28012.499999999993</v>
@@ -7171,7 +7441,9 @@
       <c r="I151" s="6">
         <v>51992</v>
       </c>
-      <c r="J151" s="6"/>
+      <c r="J151" s="6">
+        <v>208280</v>
+      </c>
       <c r="K151" s="6">
         <f>(46.5-21.22)*1000*0.83</f>
         <v>20982.399999999998</v>
@@ -7207,7 +7479,9 @@
       <c r="I152" s="6">
         <v>25065</v>
       </c>
-      <c r="J152" s="6"/>
+      <c r="J152" s="6">
+        <v>220730</v>
+      </c>
       <c r="K152" s="6">
         <f>(55.95-3)*1000*0.83</f>
         <v>43948.5</v>
@@ -7243,7 +7517,9 @@
       <c r="I153" s="6">
         <v>10640</v>
       </c>
-      <c r="J153" s="6"/>
+      <c r="J153" s="6">
+        <v>144500</v>
+      </c>
       <c r="K153" s="6">
         <v>28469</v>
       </c>
@@ -7278,7 +7554,9 @@
       <c r="I154" s="6">
         <v>56885</v>
       </c>
-      <c r="J154" s="6"/>
+      <c r="J154" s="6">
+        <v>260600</v>
+      </c>
       <c r="K154" s="6">
         <v>-5993</v>
       </c>
@@ -7313,7 +7591,9 @@
       <c r="I155" s="6">
         <v>20231</v>
       </c>
-      <c r="J155" s="6"/>
+      <c r="J155" s="6">
+        <v>196000</v>
+      </c>
       <c r="K155" s="6">
         <f>(73.4-18.74)*830</f>
         <v>45367.80000000001</v>
@@ -7349,7 +7629,9 @@
       <c r="I156" s="6">
         <v>30402</v>
       </c>
-      <c r="J156" s="6"/>
+      <c r="J156" s="6">
+        <v>148200</v>
+      </c>
       <c r="K156" s="6">
         <v>57768</v>
       </c>
@@ -7384,7 +7666,9 @@
       <c r="I157" s="6">
         <v>24042</v>
       </c>
-      <c r="J157" s="6"/>
+      <c r="J157" s="6">
+        <v>106050</v>
+      </c>
       <c r="K157" s="6">
         <v>41741</v>
       </c>
@@ -7419,7 +7703,9 @@
       <c r="I158" s="6">
         <v>30794</v>
       </c>
-      <c r="J158" s="6"/>
+      <c r="J158" s="6">
+        <v>297000</v>
+      </c>
       <c r="K158" s="6">
         <v>-30793</v>
       </c>
@@ -7454,7 +7740,9 @@
       <c r="I159" s="6">
         <v>20622</v>
       </c>
-      <c r="J159" s="6"/>
+      <c r="J159" s="6">
+        <v>165490</v>
+      </c>
       <c r="K159" s="6">
         <f>(73.39-81.1)*1000*0.83</f>
         <v>-6399.2999999999947</v>
@@ -7490,7 +7778,9 @@
       <c r="I160" s="6">
         <v>29280</v>
       </c>
-      <c r="J160" s="6"/>
+      <c r="J160" s="6">
+        <v>192450</v>
+      </c>
       <c r="K160" s="6">
         <f>(57.7-35.14)*1000*0.83</f>
         <v>18724.800000000003</v>
@@ -7526,7 +7816,9 @@
       <c r="I161" s="6">
         <v>24520</v>
       </c>
-      <c r="J161" s="6"/>
+      <c r="J161" s="6">
+        <v>165950</v>
+      </c>
       <c r="K161" s="6">
         <v>42704</v>
       </c>
@@ -7561,7 +7853,9 @@
       <c r="I162" s="6">
         <v>54130</v>
       </c>
-      <c r="J162" s="6"/>
+      <c r="J162" s="6">
+        <v>1200000</v>
+      </c>
       <c r="K162" s="6">
         <v>17422</v>
       </c>
@@ -7596,7 +7890,9 @@
       <c r="I163" s="6">
         <v>52983</v>
       </c>
-      <c r="J163" s="6"/>
+      <c r="J163" s="6">
+        <v>1170000</v>
+      </c>
       <c r="K163" s="6">
         <f>(182.2-41.32)*1000*0.83</f>
         <v>116930.4</v>
@@ -7632,7 +7928,9 @@
       <c r="I164" s="6">
         <v>40441</v>
       </c>
-      <c r="J164" s="6"/>
+      <c r="J164" s="6">
+        <v>1170000</v>
+      </c>
       <c r="K164" s="6">
         <v>104207</v>
       </c>
@@ -7667,7 +7965,9 @@
       <c r="I165" s="6">
         <v>54216</v>
       </c>
-      <c r="J165" s="6"/>
+      <c r="J165" s="6">
+        <v>898600</v>
+      </c>
       <c r="K165" s="6">
         <f>(-5.35)*1000*0.83</f>
         <v>-4440.5</v>
@@ -7703,7 +8003,9 @@
       <c r="I166" s="6">
         <v>59899</v>
       </c>
-      <c r="J166" s="6"/>
+      <c r="J166" s="6">
+        <v>659050</v>
+      </c>
       <c r="K166" s="6">
         <f>(80.15-9.1)*0.83*1000</f>
         <v>58971.500000000007</v>
@@ -7739,7 +8041,9 @@
       <c r="I167" s="6">
         <v>74498</v>
       </c>
-      <c r="J167" s="6"/>
+      <c r="J167" s="6">
+        <v>797600</v>
+      </c>
       <c r="K167" s="6">
         <f>(82.7-30.55)*1000*0.83</f>
         <v>43284.500000000007</v>
@@ -7775,7 +8079,9 @@
       <c r="I168" s="6">
         <v>31025</v>
       </c>
-      <c r="J168" s="6"/>
+      <c r="J168" s="6">
+        <v>302900</v>
+      </c>
       <c r="K168" s="6">
         <v>78186</v>
       </c>
@@ -7810,7 +8116,9 @@
       <c r="I169" s="6">
         <v>39043</v>
       </c>
-      <c r="J169" s="6"/>
+      <c r="J169" s="6">
+        <v>529100</v>
+      </c>
       <c r="K169" s="6">
         <v>59055</v>
       </c>
@@ -7845,7 +8153,9 @@
       <c r="I170" s="6">
         <v>31851</v>
       </c>
-      <c r="J170" s="6"/>
+      <c r="J170" s="6">
+        <v>434100</v>
+      </c>
       <c r="K170" s="6">
         <f>(114.6-95.8)*1000*0.83</f>
         <v>15603.999999999996</v>
@@ -7881,7 +8191,9 @@
       <c r="I171" s="6">
         <v>58336</v>
       </c>
-      <c r="J171" s="6"/>
+      <c r="J171" s="6">
+        <v>359000</v>
+      </c>
       <c r="K171" s="6">
         <v>72318</v>
       </c>
@@ -7916,7 +8228,9 @@
       <c r="I172" s="6">
         <v>20016</v>
       </c>
-      <c r="J172" s="6"/>
+      <c r="J172" s="6">
+        <v>239100</v>
+      </c>
       <c r="K172" s="6">
         <f>(30.1-51.84)*830</f>
         <v>-18044.2</v>
@@ -7952,7 +8266,9 @@
       <c r="I173" s="6">
         <v>25455</v>
       </c>
-      <c r="J173" s="6"/>
+      <c r="J173" s="6">
+        <v>289000</v>
+      </c>
       <c r="K173" s="6">
         <f>(11.85-0.35)*1000*0.83</f>
         <v>9545</v>
@@ -7988,7 +8304,9 @@
       <c r="I174" s="6">
         <v>51121</v>
       </c>
-      <c r="J174" s="6"/>
+      <c r="J174" s="6">
+        <v>244650</v>
+      </c>
       <c r="K174" s="6">
         <f>(59.75-51.05)*1000*0.83</f>
         <v>7221.0000000000027</v>
@@ -8024,7 +8342,9 @@
       <c r="I175" s="6">
         <v>10532</v>
       </c>
-      <c r="J175" s="6"/>
+      <c r="J175" s="6">
+        <v>310000</v>
+      </c>
       <c r="K175" s="6">
         <v>59262</v>
       </c>
@@ -8059,7 +8379,9 @@
       <c r="I176" s="6">
         <v>20534</v>
       </c>
-      <c r="J176" s="6"/>
+      <c r="J176" s="6">
+        <v>197250</v>
+      </c>
       <c r="K176" s="6">
         <f>(33-8)*1000*0.83</f>
         <v>20750</v>
@@ -8095,7 +8417,9 @@
       <c r="I177" s="6">
         <v>30139</v>
       </c>
-      <c r="J177" s="6"/>
+      <c r="J177" s="6">
+        <v>305400</v>
+      </c>
       <c r="K177" s="6">
         <v>30005</v>
       </c>
@@ -8130,7 +8454,9 @@
       <c r="I178" s="6">
         <v>30426</v>
       </c>
-      <c r="J178" s="6"/>
+      <c r="J178" s="6">
+        <v>194350</v>
+      </c>
       <c r="K178" s="6">
         <v>63910</v>
       </c>
@@ -8165,7 +8491,9 @@
       <c r="I179" s="6">
         <v>31408</v>
       </c>
-      <c r="J179" s="6"/>
+      <c r="J179" s="6">
+        <v>113000</v>
+      </c>
       <c r="K179" s="6">
         <v>42496</v>
       </c>
@@ -8200,7 +8528,9 @@
       <c r="I180" s="6">
         <v>24371</v>
       </c>
-      <c r="J180" s="6"/>
+      <c r="J180" s="6">
+        <v>254250</v>
+      </c>
       <c r="K180" s="6">
         <v>92255</v>
       </c>
@@ -8235,7 +8565,9 @@
       <c r="I181" s="6">
         <v>23340</v>
       </c>
-      <c r="J181" s="6"/>
+      <c r="J181" s="6">
+        <v>137450</v>
+      </c>
       <c r="K181" s="6">
         <v>31847</v>
       </c>
@@ -8270,7 +8602,9 @@
       <c r="I182" s="6">
         <v>53143</v>
       </c>
-      <c r="J182" s="6"/>
+      <c r="J182" s="6">
+        <v>1000000</v>
+      </c>
       <c r="K182" s="6">
         <f>(10.4-48)*1000*0.83</f>
         <v>-31208</v>
@@ -8306,7 +8640,9 @@
       <c r="I183" s="6">
         <v>54219</v>
       </c>
-      <c r="J183" s="6"/>
+      <c r="J183" s="6">
+        <v>1050000</v>
+      </c>
       <c r="K183" s="6">
         <v>82021</v>
       </c>
@@ -8341,7 +8677,9 @@
       <c r="I184" s="6">
         <v>72710</v>
       </c>
-      <c r="J184" s="6"/>
+      <c r="J184" s="6">
+        <v>670450</v>
+      </c>
       <c r="K184" s="6">
         <f>(236.8-81.18)*1000*0.83</f>
         <v>129164.59999999999</v>
@@ -8377,7 +8715,9 @@
       <c r="I185" s="6">
         <v>40563</v>
       </c>
-      <c r="J185" s="6"/>
+      <c r="J185" s="6">
+        <v>705850</v>
+      </c>
       <c r="K185" s="6">
         <v>-97998</v>
       </c>
@@ -8412,7 +8752,9 @@
       <c r="I186" s="6">
         <v>32061</v>
       </c>
-      <c r="J186" s="6"/>
+      <c r="J186" s="6">
+        <v>411100</v>
+      </c>
       <c r="K186" s="6">
         <f>(104.3-88.5)*1000*0.83</f>
         <v>13113.999999999996</v>
@@ -8448,7 +8790,9 @@
       <c r="I187" s="6">
         <v>59384</v>
       </c>
-      <c r="J187" s="6"/>
+      <c r="J187" s="6">
+        <v>806800</v>
+      </c>
       <c r="K187" s="6">
         <f>(150.5-64.5)*1000*0.83</f>
         <v>71380</v>
@@ -8484,7 +8828,9 @@
       <c r="I188" s="6">
         <v>31360</v>
       </c>
-      <c r="J188" s="6"/>
+      <c r="J188" s="6">
+        <v>320330</v>
+      </c>
       <c r="K188" s="6">
         <v>76858</v>
       </c>
@@ -8519,7 +8865,9 @@
       <c r="I189" s="6">
         <v>60279</v>
       </c>
-      <c r="J189" s="6"/>
+      <c r="J189" s="6">
+        <v>607650</v>
+      </c>
       <c r="K189" s="6">
         <f>(160.8-53.65)*0.83*1000</f>
         <v>88934.5</v>
@@ -8555,7 +8903,9 @@
       <c r="I190" s="6">
         <v>30905</v>
       </c>
-      <c r="J190" s="6"/>
+      <c r="J190" s="6">
+        <v>138600</v>
+      </c>
       <c r="K190" s="6">
         <f>(72.5-0.35)*830</f>
         <v>59884.500000000007</v>
@@ -8591,7 +8941,9 @@
       <c r="I191" s="6">
         <v>20260</v>
       </c>
-      <c r="J191" s="6"/>
+      <c r="J191" s="6">
+        <v>163880</v>
+      </c>
       <c r="K191" s="6">
         <f>(23.85-13.55)*1000*0.83</f>
         <v>8549</v>
@@ -8627,7 +8979,9 @@
       <c r="I192" s="6">
         <v>29675</v>
       </c>
-      <c r="J192" s="6"/>
+      <c r="J192" s="6">
+        <v>210750</v>
+      </c>
       <c r="K192" s="6">
         <v>28386</v>
       </c>
@@ -8662,7 +9016,9 @@
       <c r="I193" s="6">
         <v>39150</v>
       </c>
-      <c r="J193" s="6"/>
+      <c r="J193" s="6">
+        <v>420550</v>
+      </c>
       <c r="K193" s="6">
         <v>27556</v>
       </c>
@@ -8697,7 +9053,9 @@
       <c r="I194" s="6">
         <v>48248</v>
       </c>
-      <c r="J194" s="6"/>
+      <c r="J194" s="6">
+        <v>252480</v>
+      </c>
       <c r="K194" s="6">
         <f>(72.4-35.64)*1000*0.83</f>
         <v>30510.800000000003</v>
@@ -8733,7 +9091,9 @@
       <c r="I195" s="6">
         <v>25060</v>
       </c>
-      <c r="J195" s="6"/>
+      <c r="J195" s="6">
+        <v>189330</v>
+      </c>
       <c r="K195" s="6">
         <f>(7.6-55.38)*1000*0.83</f>
         <v>-39657.4</v>
@@ -8769,7 +9129,9 @@
       <c r="I196" s="6">
         <v>30356</v>
       </c>
-      <c r="J196" s="6"/>
+      <c r="J196" s="6">
+        <v>200780</v>
+      </c>
       <c r="K196" s="6">
         <v>44189</v>
       </c>
@@ -8804,7 +9166,9 @@
       <c r="I197" s="6">
         <v>59925</v>
       </c>
-      <c r="J197" s="6"/>
+      <c r="J197" s="6">
+        <v>303600</v>
+      </c>
       <c r="K197" s="6">
         <v>53178</v>
       </c>
@@ -8839,7 +9203,9 @@
       <c r="I198" s="6">
         <v>41661</v>
       </c>
-      <c r="J198" s="6"/>
+      <c r="J198" s="6">
+        <v>231700</v>
+      </c>
       <c r="K198" s="6">
         <v>129895</v>
       </c>
@@ -8874,7 +9240,9 @@
       <c r="I199" s="6">
         <v>10510</v>
       </c>
-      <c r="J199" s="6"/>
+      <c r="J199" s="6">
+        <v>272180</v>
+      </c>
       <c r="K199" s="6">
         <v>16832</v>
       </c>
@@ -8909,7 +9277,9 @@
       <c r="I200" s="6">
         <v>20837</v>
       </c>
-      <c r="J200" s="6"/>
+      <c r="J200" s="6">
+        <v>199600</v>
+      </c>
       <c r="K200" s="6">
         <f>(56-25.4)*830</f>
         <v>25398</v>
@@ -8945,7 +9315,9 @@
       <c r="I201" s="6">
         <v>27022</v>
       </c>
-      <c r="J201" s="6"/>
+      <c r="J201" s="6">
+        <v>145330</v>
+      </c>
       <c r="K201" s="6">
         <f>(8.82-2.2)*830</f>
         <v>5494.6</v>
@@ -8981,7 +9353,9 @@
       <c r="I202" s="6">
         <v>10000</v>
       </c>
-      <c r="J202" s="6"/>
+      <c r="J202" s="6">
+        <v>1040000</v>
+      </c>
       <c r="K202" s="6">
         <v>90802</v>
       </c>
@@ -9016,7 +9390,9 @@
       <c r="I203" s="6">
         <v>10000</v>
       </c>
-      <c r="J203" s="6"/>
+      <c r="J203" s="6">
+        <v>770050</v>
+      </c>
       <c r="K203" s="6">
         <f>(83.95-19.5)*1000*0.83</f>
         <v>53493.5</v>
@@ -9052,7 +9428,9 @@
       <c r="I204" s="6">
         <v>4000</v>
       </c>
-      <c r="J204" s="6"/>
+      <c r="J204" s="6">
+        <v>969650</v>
+      </c>
       <c r="K204" s="6">
         <f>(84.8-17.2)*1000*0.83</f>
         <v>56108</v>
@@ -9088,7 +9466,9 @@
       <c r="I205" s="6">
         <v>4598</v>
       </c>
-      <c r="J205" s="6"/>
+      <c r="J205" s="6">
+        <v>889200</v>
+      </c>
       <c r="K205" s="6">
         <v>157742</v>
       </c>
@@ -9123,7 +9503,9 @@
       <c r="I206" s="6">
         <v>8000</v>
       </c>
-      <c r="J206" s="6"/>
+      <c r="J206" s="6">
+        <v>510600</v>
+      </c>
       <c r="K206" s="6">
         <f>(59.4-53.77)*1000*0.83</f>
         <v>4672.899999999996</v>
@@ -9159,7 +9541,9 @@
       <c r="I207" s="6">
         <v>6000</v>
       </c>
-      <c r="J207" s="6"/>
+      <c r="J207" s="6">
+        <v>334900</v>
+      </c>
       <c r="K207" s="6">
         <v>7711</v>
       </c>
@@ -9194,7 +9578,9 @@
       <c r="I208" s="6">
         <v>6000</v>
       </c>
-      <c r="J208" s="6"/>
+      <c r="J208" s="6">
+        <v>703500</v>
+      </c>
       <c r="K208" s="6">
         <f>(110.5-13.3)*1000*0.83</f>
         <v>80676</v>
@@ -9230,7 +9616,9 @@
       <c r="I209" s="6">
         <v>10000</v>
       </c>
-      <c r="J209" s="6"/>
+      <c r="J209" s="6">
+        <v>619250</v>
+      </c>
       <c r="K209" s="6">
         <f>(86-19.15)*1000*0.83</f>
         <v>55485.5</v>
@@ -9266,7 +9654,9 @@
       <c r="I210" s="6">
         <v>8000</v>
       </c>
-      <c r="J210" s="6"/>
+      <c r="J210" s="6">
+        <v>238100</v>
+      </c>
       <c r="K210" s="6">
         <f>127.8*830</f>
         <v>106074</v>
@@ -9302,7 +9692,9 @@
       <c r="I211" s="6">
         <v>3356</v>
       </c>
-      <c r="J211" s="6"/>
+      <c r="J211" s="6">
+        <v>511200</v>
+      </c>
       <c r="K211" s="6">
         <v>58050</v>
       </c>
@@ -9335,7 +9727,9 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="6"/>
+      <c r="J212" s="6">
+        <v>430700</v>
+      </c>
       <c r="K212" s="6">
         <v>81821</v>
       </c>
@@ -9370,7 +9764,9 @@
       <c r="I213" s="6">
         <v>10000</v>
       </c>
-      <c r="J213" s="6"/>
+      <c r="J213" s="6">
+        <v>255350</v>
+      </c>
       <c r="K213" s="6">
         <f>(38.75-0.78)*1000*0.83</f>
         <v>31515.1</v>
@@ -9404,7 +9800,9 @@
         <v>1.368421052631579</v>
       </c>
       <c r="I214" s="6"/>
-      <c r="J214" s="6"/>
+      <c r="J214" s="6">
+        <v>450300</v>
+      </c>
       <c r="K214" s="6">
         <v>6964</v>
       </c>
@@ -9439,7 +9837,9 @@
       <c r="I215" s="6">
         <v>4250</v>
       </c>
-      <c r="J215" s="6"/>
+      <c r="J215" s="6">
+        <v>193850</v>
+      </c>
       <c r="K215" s="6">
         <f>(22.4-20)*1000*0.83</f>
         <v>1991.9999999999989</v>
@@ -9475,7 +9875,9 @@
       <c r="I216" s="6">
         <v>2000</v>
       </c>
-      <c r="J216" s="6"/>
+      <c r="J216" s="6">
+        <v>282800</v>
+      </c>
       <c r="K216" s="6">
         <v>9130</v>
       </c>
@@ -9510,7 +9912,9 @@
       <c r="I217" s="6">
         <v>3982</v>
       </c>
-      <c r="J217" s="6"/>
+      <c r="J217" s="6">
+        <v>290400</v>
+      </c>
       <c r="K217" s="6">
         <v>24485</v>
       </c>
@@ -9545,7 +9949,9 @@
       <c r="I218" s="6">
         <v>3500</v>
       </c>
-      <c r="J218" s="6"/>
+      <c r="J218" s="6">
+        <v>132300</v>
+      </c>
       <c r="K218" s="6">
         <f>(1.1-2.3)*1000*0.83</f>
         <v>-995.99999999999977</v>
@@ -9581,7 +9987,9 @@
       <c r="I219" s="6">
         <v>2000</v>
       </c>
-      <c r="J219" s="6"/>
+      <c r="J219" s="6">
+        <v>239750</v>
+      </c>
       <c r="K219" s="6">
         <v>30918</v>
       </c>
@@ -9616,7 +10024,9 @@
       <c r="I220" s="6">
         <v>5371</v>
       </c>
-      <c r="J220" s="6"/>
+      <c r="J220" s="6">
+        <v>141150</v>
+      </c>
       <c r="K220" s="6">
         <v>28253</v>
       </c>
@@ -9651,7 +10061,9 @@
       <c r="I221" s="6">
         <v>5096</v>
       </c>
-      <c r="J221" s="6"/>
+      <c r="J221" s="6">
+        <v>149850</v>
+      </c>
       <c r="K221" s="6">
         <f>62.7*830</f>
         <v>52041</v>
@@ -9687,7 +10099,9 @@
       <c r="I222" s="6">
         <v>52738</v>
       </c>
-      <c r="J222" s="6"/>
+      <c r="J222" s="6">
+        <v>1000000</v>
+      </c>
       <c r="K222" s="6">
         <v>37433</v>
       </c>
@@ -9722,7 +10136,9 @@
       <c r="I223" s="6">
         <v>53008</v>
       </c>
-      <c r="J223" s="6"/>
+      <c r="J223" s="6">
+        <v>918900</v>
+      </c>
       <c r="K223" s="6">
         <f>(93-31.65)*1000*0.83</f>
         <v>50920.5</v>
@@ -9758,7 +10174,9 @@
       <c r="I224" s="6">
         <v>36443</v>
       </c>
-      <c r="J224" s="6"/>
+      <c r="J224" s="6">
+        <v>914500</v>
+      </c>
       <c r="K224" s="6">
         <v>-31200</v>
       </c>
@@ -9793,7 +10211,9 @@
       <c r="I225" s="6">
         <v>56523</v>
       </c>
-      <c r="J225" s="6"/>
+      <c r="J225" s="6">
+        <v>689350</v>
+      </c>
       <c r="K225" s="6">
         <f>(95.9-34.62)*1000*0.83</f>
         <v>50862.400000000001</v>
@@ -9829,7 +10249,9 @@
       <c r="I226" s="6">
         <v>59811</v>
       </c>
-      <c r="J226" s="6"/>
+      <c r="J226" s="6">
+        <v>613050</v>
+      </c>
       <c r="K226" s="6">
         <f>(167.4-31.4)*1000*0.83</f>
         <v>112880</v>
@@ -9865,7 +10287,9 @@
       <c r="I227" s="6">
         <v>73150</v>
       </c>
-      <c r="J227" s="6"/>
+      <c r="J227" s="6">
+        <v>769150</v>
+      </c>
       <c r="K227" s="6">
         <f>(142-31.1)*1000*0.83</f>
         <v>92047</v>
@@ -9901,7 +10325,9 @@
       <c r="I228" s="6">
         <v>58569</v>
       </c>
-      <c r="J228" s="6"/>
+      <c r="J228" s="6">
+        <v>354900</v>
+      </c>
       <c r="K228" s="6">
         <v>58316</v>
       </c>
@@ -9936,7 +10362,9 @@
       <c r="I229" s="6">
         <v>31940</v>
       </c>
-      <c r="J229" s="6"/>
+      <c r="J229" s="6">
+        <v>526550</v>
+      </c>
       <c r="K229" s="6">
         <f>(67.6-4)*1000*0.83</f>
         <v>52787.999999999993</v>
@@ -9972,7 +10400,9 @@
       <c r="I230" s="6">
         <v>30943</v>
       </c>
-      <c r="J230" s="6"/>
+      <c r="J230" s="6">
+        <v>318000</v>
+      </c>
       <c r="K230" s="6">
         <v>-3154</v>
       </c>
@@ -10007,7 +10437,9 @@
       <c r="I231" s="6">
         <v>30692</v>
       </c>
-      <c r="J231" s="6"/>
+      <c r="J231" s="6">
+        <v>376950</v>
+      </c>
       <c r="K231" s="6">
         <v>4814</v>
       </c>
@@ -10042,7 +10474,9 @@
       <c r="I232" s="6">
         <v>51487</v>
       </c>
-      <c r="J232" s="6"/>
+      <c r="J232" s="6">
+        <v>313900</v>
+      </c>
       <c r="K232" s="6">
         <f>(130.5)*1000*0.83</f>
         <v>108315</v>
@@ -10078,7 +10512,9 @@
       <c r="I233" s="6">
         <v>24282</v>
       </c>
-      <c r="J233" s="6"/>
+      <c r="J233" s="6">
+        <v>271050</v>
+      </c>
       <c r="K233" s="6">
         <f>85.62*1000*0.83</f>
         <v>71064.599999999991</v>
@@ -10114,7 +10550,9 @@
       <c r="I234" s="6">
         <v>16907</v>
       </c>
-      <c r="J234" s="6"/>
+      <c r="J234" s="6">
+        <v>273300</v>
+      </c>
       <c r="K234" s="6">
         <v>30876</v>
       </c>
@@ -10149,7 +10587,9 @@
       <c r="I235" s="6">
         <v>41651</v>
       </c>
-      <c r="J235" s="6"/>
+      <c r="J235" s="6">
+        <v>487750</v>
+      </c>
       <c r="K235" s="6">
         <v>2324</v>
       </c>
@@ -10184,7 +10624,9 @@
       <c r="I236" s="6">
         <v>29974</v>
       </c>
-      <c r="J236" s="6"/>
+      <c r="J236" s="6">
+        <v>274300</v>
+      </c>
       <c r="K236" s="6">
         <v>2532</v>
       </c>
@@ -10219,7 +10661,9 @@
       <c r="I237" s="6">
         <v>38882</v>
       </c>
-      <c r="J237" s="6"/>
+      <c r="J237" s="6">
+        <v>479050</v>
+      </c>
       <c r="K237" s="6">
         <v>-5395</v>
       </c>
@@ -10254,7 +10698,9 @@
       <c r="I238" s="6">
         <v>36286</v>
       </c>
-      <c r="J238" s="6"/>
+      <c r="J238" s="6">
+        <v>299450</v>
+      </c>
       <c r="K238" s="6">
         <f>59.3*830</f>
         <v>49219</v>
@@ -10290,7 +10736,9 @@
       <c r="I239" s="6">
         <v>19317</v>
       </c>
-      <c r="J239" s="6"/>
+      <c r="J239" s="6">
+        <v>137850</v>
+      </c>
       <c r="K239" s="6">
         <f>(49.4-40.5)*1000*0.83</f>
         <v>7386.9999999999982</v>
@@ -10326,7 +10774,9 @@
       <c r="I240" s="6">
         <v>20598</v>
       </c>
-      <c r="J240" s="6"/>
+      <c r="J240" s="6">
+        <v>156200</v>
+      </c>
       <c r="K240" s="6">
         <f>-72*830</f>
         <v>-59760</v>
@@ -10362,7 +10812,9 @@
       <c r="I241" s="6">
         <v>26883</v>
       </c>
-      <c r="J241" s="6"/>
+      <c r="J241" s="6">
+        <v>163200</v>
+      </c>
       <c r="K241" s="6">
         <f>(63.55-38.4)*830</f>
         <v>20874.5</v>
@@ -10398,7 +10850,9 @@
       <c r="I242" s="6">
         <v>53249</v>
       </c>
-      <c r="J242" s="6"/>
+      <c r="J242" s="6">
+        <v>1150000</v>
+      </c>
       <c r="K242" s="6">
         <v>-5951</v>
       </c>
@@ -10433,7 +10887,9 @@
       <c r="I243" s="6">
         <v>60191</v>
       </c>
-      <c r="J243" s="6"/>
+      <c r="J243" s="6">
+        <v>1000000</v>
+      </c>
       <c r="K243" s="6">
         <f>(186400-23800)*0.83</f>
         <v>134958</v>
@@ -10469,7 +10925,9 @@
       <c r="I244" s="6">
         <v>73815</v>
       </c>
-      <c r="J244" s="6"/>
+      <c r="J244" s="6">
+        <v>847750</v>
+      </c>
       <c r="K244" s="6">
         <f>(243.28-23.65)*1000*0.83</f>
         <v>182292.9</v>
@@ -10505,7 +10963,9 @@
       <c r="I245" s="6">
         <v>52127</v>
       </c>
-      <c r="J245" s="6"/>
+      <c r="J245" s="6">
+        <v>541600</v>
+      </c>
       <c r="K245" s="6">
         <f>(185-14.06)*1000*0.83</f>
         <v>141880.19999999998</v>
@@ -10541,7 +11001,9 @@
       <c r="I246" s="6">
         <v>53184</v>
       </c>
-      <c r="J246" s="6"/>
+      <c r="J246" s="6">
+        <v>811850</v>
+      </c>
       <c r="K246" s="6">
         <f>(145.8-80.7)*1000*0.83</f>
         <v>54033</v>
@@ -10577,7 +11039,9 @@
       <c r="I247" s="6">
         <v>31477</v>
       </c>
-      <c r="J247" s="6"/>
+      <c r="J247" s="6">
+        <v>529800</v>
+      </c>
       <c r="K247" s="6">
         <v>-68641</v>
       </c>
@@ -10612,7 +11076,9 @@
       <c r="I248" s="6">
         <v>41707</v>
       </c>
-      <c r="J248" s="6"/>
+      <c r="J248" s="6">
+        <v>509550</v>
+      </c>
       <c r="K248" s="6">
         <v>48970</v>
       </c>
@@ -10647,7 +11113,9 @@
       <c r="I249" s="6">
         <v>61585</v>
       </c>
-      <c r="J249" s="6"/>
+      <c r="J249" s="6">
+        <v>649100</v>
+      </c>
       <c r="K249" s="6">
         <f>(179.9-38.75)*1000*0.83</f>
         <v>117154.5</v>
@@ -10683,7 +11151,9 @@
       <c r="I250" s="6">
         <v>17080</v>
       </c>
-      <c r="J250" s="6"/>
+      <c r="J250" s="6">
+        <v>371200</v>
+      </c>
       <c r="K250" s="6">
         <v>37890</v>
       </c>
@@ -10718,7 +11188,9 @@
       <c r="I251" s="6">
         <v>23766</v>
       </c>
-      <c r="J251" s="6"/>
+      <c r="J251" s="6">
+        <v>295100</v>
+      </c>
       <c r="K251" s="6">
         <v>42081</v>
       </c>
@@ -10753,7 +11225,9 @@
       <c r="I252" s="6">
         <v>25051</v>
       </c>
-      <c r="J252" s="6"/>
+      <c r="J252" s="6">
+        <v>323050</v>
+      </c>
       <c r="K252" s="6">
         <f>(46.6-5.46)*1000*0.83</f>
         <v>34146.199999999997</v>
@@ -10789,7 +11263,9 @@
       <c r="I253" s="6">
         <v>40002</v>
       </c>
-      <c r="J253" s="6"/>
+      <c r="J253" s="6">
+        <v>994950</v>
+      </c>
       <c r="K253" s="6">
         <v>466784</v>
       </c>
@@ -10824,7 +11300,9 @@
       <c r="I254" s="6">
         <v>31423</v>
       </c>
-      <c r="J254" s="6"/>
+      <c r="J254" s="6">
+        <v>497650</v>
+      </c>
       <c r="K254" s="6">
         <v>96811</v>
       </c>
@@ -10859,7 +11337,9 @@
       <c r="I255" s="6">
         <v>62462</v>
       </c>
-      <c r="J255" s="6"/>
+      <c r="J255" s="6">
+        <v>465600</v>
+      </c>
       <c r="K255" s="6">
         <v>145292</v>
       </c>
@@ -10894,7 +11374,9 @@
       <c r="I256" s="6">
         <v>10307</v>
       </c>
-      <c r="J256" s="6"/>
+      <c r="J256" s="6">
+        <v>287200</v>
+      </c>
       <c r="K256" s="6">
         <v>68973</v>
       </c>
@@ -10929,7 +11411,9 @@
       <c r="I257" s="6">
         <v>29188</v>
       </c>
-      <c r="J257" s="6"/>
+      <c r="J257" s="6">
+        <v>376250</v>
+      </c>
       <c r="K257" s="6">
         <f>(198.35-5)*830</f>
         <v>160480.5</v>
@@ -10965,7 +11449,9 @@
       <c r="I258" s="6">
         <v>39241</v>
       </c>
-      <c r="J258" s="6"/>
+      <c r="J258" s="6">
+        <v>413150</v>
+      </c>
       <c r="K258" s="6">
         <v>-17040</v>
       </c>
@@ -11000,7 +11486,9 @@
       <c r="I259" s="6">
         <v>31887</v>
       </c>
-      <c r="J259" s="6"/>
+      <c r="J259" s="6">
+        <v>490700</v>
+      </c>
       <c r="K259" s="6">
         <f>(49-81.4)*1000*0.83</f>
         <v>-26892.000000000004</v>
@@ -11036,7 +11524,9 @@
       <c r="I260" s="6">
         <v>36566</v>
       </c>
-      <c r="J260" s="6"/>
+      <c r="J260" s="6">
+        <v>345150</v>
+      </c>
       <c r="K260" s="6">
         <f>(163.89-114.5)*830</f>
         <v>40993.69999999999</v>
@@ -11072,7 +11562,9 @@
       <c r="I261" s="9">
         <v>30416</v>
       </c>
-      <c r="J261" s="9"/>
+      <c r="J261" s="9">
+        <v>419950</v>
+      </c>
       <c r="K261" s="9">
         <v>122516</v>
       </c>
@@ -11091,8 +11583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414F1D7-E339-A544-9A1C-306EF1AAE73C}">
   <dimension ref="A1:Q313"/>
   <sheetViews>
-    <sheetView topLeftCell="B280" workbookViewId="0">
-      <selection activeCell="K304" sqref="K304"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11137,7 +11629,7 @@
         <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
